--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73398E76-292E-4854-84BB-E43A1F96B6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6829C25E-5B89-4FF4-AA90-321C72503381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1035" windowWidth="28020" windowHeight="14820" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1478,10 +1478,10 @@
     <t>subdistrict_list = ${u_usp}</t>
   </si>
   <si>
-    <t>(2023 Avril) - 4. SCH/STH - Urine Filtration V2</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202304_4_urine_filtration_v2</t>
+    <t>(2023 Sept) - 4. SCH/STH - Urine Filtration</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_4_urine_filtration</t>
   </si>
 </sst>
 </file>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6829C25E-5B89-4FF4-AA90-321C72503381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFCD3A6-8408-4683-B9DB-95AB46FD6237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="491">
   <si>
     <t>type</t>
   </si>
@@ -209,75 +209,15 @@
     <t>recorders</t>
   </si>
   <si>
-    <t>ABOU KERIM Aguérégna </t>
-  </si>
-  <si>
-    <t>ADABRA Hélène </t>
-  </si>
-  <si>
-    <t>ADJODI Anabédédi Jonas </t>
-  </si>
-  <si>
-    <t>AGBOZO Senyo  </t>
-  </si>
-  <si>
-    <t>AGOSSOU A. Adolphe  </t>
-  </si>
-  <si>
-    <t>AMADOU Moussa </t>
-  </si>
-  <si>
-    <t>ANAGO Espoir  </t>
-  </si>
-  <si>
-    <t>FONVI Akakpo </t>
-  </si>
-  <si>
-    <t>GBOGBATSE Komi Mensa  </t>
-  </si>
-  <si>
-    <t>GNAMEY Judith </t>
-  </si>
-  <si>
     <t>HOUNYOVI Ayaovi</t>
   </si>
   <si>
-    <t>KAMASSA Hélène </t>
-  </si>
-  <si>
-    <t>KANTCHIRE Yendoube Emmanuel </t>
-  </si>
-  <si>
-    <t>KOKAN Faïzat </t>
-  </si>
-  <si>
-    <t>KUTOATI Abla Grâce </t>
-  </si>
-  <si>
-    <t>LARE Soumbako  </t>
-  </si>
-  <si>
-    <t>NAKOME Bamouni  </t>
-  </si>
-  <si>
     <t>NOUSSOUGNON Kokou</t>
   </si>
   <si>
     <t>SOH Atafembou</t>
   </si>
   <si>
-    <t>SOSSOU Efoe Stephane </t>
-  </si>
-  <si>
-    <t>SOTOU Novinyo  </t>
-  </si>
-  <si>
-    <t>TCHAKOU-HOHOE Koffi-Messan </t>
-  </si>
-  <si>
-    <t>YAKPA Kossi Georges </t>
-  </si>
-  <si>
     <t>yesNo</t>
   </si>
   <si>
@@ -1482,6 +1422,105 @@
   </si>
   <si>
     <t>tg_sch_sth_impact_202309_4_urine_filtration</t>
+  </si>
+  <si>
+    <t>ABAYE Elom</t>
+  </si>
+  <si>
+    <t>ABDOU-KERIM Agueregna</t>
+  </si>
+  <si>
+    <t>ADABRA Hélène</t>
+  </si>
+  <si>
+    <t>ADJAGODO Gadiel</t>
+  </si>
+  <si>
+    <t>ADJENDA Eke</t>
+  </si>
+  <si>
+    <t>AFANOU Kokou M</t>
+  </si>
+  <si>
+    <t>AGBOZO Senyo</t>
+  </si>
+  <si>
+    <t>AKOBI  Komi</t>
+  </si>
+  <si>
+    <t>AKUTSA Kafui</t>
+  </si>
+  <si>
+    <t>AWILI Mazama Esso</t>
+  </si>
+  <si>
+    <t>BADJASSEM Gloria Diyane</t>
+  </si>
+  <si>
+    <t>BAKOLTINA Disrama Denise</t>
+  </si>
+  <si>
+    <t>BATEBAWI Raphaël</t>
+  </si>
+  <si>
+    <t>DJAMAH Prosper</t>
+  </si>
+  <si>
+    <t>DJOBO Annissah</t>
+  </si>
+  <si>
+    <t>DOUMONGUE Tibanguebé</t>
+  </si>
+  <si>
+    <t>EKAHOHO Yaovi</t>
+  </si>
+  <si>
+    <t>GBOGBATSE Komi Mensa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNANLABA Pyabalo </t>
+  </si>
+  <si>
+    <t>KOKAN Faïzat</t>
+  </si>
+  <si>
+    <t>KUTOATI Abla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGO Kokou </t>
+  </si>
+  <si>
+    <t>MONTANT Minyo Ega Sossa</t>
+  </si>
+  <si>
+    <t>N’DATO Kossi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAKOME Bamouni </t>
+  </si>
+  <si>
+    <t>PORO Kpatcha Edjareguew</t>
+  </si>
+  <si>
+    <t>SAGOA Djamsa</t>
+  </si>
+  <si>
+    <t>SEDJRO Afantolo</t>
+  </si>
+  <si>
+    <t>SINGO ATTAH</t>
+  </si>
+  <si>
+    <t>SOLI Lontassam</t>
+  </si>
+  <si>
+    <t>SOTOU Novinyo</t>
+  </si>
+  <si>
+    <t>TAGBA Atna Edi</t>
+  </si>
+  <si>
+    <t>TCHAGBELE Wanikougnon</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1708,9 +1747,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1766,6 +1802,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2059,12 +2105,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="26" customWidth="1"/>
-    <col min="3" max="3" width="47.5" style="26" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="25" customWidth="1"/>
+    <col min="3" max="3" width="47.5" style="25" customWidth="1"/>
     <col min="4" max="4" width="47.375" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="25" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
@@ -2074,40 +2120,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="18.75">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2118,16 +2164,16 @@
       <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -2137,110 +2183,110 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:12" s="24" customFormat="1">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:12" s="23" customFormat="1">
+      <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-    </row>
-    <row r="4" spans="1:12" s="24" customFormat="1">
-      <c r="A4" s="30" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" s="23" customFormat="1">
+      <c r="A4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="40" t="s">
+      <c r="K4" s="27"/>
+      <c r="L4" s="39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="24" customFormat="1">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:12" s="23" customFormat="1">
+      <c r="A5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="40" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="25" customFormat="1">
+      <c r="K5" s="27"/>
+      <c r="L5" s="39" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="24" customFormat="1">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="36"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="25" customFormat="1">
+    <row r="7" spans="1:12" s="24" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="36"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
@@ -2249,20 +2295,20 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="25" customFormat="1" ht="31.5">
+    <row r="8" spans="1:12" s="24" customFormat="1" ht="31.5">
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="36"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="9" t="s">
         <v>31</v>
       </c>
@@ -2308,16 +2354,16 @@
         <v>38</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="37"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="39"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="37"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1">
       <c r="A11" s="10" t="s">
@@ -2330,14 +2376,14 @@
         <v>40</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="37"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1">
       <c r="A12" s="10" t="s">
@@ -2350,60 +2396,60 @@
         <v>42</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="37"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1">
       <c r="A13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="37"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1">
       <c r="A14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="37"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="38"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="12"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="32"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="37"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="11"/>
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
@@ -2417,11 +2463,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H435"/>
+  <dimension ref="A1:H448"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2460,10 +2506,10 @@
         <v>52</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>53</v>
+        <v>458</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>53</v>
+        <v>458</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="21"/>
@@ -2475,10 +2521,10 @@
         <v>52</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>54</v>
+        <v>459</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>54</v>
+        <v>459</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="21"/>
@@ -2490,10 +2536,10 @@
         <v>52</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>55</v>
+        <v>460</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>55</v>
+        <v>460</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
@@ -2505,10 +2551,10 @@
         <v>52</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>56</v>
+        <v>461</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>56</v>
+        <v>461</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
@@ -2520,10 +2566,10 @@
         <v>52</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>57</v>
+        <v>462</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>57</v>
+        <v>462</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="21"/>
@@ -2535,10 +2581,10 @@
         <v>52</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>58</v>
+        <v>463</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>58</v>
+        <v>463</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
@@ -2550,10 +2596,10 @@
         <v>52</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>59</v>
+        <v>464</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>59</v>
+        <v>464</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
@@ -2565,10 +2611,10 @@
         <v>52</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>60</v>
+        <v>465</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>60</v>
+        <v>465</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
@@ -2580,10 +2626,10 @@
         <v>52</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>61</v>
+        <v>466</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>61</v>
+        <v>466</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
@@ -2595,10 +2641,10 @@
         <v>52</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>62</v>
+        <v>467</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>62</v>
+        <v>467</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
@@ -2610,10 +2656,10 @@
         <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>63</v>
+        <v>468</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>63</v>
+        <v>468</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
@@ -2625,10 +2671,10 @@
         <v>52</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>469</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>64</v>
+        <v>469</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="21"/>
@@ -2640,10 +2686,10 @@
         <v>52</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>65</v>
+        <v>470</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>65</v>
+        <v>470</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
@@ -2655,10 +2701,10 @@
         <v>52</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>66</v>
+        <v>471</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>66</v>
+        <v>471</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="21"/>
@@ -2670,570 +2716,543 @@
         <v>52</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>67</v>
+        <v>472</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>67</v>
+        <v>472</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1">
+    <row r="17" spans="1:7" s="4" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>68</v>
+        <v>473</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>68</v>
+        <v>473</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1">
+    <row r="18" spans="1:7" s="4" customFormat="1">
       <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>69</v>
+        <v>474</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>69</v>
+        <v>474</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1">
+    <row r="19" spans="1:7" s="4" customFormat="1">
       <c r="A19" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>70</v>
+        <v>475</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>70</v>
+        <v>475</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1">
+    <row r="20" spans="1:7" s="4" customFormat="1">
       <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>71</v>
+        <v>476</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>71</v>
+        <v>476</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1">
+    <row r="21" spans="1:7" s="4" customFormat="1">
       <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1">
+    <row r="22" spans="1:7" s="4" customFormat="1">
       <c r="A22" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>73</v>
+        <v>477</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>73</v>
+        <v>477</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1">
+    <row r="23" spans="1:7" s="4" customFormat="1">
       <c r="A23" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>74</v>
+        <v>478</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>74</v>
+        <v>478</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="1:8" s="4" customFormat="1">
+    <row r="24" spans="1:7" s="4" customFormat="1">
       <c r="A24" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>75</v>
+        <v>479</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>75</v>
+        <v>479</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="14" t="s">
+    <row r="25" spans="1:7" s="4" customFormat="1">
+      <c r="A25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1">
+      <c r="A26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1">
+      <c r="A27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1">
+      <c r="A28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1">
+      <c r="A29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1">
+      <c r="A30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1">
+      <c r="A31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1">
+      <c r="A32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1">
+      <c r="A33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1">
+      <c r="A34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1">
+      <c r="A35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1">
+      <c r="A36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>489</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>489</v>
+      </c>
+      <c r="D36" s="44"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1">
+      <c r="A37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="B42" s="15" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="15" t="s">
-        <v>79</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="18"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="16" t="s">
-        <v>50</v>
+      <c r="A43" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="15" t="s">
-        <v>79</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="18"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="16" t="s">
-        <v>50</v>
+      <c r="A44" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="15" t="s">
-        <v>79</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="18"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" ht="31.5">
-      <c r="A45" s="16" t="s">
-        <v>50</v>
+    <row r="45" spans="1:7">
+      <c r="A45" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="15" t="s">
-        <v>90</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="18"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="16" t="s">
-        <v>50</v>
+      <c r="A46" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="15" t="s">
-        <v>87</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="18"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="1:7" ht="31.5">
-      <c r="A47" s="16" t="s">
-        <v>50</v>
+    <row r="47" spans="1:7">
+      <c r="A47" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="15" t="s">
-        <v>90</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="18"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="16" t="s">
-        <v>50</v>
+      <c r="A48" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="15" t="s">
-        <v>87</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="18"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="16" t="s">
-        <v>50</v>
+      <c r="A49" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="15" t="s">
-        <v>82</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="18"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
     </row>
-    <row r="50" spans="1:7" ht="31.5">
-      <c r="A50" s="16" t="s">
-        <v>50</v>
+    <row r="50" spans="1:7">
+      <c r="A50" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="15" t="s">
-        <v>90</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="18"/>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
     </row>
-    <row r="51" spans="1:7" ht="31.5">
-      <c r="A51" s="16" t="s">
-        <v>50</v>
+    <row r="51" spans="1:7">
+      <c r="A51" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="15" t="s">
-        <v>90</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="18"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>104</v>
-      </c>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="E52" s="16"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
     </row>
@@ -3242,14 +3261,14 @@
         <v>50</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="15" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
@@ -3259,14 +3278,14 @@
         <v>50</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="15" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
@@ -3276,14 +3295,14 @@
         <v>50</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="15" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
@@ -3293,14 +3312,14 @@
         <v>50</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="15" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
@@ -3310,31 +3329,31 @@
         <v>50</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="15" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" ht="31.5">
       <c r="A58" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="15" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
@@ -3344,31 +3363,31 @@
         <v>50</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="15" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" ht="31.5">
       <c r="A60" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="15" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
@@ -3378,14 +3397,14 @@
         <v>50</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="15" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
@@ -3395,48 +3414,48 @@
         <v>50</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="15" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" ht="31.5">
       <c r="A63" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="15" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" ht="31.5">
       <c r="A64" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="15" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
@@ -3446,31 +3465,31 @@
         <v>50</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="15" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
     </row>
-    <row r="66" spans="1:7" ht="31.5">
+    <row r="66" spans="1:7">
       <c r="A66" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="15" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
@@ -3480,14 +3499,14 @@
         <v>50</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="15" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
@@ -3497,31 +3516,31 @@
         <v>50</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="15" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="1:7" ht="31.5">
+    <row r="69" spans="1:7">
       <c r="A69" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="15" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
@@ -3531,14 +3550,14 @@
         <v>50</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="15" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
@@ -3548,31 +3567,31 @@
         <v>50</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="15" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
     </row>
-    <row r="72" spans="1:7" ht="31.5">
+    <row r="72" spans="1:7">
       <c r="A72" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
@@ -3582,14 +3601,14 @@
         <v>50</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="15" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
@@ -3599,14 +3618,14 @@
         <v>50</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="15" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
@@ -3616,14 +3635,14 @@
         <v>50</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="15" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
@@ -3633,14 +3652,14 @@
         <v>50</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="15" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
@@ -3650,14 +3669,14 @@
         <v>50</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="15" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
@@ -3667,31 +3686,31 @@
         <v>50</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="15" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" ht="31.5">
       <c r="A79" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="15" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
@@ -3701,14 +3720,14 @@
         <v>50</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="15" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
@@ -3718,82 +3737,82 @@
         <v>50</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="15" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" ht="31.5">
       <c r="A82" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="15" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
     </row>
-    <row r="83" spans="1:7" ht="31.5">
+    <row r="83" spans="1:7">
       <c r="A83" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="15" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
     </row>
-    <row r="84" spans="1:7" ht="31.5">
+    <row r="84" spans="1:7">
       <c r="A84" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="15" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" ht="31.5">
       <c r="A85" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="15" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
@@ -3803,14 +3822,14 @@
         <v>50</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="15" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
@@ -3820,10 +3839,10 @@
         <v>50</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="15" t="s">
@@ -3837,14 +3856,14 @@
         <v>50</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="15" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
@@ -3854,14 +3873,14 @@
         <v>50</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="15" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
@@ -3871,14 +3890,14 @@
         <v>50</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="15" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
@@ -3888,31 +3907,31 @@
         <v>50</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="15" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
     </row>
-    <row r="92" spans="1:7" ht="31.5">
+    <row r="92" spans="1:7">
       <c r="A92" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="15" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
@@ -3922,48 +3941,48 @@
         <v>50</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="15" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
     </row>
-    <row r="94" spans="1:7" ht="31.5">
+    <row r="94" spans="1:7">
       <c r="A94" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="15" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
     </row>
-    <row r="95" spans="1:7" ht="31.5">
+    <row r="95" spans="1:7">
       <c r="A95" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="15" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
@@ -3973,48 +3992,48 @@
         <v>50</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="15" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" ht="31.5">
       <c r="A97" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="D97" s="16"/>
       <c r="E97" s="15" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
     </row>
-    <row r="98" spans="1:7" ht="31.5">
+    <row r="98" spans="1:7">
       <c r="A98" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="15" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
@@ -4024,14 +4043,14 @@
         <v>50</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="15" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
@@ -4041,14 +4060,14 @@
         <v>50</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="15" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
@@ -4058,14 +4077,14 @@
         <v>50</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="15" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
@@ -4075,65 +4094,65 @@
         <v>50</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="15" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
     </row>
-    <row r="103" spans="1:7" ht="31.5">
+    <row r="103" spans="1:7">
       <c r="A103" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="D103" s="16"/>
       <c r="E103" s="15" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="1:7" ht="31.5">
+    <row r="104" spans="1:7">
       <c r="A104" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="15" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" ht="31.5">
       <c r="A105" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="15" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
@@ -4143,14 +4162,14 @@
         <v>50</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="15" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
@@ -4160,31 +4179,31 @@
         <v>50</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="15" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" ht="31.5">
       <c r="A108" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="D108" s="16"/>
       <c r="E108" s="15" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
@@ -4194,14 +4213,14 @@
         <v>50</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="D109" s="16"/>
       <c r="E109" s="15" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
@@ -4211,31 +4230,31 @@
         <v>50</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D110" s="16"/>
       <c r="E110" s="15" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" ht="31.5">
       <c r="A111" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D111" s="16"/>
       <c r="E111" s="15" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
@@ -4245,14 +4264,14 @@
         <v>50</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="15" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
@@ -4262,14 +4281,14 @@
         <v>50</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="D113" s="16"/>
       <c r="E113" s="15" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
@@ -4279,48 +4298,48 @@
         <v>50</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="15" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
     </row>
-    <row r="115" spans="1:7" ht="31.5">
+    <row r="115" spans="1:7">
       <c r="A115" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="D115" s="16"/>
       <c r="E115" s="15" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="F115" s="16"/>
       <c r="G115" s="16"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" ht="31.5">
       <c r="A116" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="D116" s="16"/>
       <c r="E116" s="15" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
@@ -4330,65 +4349,65 @@
         <v>50</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="D117" s="16"/>
       <c r="E117" s="15" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
     </row>
-    <row r="118" spans="1:7" ht="31.5">
+    <row r="118" spans="1:7">
       <c r="A118" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="D118" s="16"/>
       <c r="E118" s="15" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
     </row>
-    <row r="119" spans="1:7" ht="47.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D119" s="16"/>
       <c r="E119" s="15" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="16"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" ht="31.5">
       <c r="A120" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D120" s="16"/>
       <c r="E120" s="15" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
@@ -4398,14 +4417,14 @@
         <v>50</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D121" s="16"/>
       <c r="E121" s="15" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
@@ -4415,48 +4434,48 @@
         <v>50</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="D122" s="16"/>
       <c r="E122" s="15" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
     </row>
-    <row r="123" spans="1:7" ht="31.5">
+    <row r="123" spans="1:7">
       <c r="A123" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="D123" s="16"/>
       <c r="E123" s="15" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
     </row>
-    <row r="124" spans="1:7" ht="31.5">
+    <row r="124" spans="1:7">
       <c r="A124" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="D124" s="16"/>
       <c r="E124" s="15" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
@@ -4466,31 +4485,31 @@
         <v>50</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="D125" s="16"/>
       <c r="E125" s="15" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F125" s="16"/>
       <c r="G125" s="16"/>
     </row>
-    <row r="126" spans="1:7" ht="31.5">
+    <row r="126" spans="1:7">
       <c r="A126" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="D126" s="16"/>
       <c r="E126" s="15" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
@@ -4500,31 +4519,31 @@
         <v>50</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D127" s="16"/>
       <c r="E127" s="15" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F127" s="16"/>
       <c r="G127" s="16"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" ht="31.5">
       <c r="A128" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="D128" s="16"/>
       <c r="E128" s="15" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
@@ -4534,31 +4553,31 @@
         <v>50</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="D129" s="16"/>
       <c r="E129" s="15" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" ht="31.5">
       <c r="A130" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="D130" s="16"/>
       <c r="E130" s="15" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
@@ -4568,279 +4587,279 @@
         <v>50</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="D131" s="16"/>
       <c r="E131" s="15" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F131" s="16"/>
       <c r="G131" s="16"/>
     </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="16"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24"/>
+    <row r="132" spans="1:7" ht="47.25">
+      <c r="A132" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>153</v>
+      </c>
       <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
+      <c r="E132" s="15" t="s">
+        <v>154</v>
+      </c>
       <c r="F132" s="16"/>
       <c r="G132" s="16"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="15" t="s">
-        <v>107</v>
-      </c>
+      <c r="E133" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F133" s="16"/>
       <c r="G133" s="16"/>
     </row>
-    <row r="134" spans="1:7" ht="47.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="15" t="s">
-        <v>139</v>
-      </c>
+      <c r="E134" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F134" s="16"/>
       <c r="G134" s="16"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" ht="31.5">
       <c r="A135" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="15" t="s">
-        <v>183</v>
-      </c>
+      <c r="E135" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F135" s="16"/>
       <c r="G135" s="16"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" ht="31.5">
       <c r="A136" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="15" t="s">
-        <v>134</v>
-      </c>
+      <c r="E136" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F136" s="16"/>
       <c r="G136" s="16"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" ht="31.5">
       <c r="A137" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
-      <c r="F137" s="15" t="s">
-        <v>108</v>
-      </c>
+      <c r="E137" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F137" s="16"/>
       <c r="G137" s="16"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="15" t="s">
-        <v>93</v>
-      </c>
+      <c r="E138" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F138" s="16"/>
       <c r="G138" s="16"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" ht="31.5">
       <c r="A139" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="15" t="s">
-        <v>134</v>
-      </c>
+      <c r="E139" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F139" s="16"/>
       <c r="G139" s="16"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
-      <c r="F140" s="15" t="s">
-        <v>127</v>
-      </c>
+      <c r="E140" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F140" s="16"/>
       <c r="G140" s="16"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="15" t="s">
-        <v>185</v>
-      </c>
+      <c r="E141" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F141" s="16"/>
       <c r="G141" s="16"/>
     </row>
-    <row r="142" spans="1:7" ht="31.5">
+    <row r="142" spans="1:7">
       <c r="A142" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="D142" s="16"/>
-      <c r="E142" s="16"/>
-      <c r="F142" s="15" t="s">
-        <v>151</v>
-      </c>
+      <c r="E142" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F142" s="16"/>
       <c r="G142" s="16"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="15" t="s">
-        <v>109</v>
-      </c>
+      <c r="E143" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F143" s="16"/>
       <c r="G143" s="16"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" ht="31.5">
       <c r="A144" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="D144" s="16"/>
-      <c r="E144" s="16"/>
-      <c r="F144" s="15" t="s">
-        <v>145</v>
-      </c>
+      <c r="E144" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F144" s="16"/>
       <c r="G144" s="16"/>
     </row>
-    <row r="145" spans="1:7" ht="47.25">
-      <c r="A145" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>198</v>
-      </c>
+    <row r="145" spans="1:7">
+      <c r="A145" s="16"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="23"/>
       <c r="D145" s="16"/>
       <c r="E145" s="16"/>
-      <c r="F145" s="15" t="s">
-        <v>122</v>
-      </c>
+      <c r="F145" s="16"/>
       <c r="G145" s="16"/>
     </row>
-    <row r="146" spans="1:7" ht="31.5">
+    <row r="146" spans="1:7">
       <c r="A146" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="D146" s="16"/>
       <c r="E146" s="16"/>
       <c r="F146" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G146" s="16"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" ht="47.25">
       <c r="A147" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="D147" s="16"/>
       <c r="E147" s="16"/>
       <c r="F147" s="15" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G147" s="16"/>
     </row>
@@ -4849,15 +4868,15 @@
         <v>51</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="D148" s="16"/>
       <c r="E148" s="16"/>
       <c r="F148" s="15" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="G148" s="16"/>
     </row>
@@ -4866,15 +4885,15 @@
         <v>51</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="D149" s="16"/>
       <c r="E149" s="16"/>
       <c r="F149" s="15" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G149" s="16"/>
     </row>
@@ -4883,83 +4902,83 @@
         <v>51</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D150" s="16"/>
       <c r="E150" s="16"/>
       <c r="F150" s="15" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G150" s="16"/>
     </row>
-    <row r="151" spans="1:7" ht="31.5">
+    <row r="151" spans="1:7">
       <c r="A151" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="D151" s="16"/>
       <c r="E151" s="16"/>
       <c r="F151" s="15" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="G151" s="16"/>
     </row>
-    <row r="152" spans="1:7" ht="31.5">
+    <row r="152" spans="1:7">
       <c r="A152" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="D152" s="16"/>
       <c r="E152" s="16"/>
       <c r="F152" s="15" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="G152" s="16"/>
     </row>
-    <row r="153" spans="1:7" ht="31.5">
+    <row r="153" spans="1:7">
       <c r="A153" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="D153" s="16"/>
       <c r="E153" s="16"/>
       <c r="F153" s="15" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="G153" s="16"/>
     </row>
-    <row r="154" spans="1:7" ht="31.5">
+    <row r="154" spans="1:7">
       <c r="A154" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="D154" s="16"/>
       <c r="E154" s="16"/>
       <c r="F154" s="15" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="G154" s="16"/>
     </row>
@@ -4968,10 +4987,10 @@
         <v>51</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D155" s="16"/>
       <c r="E155" s="16"/>
@@ -4985,15 +5004,15 @@
         <v>51</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="D156" s="16"/>
       <c r="E156" s="16"/>
       <c r="F156" s="15" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="G156" s="16"/>
     </row>
@@ -5002,66 +5021,66 @@
         <v>51</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="D157" s="16"/>
       <c r="E157" s="16"/>
       <c r="F157" s="15" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="G157" s="16"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" ht="47.25">
       <c r="A158" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="D158" s="16"/>
       <c r="E158" s="16"/>
       <c r="F158" s="15" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="G158" s="16"/>
     </row>
-    <row r="159" spans="1:7" ht="47.25">
+    <row r="159" spans="1:7" ht="31.5">
       <c r="A159" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="D159" s="16"/>
       <c r="E159" s="16"/>
       <c r="F159" s="15" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="G159" s="16"/>
     </row>
-    <row r="160" spans="1:7" ht="31.5">
+    <row r="160" spans="1:7">
       <c r="A160" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="D160" s="16"/>
       <c r="E160" s="16"/>
       <c r="F160" s="15" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="G160" s="16"/>
     </row>
@@ -5070,66 +5089,66 @@
         <v>51</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="D161" s="16"/>
       <c r="E161" s="16"/>
       <c r="F161" s="15" t="s">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="G161" s="16"/>
     </row>
-    <row r="162" spans="1:7" ht="47.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="D162" s="16"/>
       <c r="E162" s="16"/>
       <c r="F162" s="15" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="G162" s="16"/>
     </row>
-    <row r="163" spans="1:7" ht="31.5">
+    <row r="163" spans="1:7">
       <c r="A163" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="D163" s="16"/>
       <c r="E163" s="16"/>
       <c r="F163" s="15" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G163" s="16"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" ht="31.5">
       <c r="A164" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="D164" s="16"/>
       <c r="E164" s="16"/>
       <c r="F164" s="15" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G164" s="16"/>
     </row>
@@ -5138,66 +5157,66 @@
         <v>51</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="D165" s="16"/>
       <c r="E165" s="16"/>
       <c r="F165" s="15" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G165" s="16"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" ht="31.5">
       <c r="A166" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D166" s="16"/>
       <c r="E166" s="16"/>
       <c r="F166" s="15" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G166" s="16"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" ht="31.5">
       <c r="A167" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="D167" s="16"/>
       <c r="E167" s="16"/>
       <c r="F167" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G167" s="16"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" ht="31.5">
       <c r="A168" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="D168" s="16"/>
       <c r="E168" s="16"/>
       <c r="F168" s="15" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G168" s="16"/>
     </row>
@@ -5206,15 +5225,15 @@
         <v>51</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="D169" s="16"/>
       <c r="E169" s="16"/>
       <c r="F169" s="15" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G169" s="16"/>
     </row>
@@ -5223,15 +5242,15 @@
         <v>51</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="D170" s="16"/>
       <c r="E170" s="16"/>
       <c r="F170" s="15" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="G170" s="16"/>
     </row>
@@ -5240,49 +5259,49 @@
         <v>51</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="D171" s="16"/>
       <c r="E171" s="16"/>
       <c r="F171" s="15" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="G171" s="16"/>
     </row>
-    <row r="172" spans="1:7" ht="31.5">
+    <row r="172" spans="1:7" ht="47.25">
       <c r="A172" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="D172" s="16"/>
       <c r="E172" s="16"/>
       <c r="F172" s="15" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="G172" s="16"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" ht="31.5">
       <c r="A173" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="D173" s="16"/>
       <c r="E173" s="16"/>
       <c r="F173" s="15" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="G173" s="16"/>
     </row>
@@ -5291,100 +5310,100 @@
         <v>51</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="D174" s="16"/>
       <c r="E174" s="16"/>
       <c r="F174" s="15" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="G174" s="16"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" ht="47.25">
       <c r="A175" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="D175" s="16"/>
       <c r="E175" s="16"/>
       <c r="F175" s="15" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="G175" s="16"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" ht="31.5">
       <c r="A176" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="D176" s="16"/>
       <c r="E176" s="16"/>
       <c r="F176" s="15" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G176" s="16"/>
     </row>
-    <row r="177" spans="1:7" ht="31.5">
+    <row r="177" spans="1:7">
       <c r="A177" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
       <c r="F177" s="15" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="G177" s="16"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" ht="31.5">
       <c r="A178" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="D178" s="16"/>
       <c r="E178" s="16"/>
       <c r="F178" s="15" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="G178" s="16"/>
     </row>
-    <row r="179" spans="1:7" ht="31.5">
+    <row r="179" spans="1:7">
       <c r="A179" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="D179" s="16"/>
       <c r="E179" s="16"/>
       <c r="F179" s="15" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="G179" s="16"/>
     </row>
@@ -5393,49 +5412,49 @@
         <v>51</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="D180" s="16"/>
       <c r="E180" s="16"/>
       <c r="F180" s="15" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="G180" s="16"/>
     </row>
-    <row r="181" spans="1:7" ht="31.5">
+    <row r="181" spans="1:7">
       <c r="A181" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="D181" s="16"/>
       <c r="E181" s="16"/>
       <c r="F181" s="15" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G181" s="16"/>
     </row>
-    <row r="182" spans="1:7" ht="31.5">
+    <row r="182" spans="1:7">
       <c r="A182" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="D182" s="16"/>
       <c r="E182" s="16"/>
       <c r="F182" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G182" s="16"/>
     </row>
@@ -5444,49 +5463,49 @@
         <v>51</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
       <c r="F183" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G183" s="16"/>
     </row>
-    <row r="184" spans="1:7" ht="31.5">
+    <row r="184" spans="1:7">
       <c r="A184" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="D184" s="16"/>
       <c r="E184" s="16"/>
       <c r="F184" s="15" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="G184" s="16"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" ht="31.5">
       <c r="A185" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="D185" s="16"/>
       <c r="E185" s="16"/>
       <c r="F185" s="15" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="G185" s="16"/>
     </row>
@@ -5495,15 +5514,15 @@
         <v>51</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="D186" s="16"/>
       <c r="E186" s="16"/>
       <c r="F186" s="15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G186" s="16"/>
     </row>
@@ -5512,15 +5531,15 @@
         <v>51</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
       <c r="F187" s="15" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="G187" s="16"/>
     </row>
@@ -5529,49 +5548,49 @@
         <v>51</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="D188" s="16"/>
       <c r="E188" s="16"/>
       <c r="F188" s="15" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="G188" s="16"/>
     </row>
-    <row r="189" spans="1:7" ht="31.5">
+    <row r="189" spans="1:7">
       <c r="A189" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="D189" s="16"/>
       <c r="E189" s="16"/>
       <c r="F189" s="15" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G189" s="16"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" ht="31.5">
       <c r="A190" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="D190" s="16"/>
       <c r="E190" s="16"/>
       <c r="F190" s="15" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="G190" s="16"/>
     </row>
@@ -5580,83 +5599,83 @@
         <v>51</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="D191" s="16"/>
       <c r="E191" s="16"/>
       <c r="F191" s="15" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="G191" s="16"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" ht="31.5">
       <c r="A192" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="D192" s="16"/>
       <c r="E192" s="16"/>
       <c r="F192" s="15" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="G192" s="16"/>
     </row>
-    <row r="193" spans="1:7" ht="31.5">
+    <row r="193" spans="1:7">
       <c r="A193" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="D193" s="16"/>
       <c r="E193" s="16"/>
       <c r="F193" s="15" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G193" s="16"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" ht="31.5">
       <c r="A194" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D194" s="16"/>
       <c r="E194" s="16"/>
       <c r="F194" s="15" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="G194" s="16"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" ht="31.5">
       <c r="A195" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="D195" s="16"/>
       <c r="E195" s="16"/>
       <c r="F195" s="15" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="G195" s="16"/>
     </row>
@@ -5665,32 +5684,32 @@
         <v>51</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="D196" s="16"/>
       <c r="E196" s="16"/>
       <c r="F196" s="15" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G196" s="16"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" ht="31.5">
       <c r="A197" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="D197" s="16"/>
       <c r="E197" s="16"/>
       <c r="F197" s="15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G197" s="16"/>
     </row>
@@ -5699,15 +5718,15 @@
         <v>51</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="D198" s="16"/>
       <c r="E198" s="16"/>
       <c r="F198" s="15" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G198" s="16"/>
     </row>
@@ -5716,32 +5735,32 @@
         <v>51</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="D199" s="16"/>
       <c r="E199" s="16"/>
       <c r="F199" s="15" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="G199" s="16"/>
     </row>
-    <row r="200" spans="1:7" ht="31.5">
+    <row r="200" spans="1:7">
       <c r="A200" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>249</v>
+        <v>95</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>249</v>
+        <v>95</v>
       </c>
       <c r="D200" s="16"/>
       <c r="E200" s="16"/>
       <c r="F200" s="15" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="G200" s="16"/>
     </row>
@@ -5750,15 +5769,15 @@
         <v>51</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="D201" s="16"/>
       <c r="E201" s="16"/>
       <c r="F201" s="15" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G201" s="16"/>
     </row>
@@ -5767,32 +5786,32 @@
         <v>51</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="D202" s="16"/>
       <c r="E202" s="16"/>
       <c r="F202" s="15" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="G202" s="16"/>
     </row>
-    <row r="203" spans="1:7" ht="31.5">
+    <row r="203" spans="1:7">
       <c r="A203" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="D203" s="16"/>
       <c r="E203" s="16"/>
       <c r="F203" s="15" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="G203" s="16"/>
     </row>
@@ -5801,32 +5820,32 @@
         <v>51</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="D204" s="16"/>
       <c r="E204" s="16"/>
       <c r="F204" s="15" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="G204" s="16"/>
     </row>
-    <row r="205" spans="1:7" ht="31.5">
+    <row r="205" spans="1:7">
       <c r="A205" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="D205" s="16"/>
       <c r="E205" s="16"/>
       <c r="F205" s="15" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="G205" s="16"/>
     </row>
@@ -5835,49 +5854,49 @@
         <v>51</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="D206" s="16"/>
       <c r="E206" s="16"/>
       <c r="F206" s="15" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="G206" s="16"/>
     </row>
-    <row r="207" spans="1:7" ht="31.5">
+    <row r="207" spans="1:7">
       <c r="A207" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="D207" s="16"/>
       <c r="E207" s="16"/>
       <c r="F207" s="15" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G207" s="16"/>
     </row>
-    <row r="208" spans="1:7" ht="31.5">
+    <row r="208" spans="1:7">
       <c r="A208" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="D208" s="16"/>
       <c r="E208" s="16"/>
       <c r="F208" s="15" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="G208" s="16"/>
     </row>
@@ -5886,32 +5905,32 @@
         <v>51</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="D209" s="16"/>
       <c r="E209" s="16"/>
       <c r="F209" s="15" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="G209" s="16"/>
     </row>
-    <row r="210" spans="1:7" ht="78.75">
+    <row r="210" spans="1:7">
       <c r="A210" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="D210" s="16"/>
       <c r="E210" s="16"/>
       <c r="F210" s="15" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G210" s="16"/>
     </row>
@@ -5920,15 +5939,15 @@
         <v>51</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="D211" s="16"/>
       <c r="E211" s="16"/>
       <c r="F211" s="15" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="G211" s="16"/>
     </row>
@@ -5937,32 +5956,32 @@
         <v>51</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="D212" s="16"/>
       <c r="E212" s="16"/>
       <c r="F212" s="15" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="G212" s="16"/>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" ht="31.5">
       <c r="A213" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="D213" s="16"/>
       <c r="E213" s="16"/>
       <c r="F213" s="15" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="G213" s="16"/>
     </row>
@@ -5971,15 +5990,15 @@
         <v>51</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="D214" s="16"/>
       <c r="E214" s="16"/>
       <c r="F214" s="15" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="G214" s="16"/>
     </row>
@@ -5988,66 +6007,66 @@
         <v>51</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="D215" s="16"/>
       <c r="E215" s="16"/>
       <c r="F215" s="15" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="G215" s="16"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" ht="31.5">
       <c r="A216" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>262</v>
+        <v>99</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>262</v>
+        <v>99</v>
       </c>
       <c r="D216" s="16"/>
       <c r="E216" s="16"/>
       <c r="F216" s="15" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G216" s="16"/>
     </row>
-    <row r="217" spans="1:7" ht="47.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>263</v>
+        <v>101</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>263</v>
+        <v>101</v>
       </c>
       <c r="D217" s="16"/>
       <c r="E217" s="16"/>
       <c r="F217" s="15" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="G217" s="16"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" ht="31.5">
       <c r="A218" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="D218" s="16"/>
       <c r="E218" s="16"/>
       <c r="F218" s="15" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="G218" s="16"/>
     </row>
@@ -6056,100 +6075,100 @@
         <v>51</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="D219" s="16"/>
       <c r="E219" s="16"/>
       <c r="F219" s="15" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="G219" s="16"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" ht="31.5">
       <c r="A220" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="D220" s="16"/>
       <c r="E220" s="16"/>
       <c r="F220" s="15" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="G220" s="16"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" ht="31.5">
       <c r="A221" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="D221" s="16"/>
       <c r="E221" s="16"/>
       <c r="F221" s="15" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="G221" s="16"/>
     </row>
-    <row r="222" spans="1:7" ht="31.5">
+    <row r="222" spans="1:7">
       <c r="A222" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="D222" s="16"/>
       <c r="E222" s="16"/>
       <c r="F222" s="15" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="G222" s="16"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" ht="78.75">
       <c r="A223" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="D223" s="16"/>
       <c r="E223" s="16"/>
       <c r="F223" s="15" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="G223" s="16"/>
     </row>
-    <row r="224" spans="1:7" ht="31.5">
+    <row r="224" spans="1:7">
       <c r="A224" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="D224" s="16"/>
       <c r="E224" s="16"/>
       <c r="F224" s="15" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="G224" s="16"/>
     </row>
@@ -6158,15 +6177,15 @@
         <v>51</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>271</v>
+        <v>108</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>271</v>
+        <v>108</v>
       </c>
       <c r="D225" s="16"/>
       <c r="E225" s="16"/>
       <c r="F225" s="15" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="G225" s="16"/>
     </row>
@@ -6175,49 +6194,49 @@
         <v>51</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="D226" s="16"/>
       <c r="E226" s="16"/>
       <c r="F226" s="15" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="G226" s="16"/>
     </row>
-    <row r="227" spans="1:7" ht="47.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="D227" s="16"/>
       <c r="E227" s="16"/>
       <c r="F227" s="15" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G227" s="16"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" ht="31.5">
       <c r="A228" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="D228" s="16"/>
       <c r="E228" s="16"/>
       <c r="F228" s="15" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="G228" s="16"/>
     </row>
@@ -6226,49 +6245,49 @@
         <v>51</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="D229" s="16"/>
       <c r="E229" s="16"/>
       <c r="F229" s="15" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="G229" s="16"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" ht="47.25">
       <c r="A230" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="D230" s="16"/>
       <c r="E230" s="16"/>
       <c r="F230" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G230" s="16"/>
     </row>
-    <row r="231" spans="1:7" ht="47.25">
+    <row r="231" spans="1:7">
       <c r="A231" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="D231" s="16"/>
       <c r="E231" s="16"/>
       <c r="F231" s="15" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="G231" s="16"/>
     </row>
@@ -6277,15 +6296,15 @@
         <v>51</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="C232" s="15" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="D232" s="16"/>
       <c r="E232" s="16"/>
       <c r="F232" s="15" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="G232" s="16"/>
     </row>
@@ -6294,49 +6313,49 @@
         <v>51</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="D233" s="16"/>
       <c r="E233" s="16"/>
       <c r="F233" s="15" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G233" s="16"/>
     </row>
-    <row r="234" spans="1:7" ht="31.5">
+    <row r="234" spans="1:7">
       <c r="A234" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="D234" s="16"/>
       <c r="E234" s="16"/>
       <c r="F234" s="15" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="G234" s="16"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" ht="31.5">
       <c r="A235" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D235" s="16"/>
       <c r="E235" s="16"/>
       <c r="F235" s="15" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="G235" s="16"/>
     </row>
@@ -6345,15 +6364,15 @@
         <v>51</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="D236" s="16"/>
       <c r="E236" s="16"/>
       <c r="F236" s="15" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="G236" s="16"/>
     </row>
@@ -6362,15 +6381,15 @@
         <v>51</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="D237" s="16"/>
       <c r="E237" s="16"/>
       <c r="F237" s="15" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="G237" s="16"/>
     </row>
@@ -6379,15 +6398,15 @@
         <v>51</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="D238" s="16"/>
       <c r="E238" s="16"/>
       <c r="F238" s="15" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G238" s="16"/>
     </row>
@@ -6396,32 +6415,32 @@
         <v>51</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="D239" s="16"/>
       <c r="E239" s="16"/>
       <c r="F239" s="15" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="G239" s="16"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" ht="47.25">
       <c r="A240" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="D240" s="16"/>
       <c r="E240" s="16"/>
       <c r="F240" s="15" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="G240" s="16"/>
     </row>
@@ -6430,15 +6449,15 @@
         <v>51</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="D241" s="16"/>
       <c r="E241" s="16"/>
       <c r="F241" s="15" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="G241" s="16"/>
     </row>
@@ -6447,15 +6466,15 @@
         <v>51</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="C242" s="15" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="D242" s="16"/>
       <c r="E242" s="16"/>
       <c r="F242" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="G242" s="16"/>
     </row>
@@ -6464,32 +6483,32 @@
         <v>51</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="D243" s="16"/>
       <c r="E243" s="16"/>
       <c r="F243" s="15" t="s">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="G243" s="16"/>
     </row>
-    <row r="244" spans="1:7" ht="31.5">
+    <row r="244" spans="1:7" ht="47.25">
       <c r="A244" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D244" s="16"/>
       <c r="E244" s="16"/>
       <c r="F244" s="15" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="G244" s="16"/>
     </row>
@@ -6498,15 +6517,15 @@
         <v>51</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="D245" s="16"/>
       <c r="E245" s="16"/>
       <c r="F245" s="15" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="G245" s="16"/>
     </row>
@@ -6515,32 +6534,32 @@
         <v>51</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="D246" s="16"/>
       <c r="E246" s="16"/>
       <c r="F246" s="15" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="G246" s="16"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" ht="31.5">
       <c r="A247" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="D247" s="16"/>
       <c r="E247" s="16"/>
       <c r="F247" s="15" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="G247" s="16"/>
     </row>
@@ -6549,15 +6568,15 @@
         <v>51</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="D248" s="16"/>
       <c r="E248" s="16"/>
       <c r="F248" s="15" t="s">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="G248" s="16"/>
     </row>
@@ -6566,15 +6585,15 @@
         <v>51</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="D249" s="16"/>
       <c r="E249" s="16"/>
       <c r="F249" s="15" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="G249" s="16"/>
     </row>
@@ -6583,15 +6602,15 @@
         <v>51</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="C250" s="15" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="D250" s="16"/>
       <c r="E250" s="16"/>
       <c r="F250" s="15" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G250" s="16"/>
     </row>
@@ -6600,10 +6619,10 @@
         <v>51</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="D251" s="16"/>
       <c r="E251" s="16"/>
@@ -6612,37 +6631,37 @@
       </c>
       <c r="G251" s="16"/>
     </row>
-    <row r="252" spans="1:7" ht="31.5">
+    <row r="252" spans="1:7">
       <c r="A252" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="D252" s="16"/>
       <c r="E252" s="16"/>
       <c r="F252" s="15" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="G252" s="16"/>
     </row>
-    <row r="253" spans="1:7" ht="31.5">
+    <row r="253" spans="1:7">
       <c r="A253" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="D253" s="16"/>
       <c r="E253" s="16"/>
       <c r="F253" s="15" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="G253" s="16"/>
     </row>
@@ -6651,15 +6670,15 @@
         <v>51</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="D254" s="16"/>
       <c r="E254" s="16"/>
       <c r="F254" s="15" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G254" s="16"/>
     </row>
@@ -6668,15 +6687,15 @@
         <v>51</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="D255" s="16"/>
       <c r="E255" s="16"/>
       <c r="F255" s="15" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="G255" s="16"/>
     </row>
@@ -6685,49 +6704,49 @@
         <v>51</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="D256" s="16"/>
       <c r="E256" s="16"/>
       <c r="F256" s="15" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="G256" s="16"/>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" ht="31.5">
       <c r="A257" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="D257" s="16"/>
       <c r="E257" s="16"/>
       <c r="F257" s="15" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="G257" s="16"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" ht="31.5">
       <c r="A258" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="D258" s="16"/>
       <c r="E258" s="16"/>
       <c r="F258" s="15" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="G258" s="16"/>
     </row>
@@ -6736,15 +6755,15 @@
         <v>51</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="D259" s="16"/>
       <c r="E259" s="16"/>
       <c r="F259" s="15" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="G259" s="16"/>
     </row>
@@ -6753,15 +6772,15 @@
         <v>51</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="D260" s="16"/>
       <c r="E260" s="16"/>
       <c r="F260" s="15" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="G260" s="16"/>
     </row>
@@ -6770,15 +6789,15 @@
         <v>51</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="C261" s="15" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="D261" s="16"/>
       <c r="E261" s="16"/>
       <c r="F261" s="15" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="G261" s="16"/>
     </row>
@@ -6787,15 +6806,15 @@
         <v>51</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="D262" s="16"/>
       <c r="E262" s="16"/>
       <c r="F262" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G262" s="16"/>
     </row>
@@ -6804,32 +6823,32 @@
         <v>51</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="D263" s="16"/>
       <c r="E263" s="16"/>
       <c r="F263" s="15" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="G263" s="16"/>
     </row>
-    <row r="264" spans="1:7" ht="31.5">
+    <row r="264" spans="1:7">
       <c r="A264" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="D264" s="16"/>
       <c r="E264" s="16"/>
       <c r="F264" s="15" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="G264" s="16"/>
     </row>
@@ -6838,49 +6857,49 @@
         <v>51</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="D265" s="16"/>
       <c r="E265" s="16"/>
       <c r="F265" s="15" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="G265" s="16"/>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" ht="31.5">
       <c r="A266" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="D266" s="16"/>
       <c r="E266" s="16"/>
       <c r="F266" s="15" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="G266" s="16"/>
     </row>
-    <row r="267" spans="1:7" ht="31.5">
+    <row r="267" spans="1:7">
       <c r="A267" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="D267" s="16"/>
       <c r="E267" s="16"/>
       <c r="F267" s="15" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="G267" s="16"/>
     </row>
@@ -6889,15 +6908,15 @@
         <v>51</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="C268" s="15" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="D268" s="16"/>
       <c r="E268" s="16"/>
       <c r="F268" s="15" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G268" s="16"/>
     </row>
@@ -6906,49 +6925,49 @@
         <v>51</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>313</v>
+        <v>112</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>313</v>
+        <v>112</v>
       </c>
       <c r="D269" s="16"/>
       <c r="E269" s="16"/>
       <c r="F269" s="15" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="G269" s="16"/>
     </row>
-    <row r="270" spans="1:7" ht="31.5">
+    <row r="270" spans="1:7">
       <c r="A270" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="D270" s="16"/>
       <c r="E270" s="16"/>
       <c r="F270" s="15" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="G270" s="16"/>
     </row>
-    <row r="271" spans="1:7" ht="31.5">
+    <row r="271" spans="1:7">
       <c r="A271" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="D271" s="16"/>
       <c r="E271" s="16"/>
       <c r="F271" s="15" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="G271" s="16"/>
     </row>
@@ -6957,15 +6976,15 @@
         <v>51</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="C272" s="15" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="D272" s="16"/>
       <c r="E272" s="16"/>
       <c r="F272" s="15" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="G272" s="16"/>
     </row>
@@ -6974,15 +6993,15 @@
         <v>51</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="D273" s="16"/>
       <c r="E273" s="16"/>
       <c r="F273" s="15" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G273" s="16"/>
     </row>
@@ -6991,15 +7010,15 @@
         <v>51</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="C274" s="15" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="D274" s="16"/>
       <c r="E274" s="16"/>
       <c r="F274" s="15" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="G274" s="16"/>
     </row>
@@ -7008,49 +7027,49 @@
         <v>51</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="D275" s="16"/>
       <c r="E275" s="16"/>
       <c r="F275" s="15" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="G275" s="16"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" ht="31.5">
       <c r="A276" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="D276" s="16"/>
       <c r="E276" s="16"/>
       <c r="F276" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G276" s="16"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" ht="31.5">
       <c r="A277" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="D277" s="16"/>
       <c r="E277" s="16"/>
       <c r="F277" s="15" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="G277" s="16"/>
     </row>
@@ -7059,32 +7078,32 @@
         <v>51</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="D278" s="16"/>
       <c r="E278" s="16"/>
       <c r="F278" s="15" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="G278" s="16"/>
     </row>
-    <row r="279" spans="1:7" ht="31.5">
+    <row r="279" spans="1:7">
       <c r="A279" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>138</v>
+        <v>290</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>138</v>
+        <v>290</v>
       </c>
       <c r="D279" s="16"/>
       <c r="E279" s="16"/>
       <c r="F279" s="15" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="G279" s="16"/>
     </row>
@@ -7093,100 +7112,100 @@
         <v>51</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="D280" s="16"/>
       <c r="E280" s="16"/>
       <c r="F280" s="15" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G280" s="16"/>
     </row>
-    <row r="281" spans="1:7" ht="31.5">
+    <row r="281" spans="1:7">
       <c r="A281" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="D281" s="16"/>
       <c r="E281" s="16"/>
       <c r="F281" s="15" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="G281" s="16"/>
     </row>
-    <row r="282" spans="1:7" ht="31.5">
+    <row r="282" spans="1:7">
       <c r="A282" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>140</v>
+        <v>293</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>140</v>
+        <v>293</v>
       </c>
       <c r="D282" s="16"/>
       <c r="E282" s="16"/>
       <c r="F282" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G282" s="16"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" ht="31.5">
       <c r="A283" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="C283" s="15" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="D283" s="16"/>
       <c r="E283" s="16"/>
       <c r="F283" s="15" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="G283" s="16"/>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" ht="31.5">
       <c r="A284" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="C284" s="15" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="D284" s="16"/>
       <c r="E284" s="16"/>
       <c r="F284" s="15" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="G284" s="16"/>
     </row>
-    <row r="285" spans="1:7" ht="31.5">
+    <row r="285" spans="1:7">
       <c r="A285" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="C285" s="15" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="D285" s="16"/>
       <c r="E285" s="16"/>
       <c r="F285" s="15" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="G285" s="16"/>
     </row>
@@ -7195,15 +7214,15 @@
         <v>51</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="D286" s="16"/>
       <c r="E286" s="16"/>
       <c r="F286" s="15" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="G286" s="16"/>
     </row>
@@ -7212,15 +7231,15 @@
         <v>51</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="C287" s="15" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="D287" s="16"/>
       <c r="E287" s="16"/>
       <c r="F287" s="15" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="G287" s="16"/>
     </row>
@@ -7229,15 +7248,15 @@
         <v>51</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="C288" s="15" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="D288" s="16"/>
       <c r="E288" s="16"/>
       <c r="F288" s="15" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="G288" s="16"/>
     </row>
@@ -7246,15 +7265,15 @@
         <v>51</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="C289" s="15" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="D289" s="16"/>
       <c r="E289" s="16"/>
       <c r="F289" s="15" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="G289" s="16"/>
     </row>
@@ -7263,117 +7282,117 @@
         <v>51</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="C290" s="15" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="D290" s="16"/>
       <c r="E290" s="16"/>
       <c r="F290" s="15" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="G290" s="16"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" ht="31.5">
       <c r="A291" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="C291" s="15" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="D291" s="16"/>
       <c r="E291" s="16"/>
       <c r="F291" s="15" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="G291" s="16"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" ht="31.5">
       <c r="A292" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>333</v>
+        <v>118</v>
       </c>
       <c r="C292" s="15" t="s">
-        <v>333</v>
+        <v>118</v>
       </c>
       <c r="D292" s="16"/>
       <c r="E292" s="16"/>
       <c r="F292" s="15" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G292" s="16"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" ht="31.5">
       <c r="A293" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>146</v>
+        <v>303</v>
       </c>
       <c r="C293" s="15" t="s">
-        <v>146</v>
+        <v>303</v>
       </c>
       <c r="D293" s="16"/>
       <c r="E293" s="16"/>
       <c r="F293" s="15" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="G293" s="16"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" ht="31.5">
       <c r="A294" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C294" s="15" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="D294" s="16"/>
       <c r="E294" s="16"/>
       <c r="F294" s="15" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="G294" s="16"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" ht="31.5">
       <c r="A295" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>335</v>
+        <v>120</v>
       </c>
       <c r="C295" s="15" t="s">
-        <v>335</v>
+        <v>120</v>
       </c>
       <c r="D295" s="16"/>
       <c r="E295" s="16"/>
       <c r="F295" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G295" s="16"/>
     </row>
-    <row r="296" spans="1:7" ht="31.5">
+    <row r="296" spans="1:7">
       <c r="A296" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="C296" s="15" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="D296" s="16"/>
       <c r="E296" s="16"/>
       <c r="F296" s="15" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="G296" s="16"/>
     </row>
@@ -7382,32 +7401,32 @@
         <v>51</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>337</v>
+        <v>123</v>
       </c>
       <c r="C297" s="15" t="s">
-        <v>337</v>
+        <v>123</v>
       </c>
       <c r="D297" s="16"/>
       <c r="E297" s="16"/>
       <c r="F297" s="15" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="G297" s="16"/>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" ht="31.5">
       <c r="A298" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="D298" s="16"/>
       <c r="E298" s="16"/>
       <c r="F298" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G298" s="16"/>
     </row>
@@ -7416,15 +7435,15 @@
         <v>51</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="C299" s="15" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="D299" s="16"/>
       <c r="E299" s="16"/>
       <c r="F299" s="15" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G299" s="16"/>
     </row>
@@ -7433,15 +7452,15 @@
         <v>51</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="C300" s="15" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="D300" s="16"/>
       <c r="E300" s="16"/>
       <c r="F300" s="15" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="G300" s="16"/>
     </row>
@@ -7450,32 +7469,32 @@
         <v>51</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="C301" s="15" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="D301" s="16"/>
       <c r="E301" s="16"/>
       <c r="F301" s="15" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="G301" s="16"/>
     </row>
-    <row r="302" spans="1:7" ht="31.5">
+    <row r="302" spans="1:7">
       <c r="A302" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="C302" s="15" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="D302" s="16"/>
       <c r="E302" s="16"/>
       <c r="F302" s="15" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="G302" s="16"/>
     </row>
@@ -7484,49 +7503,49 @@
         <v>51</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="D303" s="16"/>
       <c r="E303" s="16"/>
       <c r="F303" s="15" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="G303" s="16"/>
     </row>
-    <row r="304" spans="1:7" ht="31.5">
+    <row r="304" spans="1:7">
       <c r="A304" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="C304" s="15" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="D304" s="16"/>
       <c r="E304" s="16"/>
       <c r="F304" s="15" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="G304" s="16"/>
     </row>
-    <row r="305" spans="1:7" ht="31.5">
+    <row r="305" spans="1:7">
       <c r="A305" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="D305" s="16"/>
       <c r="E305" s="16"/>
       <c r="F305" s="15" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="G305" s="16"/>
     </row>
@@ -7535,15 +7554,15 @@
         <v>51</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>346</v>
+        <v>126</v>
       </c>
       <c r="C306" s="15" t="s">
-        <v>346</v>
+        <v>126</v>
       </c>
       <c r="D306" s="16"/>
       <c r="E306" s="16"/>
       <c r="F306" s="15" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G306" s="16"/>
     </row>
@@ -7552,15 +7571,15 @@
         <v>51</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="C307" s="15" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="D307" s="16"/>
       <c r="E307" s="16"/>
       <c r="F307" s="15" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="G307" s="16"/>
     </row>
@@ -7569,32 +7588,32 @@
         <v>51</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D308" s="16"/>
       <c r="E308" s="16"/>
       <c r="F308" s="15" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="G308" s="16"/>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" ht="31.5">
       <c r="A309" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="C309" s="15" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="D309" s="16"/>
       <c r="E309" s="16"/>
       <c r="F309" s="15" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="G309" s="16"/>
     </row>
@@ -7603,32 +7622,32 @@
         <v>51</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="D310" s="16"/>
       <c r="E310" s="16"/>
       <c r="F310" s="15" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="G310" s="16"/>
     </row>
-    <row r="311" spans="1:7" ht="31.5">
+    <row r="311" spans="1:7">
       <c r="A311" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="C311" s="15" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="D311" s="16"/>
       <c r="E311" s="16"/>
       <c r="F311" s="15" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="G311" s="16"/>
     </row>
@@ -7637,15 +7656,15 @@
         <v>51</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="D312" s="16"/>
       <c r="E312" s="16"/>
       <c r="F312" s="15" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="G312" s="16"/>
     </row>
@@ -7654,15 +7673,15 @@
         <v>51</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="C313" s="15" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="D313" s="16"/>
       <c r="E313" s="16"/>
       <c r="F313" s="15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G313" s="16"/>
     </row>
@@ -7671,100 +7690,100 @@
         <v>51</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="D314" s="16"/>
       <c r="E314" s="16"/>
       <c r="F314" s="15" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="G314" s="16"/>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" ht="31.5">
       <c r="A315" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="C315" s="15" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="D315" s="16"/>
       <c r="E315" s="16"/>
       <c r="F315" s="15" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="G315" s="16"/>
     </row>
-    <row r="316" spans="1:7" ht="31.5">
+    <row r="316" spans="1:7">
       <c r="A316" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="D316" s="16"/>
       <c r="E316" s="16"/>
       <c r="F316" s="15" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="G316" s="16"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" ht="31.5">
       <c r="A317" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B317" s="15" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="C317" s="15" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="D317" s="16"/>
       <c r="E317" s="16"/>
       <c r="F317" s="15" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G317" s="16"/>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" ht="31.5">
       <c r="A318" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="D318" s="16"/>
       <c r="E318" s="16"/>
       <c r="F318" s="15" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="G318" s="16"/>
     </row>
-    <row r="319" spans="1:7" ht="31.5">
+    <row r="319" spans="1:7">
       <c r="A319" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B319" s="15" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="C319" s="15" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="D319" s="16"/>
       <c r="E319" s="16"/>
       <c r="F319" s="15" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="G319" s="16"/>
     </row>
@@ -7773,15 +7792,15 @@
         <v>51</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="D320" s="16"/>
       <c r="E320" s="16"/>
       <c r="F320" s="15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G320" s="16"/>
     </row>
@@ -7790,15 +7809,15 @@
         <v>51</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="C321" s="15" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="D321" s="16"/>
       <c r="E321" s="16"/>
       <c r="F321" s="15" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G321" s="16"/>
     </row>
@@ -7807,15 +7826,15 @@
         <v>51</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="C322" s="15" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="D322" s="16"/>
       <c r="E322" s="16"/>
       <c r="F322" s="15" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="G322" s="16"/>
     </row>
@@ -7824,32 +7843,32 @@
         <v>51</v>
       </c>
       <c r="B323" s="15" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="C323" s="15" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="D323" s="16"/>
       <c r="E323" s="16"/>
       <c r="F323" s="15" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="G323" s="16"/>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" ht="31.5">
       <c r="A324" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="C324" s="15" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="D324" s="16"/>
       <c r="E324" s="16"/>
       <c r="F324" s="15" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="G324" s="16"/>
     </row>
@@ -7858,15 +7877,15 @@
         <v>51</v>
       </c>
       <c r="B325" s="15" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="C325" s="15" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="D325" s="16"/>
       <c r="E325" s="16"/>
       <c r="F325" s="15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G325" s="16"/>
     </row>
@@ -7875,15 +7894,15 @@
         <v>51</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="C326" s="15" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="D326" s="16"/>
       <c r="E326" s="16"/>
       <c r="F326" s="15" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="G326" s="16"/>
     </row>
@@ -7892,15 +7911,15 @@
         <v>51</v>
       </c>
       <c r="B327" s="15" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="C327" s="15" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="D327" s="16"/>
       <c r="E327" s="16"/>
       <c r="F327" s="15" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G327" s="16"/>
     </row>
@@ -7909,32 +7928,32 @@
         <v>51</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="C328" s="15" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="D328" s="16"/>
       <c r="E328" s="16"/>
       <c r="F328" s="15" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="G328" s="16"/>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" ht="31.5">
       <c r="A329" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B329" s="15" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="C329" s="15" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="D329" s="16"/>
       <c r="E329" s="16"/>
       <c r="F329" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G329" s="16"/>
     </row>
@@ -7943,15 +7962,15 @@
         <v>51</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="C330" s="15" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="D330" s="16"/>
       <c r="E330" s="16"/>
       <c r="F330" s="15" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="G330" s="16"/>
     </row>
@@ -7960,32 +7979,32 @@
         <v>51</v>
       </c>
       <c r="B331" s="15" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="C331" s="15" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="D331" s="16"/>
       <c r="E331" s="16"/>
       <c r="F331" s="15" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G331" s="16"/>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" ht="31.5">
       <c r="A332" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="D332" s="16"/>
       <c r="E332" s="16"/>
       <c r="F332" s="15" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="G332" s="16"/>
     </row>
@@ -7994,15 +8013,15 @@
         <v>51</v>
       </c>
       <c r="B333" s="15" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="C333" s="15" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="D333" s="16"/>
       <c r="E333" s="16"/>
       <c r="F333" s="15" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="G333" s="16"/>
     </row>
@@ -8011,49 +8030,49 @@
         <v>51</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="C334" s="15" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="D334" s="16"/>
       <c r="E334" s="16"/>
       <c r="F334" s="15" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="G334" s="16"/>
     </row>
-    <row r="335" spans="1:7" ht="31.5">
+    <row r="335" spans="1:7">
       <c r="A335" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B335" s="15" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="C335" s="15" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="D335" s="16"/>
       <c r="E335" s="16"/>
       <c r="F335" s="15" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="G335" s="16"/>
     </row>
-    <row r="336" spans="1:7" ht="31.5">
+    <row r="336" spans="1:7">
       <c r="A336" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="C336" s="15" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="D336" s="16"/>
       <c r="E336" s="16"/>
       <c r="F336" s="15" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="G336" s="16"/>
     </row>
@@ -8062,15 +8081,15 @@
         <v>51</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="C337" s="15" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="D337" s="16"/>
       <c r="E337" s="16"/>
       <c r="F337" s="15" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="G337" s="16"/>
     </row>
@@ -8079,15 +8098,15 @@
         <v>51</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="C338" s="15" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="D338" s="16"/>
       <c r="E338" s="16"/>
       <c r="F338" s="15" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="G338" s="16"/>
     </row>
@@ -8096,15 +8115,15 @@
         <v>51</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="C339" s="15" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="D339" s="16"/>
       <c r="E339" s="16"/>
       <c r="F339" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G339" s="16"/>
     </row>
@@ -8113,15 +8132,15 @@
         <v>51</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="C340" s="15" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="D340" s="16"/>
       <c r="E340" s="16"/>
       <c r="F340" s="15" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="G340" s="16"/>
     </row>
@@ -8130,15 +8149,15 @@
         <v>51</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="C341" s="15" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="D341" s="16"/>
       <c r="E341" s="16"/>
       <c r="F341" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G341" s="16"/>
     </row>
@@ -8147,15 +8166,15 @@
         <v>51</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="C342" s="15" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="D342" s="16"/>
       <c r="E342" s="16"/>
       <c r="F342" s="15" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G342" s="16"/>
     </row>
@@ -8164,15 +8183,15 @@
         <v>51</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="C343" s="15" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="D343" s="16"/>
       <c r="E343" s="16"/>
       <c r="F343" s="15" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G343" s="16"/>
     </row>
@@ -8181,15 +8200,15 @@
         <v>51</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="C344" s="15" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="D344" s="16"/>
       <c r="E344" s="16"/>
       <c r="F344" s="15" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="G344" s="16"/>
     </row>
@@ -8198,32 +8217,32 @@
         <v>51</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="C345" s="15" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="D345" s="16"/>
       <c r="E345" s="16"/>
       <c r="F345" s="15" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="G345" s="16"/>
     </row>
-    <row r="346" spans="1:7" ht="31.5">
+    <row r="346" spans="1:7">
       <c r="A346" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="C346" s="15" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="D346" s="16"/>
       <c r="E346" s="16"/>
       <c r="F346" s="15" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="G346" s="16"/>
     </row>
@@ -8232,49 +8251,49 @@
         <v>51</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="C347" s="15" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="D347" s="16"/>
       <c r="E347" s="16"/>
       <c r="F347" s="15" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G347" s="16"/>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" ht="31.5">
       <c r="A348" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="C348" s="15" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="D348" s="16"/>
       <c r="E348" s="16"/>
       <c r="F348" s="15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G348" s="16"/>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" ht="31.5">
       <c r="A349" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="C349" s="15" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="D349" s="16"/>
       <c r="E349" s="16"/>
       <c r="F349" s="15" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="G349" s="16"/>
     </row>
@@ -8283,15 +8302,15 @@
         <v>51</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="C350" s="15" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="D350" s="16"/>
       <c r="E350" s="16"/>
       <c r="F350" s="15" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="G350" s="16"/>
     </row>
@@ -8300,15 +8319,15 @@
         <v>51</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="C351" s="15" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="D351" s="16"/>
       <c r="E351" s="16"/>
       <c r="F351" s="15" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="G351" s="16"/>
     </row>
@@ -8317,15 +8336,15 @@
         <v>51</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>164</v>
+        <v>359</v>
       </c>
       <c r="C352" s="15" t="s">
-        <v>164</v>
+        <v>359</v>
       </c>
       <c r="D352" s="16"/>
       <c r="E352" s="16"/>
       <c r="F352" s="15" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G352" s="16"/>
     </row>
@@ -8334,15 +8353,15 @@
         <v>51</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="C353" s="15" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="D353" s="16"/>
       <c r="E353" s="16"/>
       <c r="F353" s="15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G353" s="16"/>
     </row>
@@ -8351,32 +8370,32 @@
         <v>51</v>
       </c>
       <c r="B354" s="15" t="s">
-        <v>165</v>
+        <v>361</v>
       </c>
       <c r="C354" s="15" t="s">
-        <v>165</v>
+        <v>361</v>
       </c>
       <c r="D354" s="16"/>
       <c r="E354" s="16"/>
       <c r="F354" s="15" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="G354" s="16"/>
     </row>
-    <row r="355" spans="1:7" ht="47.25">
+    <row r="355" spans="1:7">
       <c r="A355" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="C355" s="15" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="D355" s="16"/>
       <c r="E355" s="16"/>
       <c r="F355" s="15" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="G355" s="16"/>
     </row>
@@ -8385,15 +8404,15 @@
         <v>51</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="C356" s="15" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="D356" s="16"/>
       <c r="E356" s="16"/>
       <c r="F356" s="15" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="G356" s="16"/>
     </row>
@@ -8402,15 +8421,15 @@
         <v>51</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>166</v>
+        <v>364</v>
       </c>
       <c r="C357" s="15" t="s">
-        <v>166</v>
+        <v>364</v>
       </c>
       <c r="D357" s="16"/>
       <c r="E357" s="16"/>
       <c r="F357" s="15" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="G357" s="16"/>
     </row>
@@ -8419,15 +8438,15 @@
         <v>51</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="C358" s="15" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="D358" s="16"/>
       <c r="E358" s="16"/>
       <c r="F358" s="15" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="G358" s="16"/>
     </row>
@@ -8436,15 +8455,15 @@
         <v>51</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="C359" s="15" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="D359" s="16"/>
       <c r="E359" s="16"/>
       <c r="F359" s="15" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="G359" s="16"/>
     </row>
@@ -8453,15 +8472,15 @@
         <v>51</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="C360" s="15" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="D360" s="16"/>
       <c r="E360" s="16"/>
       <c r="F360" s="15" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="G360" s="16"/>
     </row>
@@ -8470,15 +8489,15 @@
         <v>51</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="D361" s="16"/>
       <c r="E361" s="16"/>
       <c r="F361" s="15" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="G361" s="16"/>
     </row>
@@ -8487,15 +8506,15 @@
         <v>51</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="C362" s="15" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="D362" s="16"/>
       <c r="E362" s="16"/>
       <c r="F362" s="15" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="G362" s="16"/>
     </row>
@@ -8504,15 +8523,15 @@
         <v>51</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="C363" s="15" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="D363" s="16"/>
       <c r="E363" s="16"/>
       <c r="F363" s="15" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="G363" s="16"/>
     </row>
@@ -8521,32 +8540,32 @@
         <v>51</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="C364" s="15" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="D364" s="16"/>
       <c r="E364" s="16"/>
       <c r="F364" s="15" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="G364" s="16"/>
     </row>
-    <row r="365" spans="1:7" ht="31.5">
+    <row r="365" spans="1:7">
       <c r="A365" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>401</v>
+        <v>144</v>
       </c>
       <c r="C365" s="15" t="s">
-        <v>401</v>
+        <v>144</v>
       </c>
       <c r="D365" s="16"/>
       <c r="E365" s="16"/>
       <c r="F365" s="15" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="G365" s="16"/>
     </row>
@@ -8555,15 +8574,15 @@
         <v>51</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="C366" s="15" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="D366" s="16"/>
       <c r="E366" s="16"/>
       <c r="F366" s="15" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="G366" s="16"/>
     </row>
@@ -8572,32 +8591,32 @@
         <v>51</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="C367" s="15" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D367" s="16"/>
       <c r="E367" s="16"/>
       <c r="F367" s="15" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="G367" s="16"/>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" ht="47.25">
       <c r="A368" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="C368" s="15" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="D368" s="16"/>
       <c r="E368" s="16"/>
       <c r="F368" s="15" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="G368" s="16"/>
     </row>
@@ -8606,66 +8625,66 @@
         <v>51</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="C369" s="15" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="D369" s="16"/>
       <c r="E369" s="16"/>
       <c r="F369" s="15" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="G369" s="16"/>
     </row>
-    <row r="370" spans="1:7" ht="31.5">
+    <row r="370" spans="1:7">
       <c r="A370" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>405</v>
+        <v>146</v>
       </c>
       <c r="C370" s="15" t="s">
-        <v>405</v>
+        <v>146</v>
       </c>
       <c r="D370" s="16"/>
       <c r="E370" s="16"/>
       <c r="F370" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G370" s="16"/>
     </row>
-    <row r="371" spans="1:7" ht="31.5">
+    <row r="371" spans="1:7">
       <c r="A371" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="C371" s="15" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="D371" s="16"/>
       <c r="E371" s="16"/>
       <c r="F371" s="15" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="G371" s="16"/>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" ht="31.5">
       <c r="A372" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="C372" s="15" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="D372" s="16"/>
       <c r="E372" s="16"/>
       <c r="F372" s="15" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="G372" s="16"/>
     </row>
@@ -8674,32 +8693,32 @@
         <v>51</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>408</v>
+        <v>147</v>
       </c>
       <c r="C373" s="15" t="s">
-        <v>408</v>
+        <v>147</v>
       </c>
       <c r="D373" s="16"/>
       <c r="E373" s="16"/>
       <c r="F373" s="15" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G373" s="16"/>
     </row>
-    <row r="374" spans="1:7" ht="31.5">
+    <row r="374" spans="1:7">
       <c r="A374" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="C374" s="15" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="D374" s="16"/>
       <c r="E374" s="16"/>
       <c r="F374" s="15" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="G374" s="16"/>
     </row>
@@ -8708,15 +8727,15 @@
         <v>51</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="C375" s="15" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="D375" s="16"/>
       <c r="E375" s="16"/>
       <c r="F375" s="15" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="G375" s="16"/>
     </row>
@@ -8725,15 +8744,15 @@
         <v>51</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="C376" s="15" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="D376" s="16"/>
       <c r="E376" s="16"/>
       <c r="F376" s="15" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="G376" s="16"/>
     </row>
@@ -8742,66 +8761,66 @@
         <v>51</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="C377" s="15" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="D377" s="16"/>
       <c r="E377" s="16"/>
       <c r="F377" s="15" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="G377" s="16"/>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" ht="31.5">
       <c r="A378" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="C378" s="15" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="D378" s="16"/>
       <c r="E378" s="16"/>
       <c r="F378" s="15" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G378" s="16"/>
     </row>
-    <row r="379" spans="1:7" ht="31.5">
+    <row r="379" spans="1:7">
       <c r="A379" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="C379" s="15" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D379" s="16"/>
       <c r="E379" s="16"/>
       <c r="F379" s="15" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="G379" s="16"/>
     </row>
-    <row r="380" spans="1:7" ht="31.5">
+    <row r="380" spans="1:7">
       <c r="A380" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B380" s="15" t="s">
-        <v>415</v>
+        <v>152</v>
       </c>
       <c r="C380" s="15" t="s">
-        <v>415</v>
+        <v>152</v>
       </c>
       <c r="D380" s="16"/>
       <c r="E380" s="16"/>
       <c r="F380" s="15" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="G380" s="16"/>
     </row>
@@ -8810,15 +8829,15 @@
         <v>51</v>
       </c>
       <c r="B381" s="15" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="C381" s="15" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="D381" s="16"/>
       <c r="E381" s="16"/>
       <c r="F381" s="15" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="G381" s="16"/>
     </row>
@@ -8827,15 +8846,15 @@
         <v>51</v>
       </c>
       <c r="B382" s="15" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="C382" s="15" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="D382" s="16"/>
       <c r="E382" s="16"/>
       <c r="F382" s="15" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="G382" s="16"/>
     </row>
@@ -8844,49 +8863,49 @@
         <v>51</v>
       </c>
       <c r="B383" s="15" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="C383" s="15" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D383" s="16"/>
       <c r="E383" s="16"/>
       <c r="F383" s="15" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="G383" s="16"/>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" ht="31.5">
       <c r="A384" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="C384" s="15" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="D384" s="16"/>
       <c r="E384" s="16"/>
       <c r="F384" s="15" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="G384" s="16"/>
     </row>
-    <row r="385" spans="1:7" ht="31.5">
+    <row r="385" spans="1:7">
       <c r="A385" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="C385" s="15" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="D385" s="16"/>
       <c r="E385" s="16"/>
       <c r="F385" s="15" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="G385" s="16"/>
     </row>
@@ -8895,32 +8914,32 @@
         <v>51</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="C386" s="15" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="D386" s="16"/>
       <c r="E386" s="16"/>
       <c r="F386" s="15" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="G386" s="16"/>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" ht="31.5">
       <c r="A387" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="C387" s="15" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="D387" s="16"/>
       <c r="E387" s="16"/>
       <c r="F387" s="15" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="G387" s="16"/>
     </row>
@@ -8929,49 +8948,49 @@
         <v>51</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>178</v>
+        <v>390</v>
       </c>
       <c r="C388" s="15" t="s">
-        <v>178</v>
+        <v>390</v>
       </c>
       <c r="D388" s="16"/>
       <c r="E388" s="16"/>
       <c r="F388" s="15" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="G388" s="16"/>
     </row>
-    <row r="389" spans="1:7" ht="31.5">
+    <row r="389" spans="1:7">
       <c r="A389" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="C389" s="15" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="D389" s="16"/>
       <c r="E389" s="16"/>
       <c r="F389" s="15" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="G389" s="16"/>
     </row>
-    <row r="390" spans="1:7" ht="31.5">
+    <row r="390" spans="1:7">
       <c r="A390" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="C390" s="15" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="D390" s="16"/>
       <c r="E390" s="16"/>
       <c r="F390" s="15" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="G390" s="16"/>
     </row>
@@ -8980,66 +8999,66 @@
         <v>51</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="C391" s="15" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="D391" s="16"/>
       <c r="E391" s="16"/>
       <c r="F391" s="15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G391" s="16"/>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" ht="31.5">
       <c r="A392" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="C392" s="15" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="D392" s="16"/>
       <c r="E392" s="16"/>
       <c r="F392" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G392" s="16"/>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" ht="31.5">
       <c r="A393" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="C393" s="15" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="D393" s="16"/>
       <c r="E393" s="16"/>
       <c r="F393" s="15" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="G393" s="16"/>
     </row>
-    <row r="394" spans="1:7" ht="31.5">
+    <row r="394" spans="1:7">
       <c r="A394" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="C394" s="15" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="D394" s="16"/>
       <c r="E394" s="16"/>
       <c r="F394" s="15" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G394" s="16"/>
     </row>
@@ -9048,32 +9067,32 @@
         <v>51</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="C395" s="15" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="D395" s="16"/>
       <c r="E395" s="16"/>
       <c r="F395" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G395" s="16"/>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" ht="31.5">
       <c r="A396" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="C396" s="15" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="D396" s="16"/>
       <c r="E396" s="16"/>
       <c r="F396" s="15" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="G396" s="16"/>
     </row>
@@ -9082,66 +9101,66 @@
         <v>51</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="C397" s="15" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="D397" s="16"/>
       <c r="E397" s="16"/>
       <c r="F397" s="15" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G397" s="16"/>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" ht="31.5">
       <c r="A398" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="C398" s="15" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="D398" s="16"/>
       <c r="E398" s="16"/>
       <c r="F398" s="15" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="G398" s="16"/>
     </row>
-    <row r="399" spans="1:7" ht="31.5">
+    <row r="399" spans="1:7">
       <c r="A399" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="C399" s="15" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="D399" s="16"/>
       <c r="E399" s="16"/>
       <c r="F399" s="15" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="G399" s="16"/>
     </row>
-    <row r="400" spans="1:7" ht="47.25">
+    <row r="400" spans="1:7">
       <c r="A400" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="C400" s="15" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="D400" s="16"/>
       <c r="E400" s="16"/>
       <c r="F400" s="15" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="G400" s="16"/>
     </row>
@@ -9150,66 +9169,66 @@
         <v>51</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>435</v>
+        <v>158</v>
       </c>
       <c r="C401" s="15" t="s">
-        <v>435</v>
+        <v>158</v>
       </c>
       <c r="D401" s="16"/>
       <c r="E401" s="16"/>
       <c r="F401" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G401" s="16"/>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" ht="31.5">
       <c r="A402" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>181</v>
+        <v>403</v>
       </c>
       <c r="C402" s="15" t="s">
-        <v>181</v>
+        <v>403</v>
       </c>
       <c r="D402" s="16"/>
       <c r="E402" s="16"/>
       <c r="F402" s="15" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="G402" s="16"/>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" ht="31.5">
       <c r="A403" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="C403" s="15" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="D403" s="16"/>
       <c r="E403" s="16"/>
       <c r="F403" s="15" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G403" s="16"/>
     </row>
-    <row r="404" spans="1:7" ht="47.25">
+    <row r="404" spans="1:7">
       <c r="A404" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="C404" s="15" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="D404" s="16"/>
       <c r="E404" s="16"/>
       <c r="F404" s="15" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="G404" s="16"/>
     </row>
@@ -9218,32 +9237,32 @@
         <v>51</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="C405" s="15" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="D405" s="16"/>
       <c r="E405" s="16"/>
       <c r="F405" s="15" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="G405" s="16"/>
     </row>
-    <row r="406" spans="1:7" ht="31.5">
+    <row r="406" spans="1:7">
       <c r="A406" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="C406" s="15" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="D406" s="16"/>
       <c r="E406" s="16"/>
       <c r="F406" s="15" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="G406" s="16"/>
     </row>
@@ -9252,15 +9271,15 @@
         <v>51</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="C407" s="15" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="D407" s="16"/>
       <c r="E407" s="16"/>
       <c r="F407" s="15" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G407" s="16"/>
     </row>
@@ -9269,32 +9288,32 @@
         <v>51</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="C408" s="15" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="D408" s="16"/>
       <c r="E408" s="16"/>
       <c r="F408" s="15" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="G408" s="16"/>
     </row>
-    <row r="409" spans="1:7" ht="31.5">
+    <row r="409" spans="1:7">
       <c r="A409" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="C409" s="15" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="D409" s="16"/>
       <c r="E409" s="16"/>
       <c r="F409" s="15" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="G409" s="16"/>
     </row>
@@ -9303,15 +9322,15 @@
         <v>51</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="C410" s="15" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="D410" s="16"/>
       <c r="E410" s="16"/>
       <c r="F410" s="15" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="G410" s="16"/>
     </row>
@@ -9320,83 +9339,83 @@
         <v>51</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="C411" s="15" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="D411" s="16"/>
       <c r="E411" s="16"/>
       <c r="F411" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G411" s="16"/>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" ht="31.5">
       <c r="A412" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="C412" s="15" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="D412" s="16"/>
       <c r="E412" s="16"/>
       <c r="F412" s="15" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G412" s="16"/>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" ht="47.25">
       <c r="A413" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="C413" s="15" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="D413" s="16"/>
       <c r="E413" s="16"/>
       <c r="F413" s="15" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="G413" s="16"/>
     </row>
-    <row r="414" spans="1:7" ht="31.5">
+    <row r="414" spans="1:7">
       <c r="A414" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="C414" s="15" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="D414" s="16"/>
       <c r="E414" s="16"/>
       <c r="F414" s="15" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="G414" s="16"/>
     </row>
-    <row r="415" spans="1:7" ht="31.5">
+    <row r="415" spans="1:7">
       <c r="A415" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>448</v>
+        <v>161</v>
       </c>
       <c r="C415" s="15" t="s">
-        <v>448</v>
+        <v>161</v>
       </c>
       <c r="D415" s="16"/>
       <c r="E415" s="16"/>
       <c r="F415" s="15" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G415" s="16"/>
     </row>
@@ -9405,15 +9424,15 @@
         <v>51</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="C416" s="15" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="D416" s="16"/>
       <c r="E416" s="16"/>
       <c r="F416" s="15" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="G416" s="16"/>
     </row>
@@ -9422,66 +9441,66 @@
         <v>51</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="C417" s="15" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D417" s="16"/>
       <c r="E417" s="16"/>
       <c r="F417" s="15" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="G417" s="16"/>
     </row>
-    <row r="418" spans="1:7" ht="47.25">
+    <row r="418" spans="1:7">
       <c r="A418" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="C418" s="15" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="D418" s="16"/>
       <c r="E418" s="16"/>
       <c r="F418" s="15" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G418" s="16"/>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" ht="31.5">
       <c r="A419" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="C419" s="15" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="D419" s="16"/>
       <c r="E419" s="16"/>
       <c r="F419" s="15" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="G419" s="16"/>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" ht="31.5">
       <c r="A420" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="C420" s="15" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="D420" s="16"/>
       <c r="E420" s="16"/>
       <c r="F420" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G420" s="16"/>
     </row>
@@ -9490,15 +9509,15 @@
         <v>51</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="C421" s="15" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="D421" s="16"/>
       <c r="E421" s="16"/>
       <c r="F421" s="15" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="G421" s="16"/>
     </row>
@@ -9507,15 +9526,15 @@
         <v>51</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="C422" s="15" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="D422" s="16"/>
       <c r="E422" s="16"/>
       <c r="F422" s="15" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="G422" s="16"/>
     </row>
@@ -9524,15 +9543,15 @@
         <v>51</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="C423" s="15" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D423" s="16"/>
       <c r="E423" s="16"/>
       <c r="F423" s="15" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="G423" s="16"/>
     </row>
@@ -9541,15 +9560,15 @@
         <v>51</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="C424" s="15" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="D424" s="16"/>
       <c r="E424" s="16"/>
       <c r="F424" s="15" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="G424" s="16"/>
     </row>
@@ -9558,15 +9577,15 @@
         <v>51</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="C425" s="15" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="D425" s="16"/>
       <c r="E425" s="16"/>
       <c r="F425" s="15" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="G425" s="16"/>
     </row>
@@ -9575,100 +9594,100 @@
         <v>51</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="C426" s="15" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="D426" s="16"/>
       <c r="E426" s="16"/>
       <c r="F426" s="15" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="G426" s="16"/>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" ht="31.5">
       <c r="A427" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="C427" s="15" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="D427" s="16"/>
       <c r="E427" s="16"/>
       <c r="F427" s="15" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="G427" s="16"/>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" ht="31.5">
       <c r="A428" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B428" s="15" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="C428" s="15" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="D428" s="16"/>
       <c r="E428" s="16"/>
       <c r="F428" s="15" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G428" s="16"/>
     </row>
-    <row r="429" spans="1:7" ht="31.5">
+    <row r="429" spans="1:7">
       <c r="A429" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="C429" s="15" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="D429" s="16"/>
       <c r="E429" s="16"/>
       <c r="F429" s="15" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="G429" s="16"/>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" ht="47.25">
       <c r="A430" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="C430" s="15" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="D430" s="16"/>
       <c r="E430" s="16"/>
       <c r="F430" s="15" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G430" s="16"/>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" ht="47.25">
       <c r="A431" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="C431" s="15" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="D431" s="16"/>
       <c r="E431" s="16"/>
       <c r="F431" s="15" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="G431" s="16"/>
     </row>
@@ -9677,64 +9696,285 @@
         <v>51</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="C432" s="15" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D432" s="16"/>
       <c r="E432" s="16"/>
       <c r="F432" s="15" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="G432" s="16"/>
     </row>
-    <row r="433" spans="1:7" ht="31.5">
+    <row r="433" spans="1:7">
       <c r="A433" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="C433" s="15" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="D433" s="16"/>
       <c r="E433" s="16"/>
       <c r="F433" s="15" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="G433" s="16"/>
     </row>
-    <row r="434" spans="1:7" ht="31.5">
+    <row r="434" spans="1:7">
       <c r="A434" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="C434" s="15" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="D434" s="16"/>
       <c r="E434" s="16"/>
       <c r="F434" s="15" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G434" s="16"/>
     </row>
-    <row r="435" spans="1:7">
-      <c r="A435" s="16"/>
-      <c r="B435" s="24"/>
-      <c r="C435" s="24"/>
+    <row r="435" spans="1:7" ht="31.5">
+      <c r="A435" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B435" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="C435" s="15" t="s">
+        <v>435</v>
+      </c>
       <c r="D435" s="16"/>
       <c r="E435" s="16"/>
-      <c r="F435" s="16"/>
+      <c r="F435" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="G435" s="16"/>
     </row>
+    <row r="436" spans="1:7">
+      <c r="A436" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B436" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="C436" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="D436" s="16"/>
+      <c r="E436" s="16"/>
+      <c r="F436" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G436" s="16"/>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B437" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="C437" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="D437" s="16"/>
+      <c r="E437" s="16"/>
+      <c r="F437" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G437" s="16"/>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B438" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C438" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="D438" s="16"/>
+      <c r="E438" s="16"/>
+      <c r="F438" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G438" s="16"/>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B439" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C439" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="D439" s="16"/>
+      <c r="E439" s="16"/>
+      <c r="F439" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G439" s="16"/>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B440" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="C440" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="D440" s="16"/>
+      <c r="E440" s="16"/>
+      <c r="F440" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G440" s="16"/>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B441" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C441" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D441" s="16"/>
+      <c r="E441" s="16"/>
+      <c r="F441" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G441" s="16"/>
+    </row>
+    <row r="442" spans="1:7" ht="31.5">
+      <c r="A442" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B442" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C442" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D442" s="16"/>
+      <c r="E442" s="16"/>
+      <c r="F442" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G442" s="16"/>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B443" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C443" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="D443" s="16"/>
+      <c r="E443" s="16"/>
+      <c r="F443" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G443" s="16"/>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B444" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="C444" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D444" s="16"/>
+      <c r="E444" s="16"/>
+      <c r="F444" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G444" s="16"/>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B445" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="C445" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D445" s="16"/>
+      <c r="E445" s="16"/>
+      <c r="F445" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G445" s="16"/>
+    </row>
+    <row r="446" spans="1:7" ht="31.5">
+      <c r="A446" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B446" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C446" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="D446" s="16"/>
+      <c r="E446" s="16"/>
+      <c r="F446" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G446" s="16"/>
+    </row>
+    <row r="447" spans="1:7" ht="31.5">
+      <c r="A447" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B447" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="C447" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D447" s="16"/>
+      <c r="E447" s="16"/>
+      <c r="F447" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G447" s="16"/>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="A448" s="16"/>
+      <c r="B448" s="23"/>
+      <c r="C448" s="23"/>
+      <c r="D448" s="16"/>
+      <c r="E448" s="16"/>
+      <c r="F448" s="16"/>
+      <c r="G448" s="16"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:B59">
-    <sortCondition ref="B14:B59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:B72">
+    <sortCondition ref="B14:B72"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9745,37 +9985,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="44.125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="42.25" style="42" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="42"/>
+    <col min="1" max="1" width="44.125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="42.25" style="41" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="41" t="s">
-        <v>476</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>477</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>471</v>
+      <c r="A2" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E04D8A-9E79-466D-887B-E6350CAC368B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6126B91-AC5E-4EB1-BF1C-0B8CE02CAD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="490">
   <si>
     <t>type</t>
   </si>
@@ -1525,12 +1525,15 @@
   <si>
     <t>Nombre d'œufs (S. Mansoni) par 10 ml</t>
   </si>
+  <si>
+    <t>select_one recorders</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1624,6 +1627,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1714,7 +1723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1834,6 +1843,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2123,7 +2135,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2182,8 +2194,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="24" customFormat="1" ht="31.5">
-      <c r="A2" s="30" t="s">
-        <v>15</v>
+      <c r="A2" s="50" t="s">
+        <v>489</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>12</v>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6126B91-AC5E-4EB1-BF1C-0B8CE02CAD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99D3795-E146-4A46-9AE0-64112ACB6AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="488">
   <si>
     <t>type</t>
   </si>
@@ -1360,12 +1360,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>regex(.,'^[a-zA-Z]{2,4}$')</t>
-  </si>
-  <si>
-    <t>Doit contenir 2 à 4 caractère alphanumérique</t>
-  </si>
-  <si>
     <t>u_usp</t>
   </si>
   <si>
@@ -1436,9 +1430,6 @@
   </si>
   <si>
     <t>MONTANT Minyo Ega Sossa</t>
-  </si>
-  <si>
-    <t>N’DATO Kossi</t>
   </si>
   <si>
     <t xml:space="preserve">NAKOME Bamouni </t>
@@ -1527,6 +1518,9 @@
   </si>
   <si>
     <t>select_one recorders</t>
+  </si>
+  <si>
+    <t>NDATO Kossi</t>
   </si>
 </sst>
 </file>
@@ -2135,7 +2129,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2193,9 +2187,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="24" customFormat="1" ht="31.5">
+    <row r="2" spans="1:12" s="24" customFormat="1">
       <c r="A2" s="50" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>12</v>
@@ -2205,12 +2199,8 @@
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="31"/>
-      <c r="F2" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>442</v>
-      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31" t="s">
@@ -2224,10 +2214,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="30"/>
@@ -2268,10 +2258,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="30"/>
@@ -2315,7 +2305,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="39"/>
@@ -2332,18 +2322,18 @@
         <v>20</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="39"/>
       <c r="F8" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>483</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>486</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -2385,7 +2375,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="43"/>
@@ -2407,7 +2397,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="43"/>
@@ -2540,10 +2530,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
@@ -2555,10 +2545,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
@@ -2570,10 +2560,10 @@
         <v>41</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
@@ -2585,10 +2575,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="20"/>
@@ -2600,10 +2590,10 @@
         <v>41</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="20"/>
@@ -2615,10 +2605,10 @@
         <v>41</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
@@ -2630,10 +2620,10 @@
         <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
@@ -2645,10 +2635,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
@@ -2660,10 +2650,10 @@
         <v>41</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -2675,10 +2665,10 @@
         <v>41</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
@@ -2690,10 +2680,10 @@
         <v>41</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
@@ -2705,10 +2695,10 @@
         <v>41</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
@@ -2720,10 +2710,10 @@
         <v>41</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
@@ -2735,10 +2725,10 @@
         <v>41</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
@@ -2750,10 +2740,10 @@
         <v>41</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
@@ -2765,10 +2755,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
@@ -2780,10 +2770,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
@@ -2795,10 +2785,10 @@
         <v>41</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
@@ -2810,10 +2800,10 @@
         <v>41</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
@@ -2840,10 +2830,10 @@
         <v>41</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
@@ -2855,10 +2845,10 @@
         <v>41</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
@@ -2870,10 +2860,10 @@
         <v>41</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
@@ -2885,10 +2875,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
@@ -2900,10 +2890,10 @@
         <v>41</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
@@ -2915,10 +2905,10 @@
         <v>41</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="29"/>
@@ -2945,10 +2935,10 @@
         <v>41</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2960,10 +2950,10 @@
         <v>41</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
@@ -2975,10 +2965,10 @@
         <v>41</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
@@ -2990,10 +2980,10 @@
         <v>41</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
@@ -3020,10 +3010,10 @@
         <v>41</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3035,10 +3025,10 @@
         <v>41</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
@@ -3050,10 +3040,10 @@
         <v>41</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="29"/>
@@ -3065,10 +3055,10 @@
         <v>41</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="29"/>
@@ -10043,10 +10033,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>440</v>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99D3795-E146-4A46-9AE0-64112ACB6AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B30CD0-F38B-4C92-B7E2-E4EBB79148AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="492">
   <si>
     <t>type</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Le volume doit être limité à 10ml</t>
   </si>
   <si>
-    <t>u_sh_egp_10ml</t>
-  </si>
-  <si>
     <t>k_sch_man</t>
   </si>
   <si>
@@ -1457,12 +1454,6 @@
   </si>
   <si>
     <t>TCHAGBELE Wanikougnon</t>
-  </si>
-  <si>
-    <t>(2023 Sept) - 4. SCH/STH - Urine Filtration V2</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_4_urine_filtration_v2</t>
   </si>
   <si>
     <t>Sélectionner la région</t>
@@ -1521,6 +1512,27 @@
   </si>
   <si>
     <t>NDATO Kossi</t>
+  </si>
+  <si>
+    <t>(2023 Sept) - 4. SCH/STH - Urine Filtration V2.1</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_4_urine_filtration_v2_1</t>
+  </si>
+  <si>
+    <t>u_sh_egg</t>
+  </si>
+  <si>
+    <t>u_sh_egg_per_10ml</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs (S. Haematobium)</t>
+  </si>
+  <si>
+    <t>read_only</t>
+  </si>
+  <si>
+    <t>round( 10 * ${u_sh_egg} div ${u_urine_vol} )</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1840,6 +1852,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2123,19 +2138,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:G2"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="49" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="49" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="49" customWidth="1"/>
     <col min="4" max="4" width="47.375" style="25" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="25" customWidth="1"/>
@@ -2149,7 +2164,7 @@
     <col min="13" max="16384" width="11" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="24" customFormat="1" ht="18.75">
+    <row r="1" spans="1:13" s="24" customFormat="1" ht="18.75">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2186,10 +2201,13 @@
       <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="24" customFormat="1">
+      <c r="M1" s="51" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="24" customFormat="1">
       <c r="A2" s="50" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>12</v>
@@ -2209,15 +2227,15 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
     </row>
-    <row r="3" spans="1:12" s="36" customFormat="1">
+    <row r="3" spans="1:13" s="36" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="30"/>
@@ -2231,7 +2249,7 @@
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
     </row>
-    <row r="4" spans="1:12" s="36" customFormat="1">
+    <row r="4" spans="1:13" s="36" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>15</v>
       </c>
@@ -2253,15 +2271,15 @@
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
     </row>
-    <row r="5" spans="1:12" s="36" customFormat="1">
+    <row r="5" spans="1:13" s="36" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="30"/>
@@ -2275,7 +2293,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="37"/>
     </row>
-    <row r="6" spans="1:12" s="36" customFormat="1">
+    <row r="6" spans="1:13" s="36" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>15</v>
       </c>
@@ -2297,7 +2315,7 @@
       <c r="K6" s="30"/>
       <c r="L6" s="37"/>
     </row>
-    <row r="7" spans="1:12" s="41" customFormat="1">
+    <row r="7" spans="1:13" s="41" customFormat="1">
       <c r="A7" s="39" t="s">
         <v>22</v>
       </c>
@@ -2305,7 +2323,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="39"/>
@@ -2317,23 +2335,23 @@
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="1:12" s="41" customFormat="1" ht="31.5">
+    <row r="8" spans="1:13" s="41" customFormat="1" ht="31.5">
       <c r="A8" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="39"/>
       <c r="F8" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>480</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>483</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -2343,7 +2361,7 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" s="42" customFormat="1" ht="31.5">
+    <row r="9" spans="1:13" s="42" customFormat="1" ht="31.5">
       <c r="A9" s="31" t="s">
         <v>23</v>
       </c>
@@ -2363,19 +2381,21 @@
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="J9" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="1:12" s="24" customFormat="1">
+    <row r="10" spans="1:13" s="24" customFormat="1">
       <c r="A10" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>28</v>
+        <v>487</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="43"/>
@@ -2389,35 +2409,40 @@
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
     </row>
-    <row r="11" spans="1:12" s="24" customFormat="1">
+    <row r="11" spans="1:13" s="24" customFormat="1">
       <c r="A11" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>29</v>
+        <v>488</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="43"/>
       <c r="F11" s="31"/>
       <c r="G11" s="44"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="43" t="s">
+        <v>491</v>
+      </c>
       <c r="J11" s="31"/>
       <c r="K11" s="43"/>
       <c r="L11" s="43"/>
-    </row>
-    <row r="12" spans="1:12" s="24" customFormat="1">
+      <c r="M11" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="24" customFormat="1">
       <c r="A12" s="31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>31</v>
+        <v>482</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="43"/>
@@ -2429,15 +2454,17 @@
       <c r="K12" s="43"/>
       <c r="L12" s="43"/>
     </row>
-    <row r="13" spans="1:12" s="24" customFormat="1">
+    <row r="13" spans="1:13" s="24" customFormat="1">
       <c r="A13" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
+        <v>22</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="33"/>
       <c r="E13" s="43"/>
       <c r="F13" s="31"/>
       <c r="G13" s="44"/>
@@ -2447,12 +2474,12 @@
       <c r="K13" s="43"/>
       <c r="L13" s="43"/>
     </row>
-    <row r="14" spans="1:12" s="24" customFormat="1">
+    <row r="14" spans="1:13" s="24" customFormat="1">
       <c r="A14" s="31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="47"/>
@@ -2465,19 +2492,37 @@
       <c r="K14" s="43"/>
       <c r="L14" s="43"/>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
+    <row r="15" spans="1:13" s="24" customFormat="1">
+      <c r="A15" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" s="46"/>
       <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="47"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="44"/>
       <c r="H15" s="43"/>
-      <c r="I15" s="48"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="31"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2503,7 +2548,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -2512,28 +2557,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
@@ -2542,13 +2587,13 @@
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
@@ -2557,13 +2602,13 @@
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1">
       <c r="A4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
@@ -2572,13 +2617,13 @@
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="20"/>
@@ -2587,13 +2632,13 @@
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1">
       <c r="A6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="20"/>
@@ -2602,13 +2647,13 @@
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
@@ -2617,13 +2662,13 @@
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
@@ -2632,13 +2677,13 @@
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
@@ -2647,13 +2692,13 @@
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1">
       <c r="A10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -2662,13 +2707,13 @@
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
@@ -2677,13 +2722,13 @@
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1">
       <c r="A12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
@@ -2692,13 +2737,13 @@
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
@@ -2707,13 +2752,13 @@
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1">
       <c r="A14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
@@ -2722,13 +2767,13 @@
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
@@ -2737,13 +2782,13 @@
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
       <c r="A16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
@@ -2752,13 +2797,13 @@
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
@@ -2767,13 +2812,13 @@
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
@@ -2782,13 +2827,13 @@
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
@@ -2797,13 +2842,13 @@
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
@@ -2812,13 +2857,13 @@
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1">
       <c r="A21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="C21" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
@@ -2827,13 +2872,13 @@
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1">
       <c r="A22" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
@@ -2842,13 +2887,13 @@
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1">
       <c r="A23" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
@@ -2857,13 +2902,13 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1">
       <c r="A24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
@@ -2872,13 +2917,13 @@
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
@@ -2887,13 +2932,13 @@
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
       <c r="A26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
@@ -2902,13 +2947,13 @@
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1">
       <c r="A27" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="29"/>
@@ -2917,13 +2962,13 @@
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1">
       <c r="A28" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
@@ -2932,13 +2977,13 @@
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2947,13 +2992,13 @@
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
       <c r="A30" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
@@ -2962,13 +3007,13 @@
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1">
       <c r="A31" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
@@ -2977,13 +3022,13 @@
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1">
       <c r="A32" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
@@ -2992,13 +3037,13 @@
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1">
       <c r="A33" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
@@ -3007,13 +3052,13 @@
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1">
       <c r="A34" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3022,13 +3067,13 @@
     </row>
     <row r="35" spans="1:7" s="3" customFormat="1">
       <c r="A35" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
@@ -3037,13 +3082,13 @@
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1">
       <c r="A36" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="29"/>
@@ -3052,13 +3097,13 @@
     </row>
     <row r="37" spans="1:7" s="3" customFormat="1">
       <c r="A37" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="29"/>
@@ -3076,24 +3121,24 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C39" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3103,16 +3148,16 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="15"/>
@@ -3120,16 +3165,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="15"/>
@@ -3137,16 +3182,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="15"/>
@@ -3154,16 +3199,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="15"/>
@@ -3171,16 +3216,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="15"/>
@@ -3188,16 +3233,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="15"/>
@@ -3205,16 +3250,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="15"/>
@@ -3222,16 +3267,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="15"/>
@@ -3239,16 +3284,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="15"/>
@@ -3256,16 +3301,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="15"/>
@@ -3282,1564 +3327,1564 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
     </row>
     <row r="58" spans="1:7" ht="31.5">
       <c r="A58" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
     </row>
     <row r="60" spans="1:7" ht="31.5">
       <c r="A60" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
     </row>
     <row r="63" spans="1:7" ht="31.5">
       <c r="A63" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
     </row>
     <row r="64" spans="1:7" ht="31.5">
       <c r="A64" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
     </row>
     <row r="79" spans="1:7" ht="31.5">
       <c r="A79" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
     </row>
     <row r="82" spans="1:7" ht="31.5">
       <c r="A82" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
     </row>
     <row r="85" spans="1:7" ht="31.5">
       <c r="A85" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D92" s="15"/>
       <c r="E92" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D94" s="15"/>
       <c r="E94" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D95" s="15"/>
       <c r="E95" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
     </row>
     <row r="96" spans="1:7" ht="31.5">
       <c r="A96" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
     </row>
     <row r="97" spans="1:7" ht="31.5">
       <c r="A97" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="15"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D101" s="15"/>
       <c r="E101" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D102" s="15"/>
       <c r="E102" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D103" s="15"/>
       <c r="E103" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
     </row>
     <row r="105" spans="1:7" ht="31.5">
       <c r="A105" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
     </row>
     <row r="107" spans="1:7" ht="31.5">
       <c r="A107" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
     </row>
     <row r="108" spans="1:7" ht="31.5">
       <c r="A108" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D108" s="15"/>
       <c r="E108" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
     </row>
     <row r="109" spans="1:7" ht="31.5">
       <c r="A109" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
     </row>
     <row r="111" spans="1:7" ht="31.5">
       <c r="A111" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D113" s="15"/>
       <c r="E113" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D114" s="15"/>
       <c r="E114" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="15"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D115" s="15"/>
       <c r="E115" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="15"/>
     </row>
     <row r="116" spans="1:7" ht="31.5">
       <c r="A116" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
     </row>
     <row r="117" spans="1:7" ht="31.5">
       <c r="A117" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="15"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D118" s="15"/>
       <c r="E118" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F118" s="15"/>
       <c r="G118" s="15"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="15"/>
     </row>
     <row r="120" spans="1:7" ht="31.5">
       <c r="A120" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D120" s="15"/>
       <c r="E120" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="15"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="15"/>
     </row>
     <row r="122" spans="1:7" ht="31.5">
       <c r="A122" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="15"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="15"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="15"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="15"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="15"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
     </row>
     <row r="128" spans="1:7" ht="31.5">
       <c r="A128" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="15"/>
     </row>
     <row r="130" spans="1:7" ht="31.5">
       <c r="A130" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="15"/>
     </row>
     <row r="131" spans="1:7" ht="31.5">
       <c r="A131" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
     </row>
     <row r="132" spans="1:7" ht="47.25">
       <c r="A132" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="15"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="15"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="15"/>
     </row>
     <row r="135" spans="1:7" ht="31.5">
       <c r="A135" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
     </row>
     <row r="136" spans="1:7" ht="31.5">
       <c r="A136" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="15"/>
     </row>
     <row r="137" spans="1:7" ht="31.5">
       <c r="A137" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="15"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
     </row>
     <row r="139" spans="1:7" ht="31.5">
       <c r="A139" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F140" s="15"/>
       <c r="G140" s="15"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="15"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="15"/>
     </row>
     <row r="144" spans="1:7" ht="31.5">
       <c r="A144" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F144" s="15"/>
       <c r="G144" s="15"/>
@@ -4855,5135 +4900,5135 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
       <c r="F146" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G146" s="15"/>
     </row>
     <row r="147" spans="1:7" ht="47.25">
       <c r="A147" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D147" s="15"/>
       <c r="E147" s="15"/>
       <c r="F147" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G147" s="15"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
       <c r="F148" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G148" s="15"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
       <c r="F149" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G149" s="15"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
       <c r="F150" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G150" s="15"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D151" s="15"/>
       <c r="E151" s="15"/>
       <c r="F151" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G151" s="15"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
       <c r="F152" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G152" s="15"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
       <c r="F153" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G153" s="15"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
       <c r="F154" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G154" s="15"/>
     </row>
     <row r="155" spans="1:7" ht="31.5">
       <c r="A155" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
       <c r="F155" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G155" s="15"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
       <c r="F156" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G156" s="15"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
       <c r="F157" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G157" s="15"/>
     </row>
     <row r="158" spans="1:7" ht="47.25">
       <c r="A158" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
       <c r="F158" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G158" s="15"/>
     </row>
     <row r="159" spans="1:7" ht="31.5">
       <c r="A159" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
       <c r="F159" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G159" s="15"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
       <c r="F160" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G160" s="15"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
       <c r="F161" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G161" s="15"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
       <c r="F162" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G162" s="15"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
       <c r="F163" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G163" s="15"/>
     </row>
     <row r="164" spans="1:7" ht="31.5">
       <c r="A164" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
       <c r="F164" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G164" s="15"/>
     </row>
     <row r="165" spans="1:7" ht="31.5">
       <c r="A165" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
       <c r="F165" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G165" s="15"/>
     </row>
     <row r="166" spans="1:7" ht="31.5">
       <c r="A166" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
       <c r="F166" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G166" s="15"/>
     </row>
     <row r="167" spans="1:7" ht="31.5">
       <c r="A167" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G167" s="15"/>
     </row>
     <row r="168" spans="1:7" ht="31.5">
       <c r="A168" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
       <c r="F168" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G168" s="15"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
       <c r="F169" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G169" s="15"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
       <c r="F170" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G170" s="15"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
       <c r="F171" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G171" s="15"/>
     </row>
     <row r="172" spans="1:7" ht="47.25">
       <c r="A172" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
       <c r="F172" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G172" s="15"/>
     </row>
     <row r="173" spans="1:7" ht="31.5">
       <c r="A173" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
       <c r="F173" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G173" s="15"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
       <c r="F174" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G174" s="15"/>
     </row>
     <row r="175" spans="1:7" ht="47.25">
       <c r="A175" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
       <c r="F175" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G175" s="15"/>
     </row>
     <row r="176" spans="1:7" ht="31.5">
       <c r="A176" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
       <c r="F176" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G176" s="15"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
       <c r="F177" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G177" s="15"/>
     </row>
     <row r="178" spans="1:7" ht="31.5">
       <c r="A178" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
       <c r="F178" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G178" s="15"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G179" s="15"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
       <c r="F180" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G180" s="15"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
       <c r="F181" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G181" s="15"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
       <c r="F182" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G182" s="15"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
       <c r="F183" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G183" s="15"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
       <c r="F184" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G184" s="15"/>
     </row>
     <row r="185" spans="1:7" ht="31.5">
       <c r="A185" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
       <c r="F185" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G185" s="15"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
       <c r="F186" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G186" s="15"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
       <c r="F187" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G187" s="15"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
       <c r="F188" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G188" s="15"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
       <c r="F189" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G189" s="15"/>
     </row>
     <row r="190" spans="1:7" ht="31.5">
       <c r="A190" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
       <c r="F190" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G190" s="15"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
       <c r="F191" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G191" s="15"/>
     </row>
     <row r="192" spans="1:7" ht="31.5">
       <c r="A192" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
       <c r="F192" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G192" s="15"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
       <c r="F193" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G193" s="15"/>
     </row>
     <row r="194" spans="1:7" ht="31.5">
       <c r="A194" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
       <c r="F194" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G194" s="15"/>
     </row>
     <row r="195" spans="1:7" ht="31.5">
       <c r="A195" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G195" s="15"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
       <c r="F196" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G196" s="15"/>
     </row>
     <row r="197" spans="1:7" ht="31.5">
       <c r="A197" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="F197" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G197" s="15"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="F198" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G198" s="15"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
       <c r="F199" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G199" s="15"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
       <c r="F200" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G200" s="15"/>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
       <c r="F201" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G201" s="15"/>
     </row>
     <row r="202" spans="1:7" ht="31.5">
       <c r="A202" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
       <c r="F202" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G202" s="15"/>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
       <c r="F203" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G203" s="15"/>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
       <c r="F204" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G204" s="15"/>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
       <c r="F205" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G205" s="15"/>
     </row>
     <row r="206" spans="1:7" ht="31.5">
       <c r="A206" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
       <c r="F206" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G206" s="15"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
       <c r="F207" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G207" s="15"/>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
       <c r="F208" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G208" s="15"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
       <c r="F209" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G209" s="15"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
       <c r="F210" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G210" s="15"/>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
       <c r="F211" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G211" s="15"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
       <c r="F212" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G212" s="15"/>
     </row>
     <row r="213" spans="1:7" ht="31.5">
       <c r="A213" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
       <c r="F213" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G213" s="15"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
       <c r="F214" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G214" s="15"/>
     </row>
     <row r="215" spans="1:7" ht="31.5">
       <c r="A215" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
       <c r="F215" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G215" s="15"/>
     </row>
     <row r="216" spans="1:7" ht="31.5">
       <c r="A216" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
       <c r="F216" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G216" s="15"/>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
       <c r="F217" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G217" s="15"/>
     </row>
     <row r="218" spans="1:7" ht="31.5">
       <c r="A218" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
       <c r="F218" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G218" s="15"/>
     </row>
     <row r="219" spans="1:7" ht="31.5">
       <c r="A219" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
       <c r="F219" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G219" s="15"/>
     </row>
     <row r="220" spans="1:7" ht="31.5">
       <c r="A220" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
       <c r="F220" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G220" s="15"/>
     </row>
     <row r="221" spans="1:7" ht="31.5">
       <c r="A221" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
       <c r="F221" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G221" s="15"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
       <c r="F222" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G222" s="15"/>
     </row>
     <row r="223" spans="1:7" ht="78.75">
       <c r="A223" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
       <c r="F223" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G223" s="15"/>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="15"/>
       <c r="F224" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G224" s="15"/>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
       <c r="F225" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G225" s="15"/>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
       <c r="F226" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G226" s="15"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="15"/>
       <c r="F227" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G227" s="15"/>
     </row>
     <row r="228" spans="1:7" ht="31.5">
       <c r="A228" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
       <c r="F228" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G228" s="15"/>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
       <c r="F229" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G229" s="15"/>
     </row>
     <row r="230" spans="1:7" ht="47.25">
       <c r="A230" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="15"/>
       <c r="F230" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G230" s="15"/>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D231" s="15"/>
       <c r="E231" s="15"/>
       <c r="F231" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G231" s="15"/>
     </row>
     <row r="232" spans="1:7" ht="31.5">
       <c r="A232" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D232" s="15"/>
       <c r="E232" s="15"/>
       <c r="F232" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G232" s="15"/>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D233" s="15"/>
       <c r="E233" s="15"/>
       <c r="F233" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G233" s="15"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D234" s="15"/>
       <c r="E234" s="15"/>
       <c r="F234" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G234" s="15"/>
     </row>
     <row r="235" spans="1:7" ht="31.5">
       <c r="A235" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D235" s="15"/>
       <c r="E235" s="15"/>
       <c r="F235" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G235" s="15"/>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
       <c r="F236" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G236" s="15"/>
     </row>
     <row r="237" spans="1:7" ht="31.5">
       <c r="A237" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D237" s="15"/>
       <c r="E237" s="15"/>
       <c r="F237" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G237" s="15"/>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D238" s="15"/>
       <c r="E238" s="15"/>
       <c r="F238" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G238" s="15"/>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D239" s="15"/>
       <c r="E239" s="15"/>
       <c r="F239" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G239" s="15"/>
     </row>
     <row r="240" spans="1:7" ht="47.25">
       <c r="A240" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D240" s="15"/>
       <c r="E240" s="15"/>
       <c r="F240" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G240" s="15"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D241" s="15"/>
       <c r="E241" s="15"/>
       <c r="F241" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G241" s="15"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D242" s="15"/>
       <c r="E242" s="15"/>
       <c r="F242" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G242" s="15"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D243" s="15"/>
       <c r="E243" s="15"/>
       <c r="F243" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G243" s="15"/>
     </row>
     <row r="244" spans="1:7" ht="47.25">
       <c r="A244" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D244" s="15"/>
       <c r="E244" s="15"/>
       <c r="F244" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G244" s="15"/>
     </row>
     <row r="245" spans="1:7" ht="31.5">
       <c r="A245" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D245" s="15"/>
       <c r="E245" s="15"/>
       <c r="F245" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G245" s="15"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D246" s="15"/>
       <c r="E246" s="15"/>
       <c r="F246" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G246" s="15"/>
     </row>
     <row r="247" spans="1:7" ht="31.5">
       <c r="A247" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C247" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D247" s="15"/>
       <c r="E247" s="15"/>
       <c r="F247" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G247" s="15"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D248" s="15"/>
       <c r="E248" s="15"/>
       <c r="F248" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G248" s="15"/>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C249" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D249" s="15"/>
       <c r="E249" s="15"/>
       <c r="F249" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G249" s="15"/>
     </row>
     <row r="250" spans="1:7" ht="31.5">
       <c r="A250" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D250" s="15"/>
       <c r="E250" s="15"/>
       <c r="F250" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G250" s="15"/>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C251" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D251" s="15"/>
       <c r="E251" s="15"/>
       <c r="F251" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G251" s="15"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D252" s="15"/>
       <c r="E252" s="15"/>
       <c r="F252" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G252" s="15"/>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D253" s="15"/>
       <c r="E253" s="15"/>
       <c r="F253" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G253" s="15"/>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D254" s="15"/>
       <c r="E254" s="15"/>
       <c r="F254" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G254" s="15"/>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
       <c r="F255" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G255" s="15"/>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D256" s="15"/>
       <c r="E256" s="15"/>
       <c r="F256" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G256" s="15"/>
     </row>
     <row r="257" spans="1:7" ht="31.5">
       <c r="A257" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D257" s="15"/>
       <c r="E257" s="15"/>
       <c r="F257" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G257" s="15"/>
     </row>
     <row r="258" spans="1:7" ht="31.5">
       <c r="A258" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D258" s="15"/>
       <c r="E258" s="15"/>
       <c r="F258" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G258" s="15"/>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D259" s="15"/>
       <c r="E259" s="15"/>
       <c r="F259" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G259" s="15"/>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D260" s="15"/>
       <c r="E260" s="15"/>
       <c r="F260" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G260" s="15"/>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D261" s="15"/>
       <c r="E261" s="15"/>
       <c r="F261" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G261" s="15"/>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C262" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D262" s="15"/>
       <c r="E262" s="15"/>
       <c r="F262" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G262" s="15"/>
     </row>
     <row r="263" spans="1:7" ht="31.5">
       <c r="A263" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D263" s="15"/>
       <c r="E263" s="15"/>
       <c r="F263" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G263" s="15"/>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D264" s="15"/>
       <c r="E264" s="15"/>
       <c r="F264" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G264" s="15"/>
     </row>
     <row r="265" spans="1:7" ht="31.5">
       <c r="A265" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D265" s="15"/>
       <c r="E265" s="15"/>
       <c r="F265" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G265" s="15"/>
     </row>
     <row r="266" spans="1:7" ht="31.5">
       <c r="A266" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D266" s="15"/>
       <c r="E266" s="15"/>
       <c r="F266" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G266" s="15"/>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
       <c r="F267" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G267" s="15"/>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D268" s="15"/>
       <c r="E268" s="15"/>
       <c r="F268" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G268" s="15"/>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
       <c r="F269" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G269" s="15"/>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C270" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D270" s="15"/>
       <c r="E270" s="15"/>
       <c r="F270" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G270" s="15"/>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C271" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D271" s="15"/>
       <c r="E271" s="15"/>
       <c r="F271" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G271" s="15"/>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C272" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="F272" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G272" s="15"/>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C273" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
       <c r="F273" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G273" s="15"/>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
       <c r="F274" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G274" s="15"/>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C275" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D275" s="15"/>
       <c r="E275" s="15"/>
       <c r="F275" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G275" s="15"/>
     </row>
     <row r="276" spans="1:7" ht="31.5">
       <c r="A276" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C276" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
       <c r="F276" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G276" s="15"/>
     </row>
     <row r="277" spans="1:7" ht="31.5">
       <c r="A277" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
       <c r="F277" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G277" s="15"/>
     </row>
     <row r="278" spans="1:7" ht="31.5">
       <c r="A278" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
       <c r="F278" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G278" s="15"/>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C279" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
       <c r="F279" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G279" s="15"/>
     </row>
     <row r="280" spans="1:7" ht="31.5">
       <c r="A280" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
       <c r="F280" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G280" s="15"/>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
       <c r="F281" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G281" s="15"/>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
       <c r="F282" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G282" s="15"/>
     </row>
     <row r="283" spans="1:7" ht="31.5">
       <c r="A283" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C283" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
       <c r="F283" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G283" s="15"/>
     </row>
     <row r="284" spans="1:7" ht="31.5">
       <c r="A284" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C284" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
       <c r="F284" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G284" s="15"/>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C285" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
       <c r="F285" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G285" s="15"/>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C286" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
       <c r="F286" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G286" s="15"/>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C287" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
       <c r="F287" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G287" s="15"/>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C288" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
       <c r="F288" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G288" s="15"/>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C289" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
       <c r="F289" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G289" s="15"/>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C290" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
       <c r="F290" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G290" s="15"/>
     </row>
     <row r="291" spans="1:7" ht="31.5">
       <c r="A291" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C291" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D291" s="15"/>
       <c r="E291" s="15"/>
       <c r="F291" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G291" s="15"/>
     </row>
     <row r="292" spans="1:7" ht="31.5">
       <c r="A292" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C292" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D292" s="15"/>
       <c r="E292" s="15"/>
       <c r="F292" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G292" s="15"/>
     </row>
     <row r="293" spans="1:7" ht="31.5">
       <c r="A293" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C293" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D293" s="15"/>
       <c r="E293" s="15"/>
       <c r="F293" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G293" s="15"/>
     </row>
     <row r="294" spans="1:7" ht="31.5">
       <c r="A294" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C294" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D294" s="15"/>
       <c r="E294" s="15"/>
       <c r="F294" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G294" s="15"/>
     </row>
     <row r="295" spans="1:7" ht="31.5">
       <c r="A295" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C295" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D295" s="15"/>
       <c r="E295" s="15"/>
       <c r="F295" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G295" s="15"/>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C296" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D296" s="15"/>
       <c r="E296" s="15"/>
       <c r="F296" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G296" s="15"/>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D297" s="15"/>
       <c r="E297" s="15"/>
       <c r="F297" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G297" s="15"/>
     </row>
     <row r="298" spans="1:7" ht="31.5">
       <c r="A298" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D298" s="15"/>
       <c r="E298" s="15"/>
       <c r="F298" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G298" s="15"/>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C299" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D299" s="15"/>
       <c r="E299" s="15"/>
       <c r="F299" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G299" s="15"/>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D300" s="15"/>
       <c r="E300" s="15"/>
       <c r="F300" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G300" s="15"/>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D301" s="15"/>
       <c r="E301" s="15"/>
       <c r="F301" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G301" s="15"/>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D302" s="15"/>
       <c r="E302" s="15"/>
       <c r="F302" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G302" s="15"/>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D303" s="15"/>
       <c r="E303" s="15"/>
       <c r="F303" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G303" s="15"/>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D304" s="15"/>
       <c r="E304" s="15"/>
       <c r="F304" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G304" s="15"/>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D305" s="15"/>
       <c r="E305" s="15"/>
       <c r="F305" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G305" s="15"/>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C306" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D306" s="15"/>
       <c r="E306" s="15"/>
       <c r="F306" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G306" s="15"/>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C307" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D307" s="15"/>
       <c r="E307" s="15"/>
       <c r="F307" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G307" s="15"/>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D308" s="15"/>
       <c r="E308" s="15"/>
       <c r="F308" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G308" s="15"/>
     </row>
     <row r="309" spans="1:7" ht="31.5">
       <c r="A309" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D309" s="15"/>
       <c r="E309" s="15"/>
       <c r="F309" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G309" s="15"/>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D310" s="15"/>
       <c r="E310" s="15"/>
       <c r="F310" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G310" s="15"/>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D311" s="15"/>
       <c r="E311" s="15"/>
       <c r="F311" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G311" s="15"/>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D312" s="15"/>
       <c r="E312" s="15"/>
       <c r="F312" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G312" s="15"/>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D313" s="15"/>
       <c r="E313" s="15"/>
       <c r="F313" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G313" s="15"/>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D314" s="15"/>
       <c r="E314" s="15"/>
       <c r="F314" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G314" s="15"/>
     </row>
     <row r="315" spans="1:7" ht="31.5">
       <c r="A315" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D315" s="15"/>
       <c r="E315" s="15"/>
       <c r="F315" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G315" s="15"/>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D316" s="15"/>
       <c r="E316" s="15"/>
       <c r="F316" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G316" s="15"/>
     </row>
     <row r="317" spans="1:7" ht="31.5">
       <c r="A317" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D317" s="15"/>
       <c r="E317" s="15"/>
       <c r="F317" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G317" s="15"/>
     </row>
     <row r="318" spans="1:7" ht="31.5">
       <c r="A318" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D318" s="15"/>
       <c r="E318" s="15"/>
       <c r="F318" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G318" s="15"/>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D319" s="15"/>
       <c r="E319" s="15"/>
       <c r="F319" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G319" s="15"/>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D320" s="15"/>
       <c r="E320" s="15"/>
       <c r="F320" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G320" s="15"/>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D321" s="15"/>
       <c r="E321" s="15"/>
       <c r="F321" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G321" s="15"/>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D322" s="15"/>
       <c r="E322" s="15"/>
       <c r="F322" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G322" s="15"/>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D323" s="15"/>
       <c r="E323" s="15"/>
       <c r="F323" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G323" s="15"/>
     </row>
     <row r="324" spans="1:7" ht="31.5">
       <c r="A324" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D324" s="15"/>
       <c r="E324" s="15"/>
       <c r="F324" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G324" s="15"/>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D325" s="15"/>
       <c r="E325" s="15"/>
       <c r="F325" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G325" s="15"/>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C326" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D326" s="15"/>
       <c r="E326" s="15"/>
       <c r="F326" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G326" s="15"/>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C327" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D327" s="15"/>
       <c r="E327" s="15"/>
       <c r="F327" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G327" s="15"/>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C328" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D328" s="15"/>
       <c r="E328" s="15"/>
       <c r="F328" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G328" s="15"/>
     </row>
     <row r="329" spans="1:7" ht="31.5">
       <c r="A329" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B329" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C329" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D329" s="15"/>
       <c r="E329" s="15"/>
       <c r="F329" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G329" s="15"/>
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C330" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D330" s="15"/>
       <c r="E330" s="15"/>
       <c r="F330" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G330" s="15"/>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D331" s="15"/>
       <c r="E331" s="15"/>
       <c r="F331" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G331" s="15"/>
     </row>
     <row r="332" spans="1:7" ht="31.5">
       <c r="A332" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C332" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D332" s="15"/>
       <c r="E332" s="15"/>
       <c r="F332" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G332" s="15"/>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D333" s="15"/>
       <c r="E333" s="15"/>
       <c r="F333" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G333" s="15"/>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D334" s="15"/>
       <c r="E334" s="15"/>
       <c r="F334" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G334" s="15"/>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D335" s="15"/>
       <c r="E335" s="15"/>
       <c r="F335" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G335" s="15"/>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D336" s="15"/>
       <c r="E336" s="15"/>
       <c r="F336" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G336" s="15"/>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C337" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D337" s="15"/>
       <c r="E337" s="15"/>
       <c r="F337" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G337" s="15"/>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D338" s="15"/>
       <c r="E338" s="15"/>
       <c r="F338" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G338" s="15"/>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C339" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D339" s="15"/>
       <c r="E339" s="15"/>
       <c r="F339" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G339" s="15"/>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D340" s="15"/>
       <c r="E340" s="15"/>
       <c r="F340" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G340" s="15"/>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C341" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D341" s="15"/>
       <c r="E341" s="15"/>
       <c r="F341" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G341" s="15"/>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C342" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D342" s="15"/>
       <c r="E342" s="15"/>
       <c r="F342" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G342" s="15"/>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C343" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D343" s="15"/>
       <c r="E343" s="15"/>
       <c r="F343" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G343" s="15"/>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D344" s="15"/>
       <c r="E344" s="15"/>
       <c r="F344" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G344" s="15"/>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C345" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D345" s="15"/>
       <c r="E345" s="15"/>
       <c r="F345" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G345" s="15"/>
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D346" s="15"/>
       <c r="E346" s="15"/>
       <c r="F346" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G346" s="15"/>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C347" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D347" s="15"/>
       <c r="E347" s="15"/>
       <c r="F347" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G347" s="15"/>
     </row>
     <row r="348" spans="1:7" ht="31.5">
       <c r="A348" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C348" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D348" s="15"/>
       <c r="E348" s="15"/>
       <c r="F348" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G348" s="15"/>
     </row>
     <row r="349" spans="1:7" ht="31.5">
       <c r="A349" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C349" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D349" s="15"/>
       <c r="E349" s="15"/>
       <c r="F349" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G349" s="15"/>
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C350" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D350" s="15"/>
       <c r="E350" s="15"/>
       <c r="F350" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G350" s="15"/>
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C351" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D351" s="15"/>
       <c r="E351" s="15"/>
       <c r="F351" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G351" s="15"/>
     </row>
     <row r="352" spans="1:7">
       <c r="A352" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C352" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D352" s="15"/>
       <c r="E352" s="15"/>
       <c r="F352" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G352" s="15"/>
     </row>
     <row r="353" spans="1:7">
       <c r="A353" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C353" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D353" s="15"/>
       <c r="E353" s="15"/>
       <c r="F353" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G353" s="15"/>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C354" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D354" s="15"/>
       <c r="E354" s="15"/>
       <c r="F354" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G354" s="15"/>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C355" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D355" s="15"/>
       <c r="E355" s="15"/>
       <c r="F355" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G355" s="15"/>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C356" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D356" s="15"/>
       <c r="E356" s="15"/>
       <c r="F356" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G356" s="15"/>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C357" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D357" s="15"/>
       <c r="E357" s="15"/>
       <c r="F357" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G357" s="15"/>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C358" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D358" s="15"/>
       <c r="E358" s="15"/>
       <c r="F358" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G358" s="15"/>
     </row>
     <row r="359" spans="1:7" ht="31.5">
       <c r="A359" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C359" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D359" s="15"/>
       <c r="E359" s="15"/>
       <c r="F359" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G359" s="15"/>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C360" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D360" s="15"/>
       <c r="E360" s="15"/>
       <c r="F360" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G360" s="15"/>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C361" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D361" s="15"/>
       <c r="E361" s="15"/>
       <c r="F361" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G361" s="15"/>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C362" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D362" s="15"/>
       <c r="E362" s="15"/>
       <c r="F362" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G362" s="15"/>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C363" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D363" s="15"/>
       <c r="E363" s="15"/>
       <c r="F363" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G363" s="15"/>
     </row>
     <row r="364" spans="1:7">
       <c r="A364" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C364" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D364" s="15"/>
       <c r="E364" s="15"/>
       <c r="F364" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G364" s="15"/>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C365" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D365" s="15"/>
       <c r="E365" s="15"/>
       <c r="F365" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G365" s="15"/>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C366" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D366" s="15"/>
       <c r="E366" s="15"/>
       <c r="F366" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G366" s="15"/>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C367" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D367" s="15"/>
       <c r="E367" s="15"/>
       <c r="F367" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G367" s="15"/>
     </row>
     <row r="368" spans="1:7" ht="47.25">
       <c r="A368" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C368" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D368" s="15"/>
       <c r="E368" s="15"/>
       <c r="F368" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G368" s="15"/>
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C369" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D369" s="15"/>
       <c r="E369" s="15"/>
       <c r="F369" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G369" s="15"/>
     </row>
     <row r="370" spans="1:7">
       <c r="A370" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C370" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D370" s="15"/>
       <c r="E370" s="15"/>
       <c r="F370" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G370" s="15"/>
     </row>
     <row r="371" spans="1:7">
       <c r="A371" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C371" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D371" s="15"/>
       <c r="E371" s="15"/>
       <c r="F371" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G371" s="15"/>
     </row>
     <row r="372" spans="1:7" ht="31.5">
       <c r="A372" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D372" s="15"/>
       <c r="E372" s="15"/>
       <c r="F372" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G372" s="15"/>
     </row>
     <row r="373" spans="1:7">
       <c r="A373" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D373" s="15"/>
       <c r="E373" s="15"/>
       <c r="F373" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G373" s="15"/>
     </row>
     <row r="374" spans="1:7">
       <c r="A374" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C374" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D374" s="15"/>
       <c r="E374" s="15"/>
       <c r="F374" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G374" s="15"/>
     </row>
     <row r="375" spans="1:7">
       <c r="A375" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C375" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D375" s="15"/>
       <c r="E375" s="15"/>
       <c r="F375" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G375" s="15"/>
     </row>
     <row r="376" spans="1:7">
       <c r="A376" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C376" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D376" s="15"/>
       <c r="E376" s="15"/>
       <c r="F376" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G376" s="15"/>
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C377" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D377" s="15"/>
       <c r="E377" s="15"/>
       <c r="F377" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G377" s="15"/>
     </row>
     <row r="378" spans="1:7" ht="31.5">
       <c r="A378" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C378" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D378" s="15"/>
       <c r="E378" s="15"/>
       <c r="F378" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G378" s="15"/>
     </row>
     <row r="379" spans="1:7">
       <c r="A379" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C379" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D379" s="15"/>
       <c r="E379" s="15"/>
       <c r="F379" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G379" s="15"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C380" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D380" s="15"/>
       <c r="E380" s="15"/>
       <c r="F380" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G380" s="15"/>
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C381" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D381" s="15"/>
       <c r="E381" s="15"/>
       <c r="F381" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G381" s="15"/>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C382" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D382" s="15"/>
       <c r="E382" s="15"/>
       <c r="F382" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G382" s="15"/>
     </row>
     <row r="383" spans="1:7" ht="31.5">
       <c r="A383" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C383" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D383" s="15"/>
       <c r="E383" s="15"/>
       <c r="F383" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G383" s="15"/>
     </row>
     <row r="384" spans="1:7" ht="31.5">
       <c r="A384" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C384" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D384" s="15"/>
       <c r="E384" s="15"/>
       <c r="F384" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G384" s="15"/>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C385" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D385" s="15"/>
       <c r="E385" s="15"/>
       <c r="F385" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G385" s="15"/>
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C386" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D386" s="15"/>
       <c r="E386" s="15"/>
       <c r="F386" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G386" s="15"/>
     </row>
     <row r="387" spans="1:7" ht="31.5">
       <c r="A387" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C387" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D387" s="15"/>
       <c r="E387" s="15"/>
       <c r="F387" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G387" s="15"/>
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C388" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D388" s="15"/>
       <c r="E388" s="15"/>
       <c r="F388" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G388" s="15"/>
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C389" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D389" s="15"/>
       <c r="E389" s="15"/>
       <c r="F389" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G389" s="15"/>
     </row>
     <row r="390" spans="1:7">
       <c r="A390" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C390" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D390" s="15"/>
       <c r="E390" s="15"/>
       <c r="F390" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G390" s="15"/>
     </row>
     <row r="391" spans="1:7">
       <c r="A391" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C391" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D391" s="15"/>
       <c r="E391" s="15"/>
       <c r="F391" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G391" s="15"/>
     </row>
     <row r="392" spans="1:7" ht="31.5">
       <c r="A392" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C392" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D392" s="15"/>
       <c r="E392" s="15"/>
       <c r="F392" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G392" s="15"/>
     </row>
     <row r="393" spans="1:7" ht="31.5">
       <c r="A393" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C393" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D393" s="15"/>
       <c r="E393" s="15"/>
       <c r="F393" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G393" s="15"/>
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C394" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D394" s="15"/>
       <c r="E394" s="15"/>
       <c r="F394" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G394" s="15"/>
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C395" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D395" s="15"/>
       <c r="E395" s="15"/>
       <c r="F395" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G395" s="15"/>
     </row>
     <row r="396" spans="1:7" ht="31.5">
       <c r="A396" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C396" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D396" s="15"/>
       <c r="E396" s="15"/>
       <c r="F396" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G396" s="15"/>
     </row>
     <row r="397" spans="1:7">
       <c r="A397" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C397" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D397" s="15"/>
       <c r="E397" s="15"/>
       <c r="F397" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G397" s="15"/>
     </row>
     <row r="398" spans="1:7" ht="31.5">
       <c r="A398" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C398" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D398" s="15"/>
       <c r="E398" s="15"/>
       <c r="F398" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G398" s="15"/>
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C399" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D399" s="15"/>
       <c r="E399" s="15"/>
       <c r="F399" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G399" s="15"/>
     </row>
     <row r="400" spans="1:7">
       <c r="A400" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D400" s="15"/>
       <c r="E400" s="15"/>
       <c r="F400" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G400" s="15"/>
     </row>
     <row r="401" spans="1:7">
       <c r="A401" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B401" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C401" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D401" s="15"/>
       <c r="E401" s="15"/>
       <c r="F401" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G401" s="15"/>
     </row>
     <row r="402" spans="1:7" ht="31.5">
       <c r="A402" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C402" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D402" s="15"/>
       <c r="E402" s="15"/>
       <c r="F402" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G402" s="15"/>
     </row>
     <row r="403" spans="1:7" ht="31.5">
       <c r="A403" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C403" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D403" s="15"/>
       <c r="E403" s="15"/>
       <c r="F403" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G403" s="15"/>
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C404" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D404" s="15"/>
       <c r="E404" s="15"/>
       <c r="F404" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G404" s="15"/>
     </row>
     <row r="405" spans="1:7">
       <c r="A405" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C405" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D405" s="15"/>
       <c r="E405" s="15"/>
       <c r="F405" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G405" s="15"/>
     </row>
     <row r="406" spans="1:7">
       <c r="A406" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C406" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D406" s="15"/>
       <c r="E406" s="15"/>
       <c r="F406" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G406" s="15"/>
     </row>
     <row r="407" spans="1:7" ht="31.5">
       <c r="A407" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C407" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D407" s="15"/>
       <c r="E407" s="15"/>
       <c r="F407" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G407" s="15"/>
     </row>
     <row r="408" spans="1:7">
       <c r="A408" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C408" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D408" s="15"/>
       <c r="E408" s="15"/>
       <c r="F408" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G408" s="15"/>
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C409" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D409" s="15"/>
       <c r="E409" s="15"/>
       <c r="F409" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G409" s="15"/>
     </row>
     <row r="410" spans="1:7">
       <c r="A410" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C410" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D410" s="15"/>
       <c r="E410" s="15"/>
       <c r="F410" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G410" s="15"/>
     </row>
     <row r="411" spans="1:7">
       <c r="A411" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C411" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D411" s="15"/>
       <c r="E411" s="15"/>
       <c r="F411" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G411" s="15"/>
     </row>
     <row r="412" spans="1:7" ht="31.5">
       <c r="A412" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C412" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D412" s="15"/>
       <c r="E412" s="15"/>
       <c r="F412" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G412" s="15"/>
     </row>
     <row r="413" spans="1:7" ht="47.25">
       <c r="A413" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C413" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D413" s="15"/>
       <c r="E413" s="15"/>
       <c r="F413" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G413" s="15"/>
     </row>
     <row r="414" spans="1:7">
       <c r="A414" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C414" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D414" s="15"/>
       <c r="E414" s="15"/>
       <c r="F414" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G414" s="15"/>
     </row>
     <row r="415" spans="1:7">
       <c r="A415" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C415" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D415" s="15"/>
       <c r="E415" s="15"/>
       <c r="F415" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G415" s="15"/>
     </row>
     <row r="416" spans="1:7">
       <c r="A416" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C416" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D416" s="15"/>
       <c r="E416" s="15"/>
       <c r="F416" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G416" s="15"/>
     </row>
     <row r="417" spans="1:7" ht="47.25">
       <c r="A417" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D417" s="15"/>
       <c r="E417" s="15"/>
       <c r="F417" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G417" s="15"/>
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D418" s="15"/>
       <c r="E418" s="15"/>
       <c r="F418" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G418" s="15"/>
     </row>
     <row r="419" spans="1:7" ht="31.5">
       <c r="A419" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D419" s="15"/>
       <c r="E419" s="15"/>
       <c r="F419" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G419" s="15"/>
     </row>
     <row r="420" spans="1:7" ht="31.5">
       <c r="A420" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D420" s="15"/>
       <c r="E420" s="15"/>
       <c r="F420" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G420" s="15"/>
     </row>
     <row r="421" spans="1:7">
       <c r="A421" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C421" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D421" s="15"/>
       <c r="E421" s="15"/>
       <c r="F421" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G421" s="15"/>
     </row>
     <row r="422" spans="1:7" ht="31.5">
       <c r="A422" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C422" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D422" s="15"/>
       <c r="E422" s="15"/>
       <c r="F422" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G422" s="15"/>
     </row>
     <row r="423" spans="1:7">
       <c r="A423" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D423" s="15"/>
       <c r="E423" s="15"/>
       <c r="F423" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G423" s="15"/>
     </row>
     <row r="424" spans="1:7">
       <c r="A424" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C424" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D424" s="15"/>
       <c r="E424" s="15"/>
       <c r="F424" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G424" s="15"/>
     </row>
     <row r="425" spans="1:7">
       <c r="A425" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C425" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D425" s="15"/>
       <c r="E425" s="15"/>
       <c r="F425" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G425" s="15"/>
     </row>
     <row r="426" spans="1:7">
       <c r="A426" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C426" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D426" s="15"/>
       <c r="E426" s="15"/>
       <c r="F426" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G426" s="15"/>
     </row>
     <row r="427" spans="1:7" ht="31.5">
       <c r="A427" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C427" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D427" s="15"/>
       <c r="E427" s="15"/>
       <c r="F427" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G427" s="15"/>
     </row>
     <row r="428" spans="1:7" ht="31.5">
       <c r="A428" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D428" s="15"/>
       <c r="E428" s="15"/>
       <c r="F428" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G428" s="15"/>
     </row>
     <row r="429" spans="1:7">
       <c r="A429" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D429" s="15"/>
       <c r="E429" s="15"/>
       <c r="F429" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G429" s="15"/>
     </row>
     <row r="430" spans="1:7" ht="47.25">
       <c r="A430" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D430" s="15"/>
       <c r="E430" s="15"/>
       <c r="F430" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G430" s="15"/>
     </row>
     <row r="431" spans="1:7" ht="47.25">
       <c r="A431" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C431" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D431" s="15"/>
       <c r="E431" s="15"/>
       <c r="F431" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G431" s="15"/>
     </row>
     <row r="432" spans="1:7">
       <c r="A432" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C432" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D432" s="15"/>
       <c r="E432" s="15"/>
       <c r="F432" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G432" s="15"/>
     </row>
     <row r="433" spans="1:7">
       <c r="A433" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C433" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D433" s="15"/>
       <c r="E433" s="15"/>
       <c r="F433" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G433" s="15"/>
     </row>
     <row r="434" spans="1:7">
       <c r="A434" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C434" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D434" s="15"/>
       <c r="E434" s="15"/>
       <c r="F434" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G434" s="15"/>
     </row>
     <row r="435" spans="1:7" ht="31.5">
       <c r="A435" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C435" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D435" s="15"/>
       <c r="E435" s="15"/>
       <c r="F435" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G435" s="15"/>
     </row>
     <row r="436" spans="1:7">
       <c r="A436" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C436" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D436" s="15"/>
       <c r="E436" s="15"/>
       <c r="F436" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G436" s="15"/>
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B437" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C437" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D437" s="15"/>
       <c r="E437" s="15"/>
       <c r="F437" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G437" s="15"/>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B438" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C438" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D438" s="15"/>
       <c r="E438" s="15"/>
       <c r="F438" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G438" s="15"/>
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C439" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D439" s="15"/>
       <c r="E439" s="15"/>
       <c r="F439" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G439" s="15"/>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C440" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D440" s="15"/>
       <c r="E440" s="15"/>
       <c r="F440" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G440" s="15"/>
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C441" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D441" s="15"/>
       <c r="E441" s="15"/>
       <c r="F441" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G441" s="15"/>
     </row>
     <row r="442" spans="1:7" ht="31.5">
       <c r="A442" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C442" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D442" s="15"/>
       <c r="E442" s="15"/>
       <c r="F442" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G442" s="15"/>
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C443" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D443" s="15"/>
       <c r="E443" s="15"/>
       <c r="F443" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G443" s="15"/>
     </row>
     <row r="444" spans="1:7">
       <c r="A444" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C444" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D444" s="15"/>
       <c r="E444" s="15"/>
       <c r="F444" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G444" s="15"/>
     </row>
     <row r="445" spans="1:7">
       <c r="A445" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C445" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D445" s="15"/>
       <c r="E445" s="15"/>
       <c r="F445" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G445" s="15"/>
     </row>
     <row r="446" spans="1:7" ht="31.5">
       <c r="A446" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C446" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D446" s="15"/>
       <c r="E446" s="15"/>
       <c r="F446" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G446" s="15"/>
     </row>
     <row r="447" spans="1:7" ht="31.5">
       <c r="A447" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C447" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D447" s="15"/>
       <c r="E447" s="15"/>
       <c r="F447" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G447" s="15"/>
     </row>
@@ -10010,7 +10055,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -10022,24 +10067,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B30CD0-F38B-4C92-B7E2-E4EBB79148AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC63449-F34F-46C0-ACB5-5E5583155073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="499">
   <si>
     <t>type</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Le volume doit être limité à 10ml</t>
-  </si>
-  <si>
-    <t>k_sch_man</t>
   </si>
   <si>
     <t>u_remarks</t>
@@ -1514,12 +1511,6 @@
     <t>NDATO Kossi</t>
   </si>
   <si>
-    <t>(2023 Sept) - 4. SCH/STH - Urine Filtration V2.1</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_4_urine_filtration_v2_1</t>
-  </si>
-  <si>
     <t>u_sh_egg</t>
   </si>
   <si>
@@ -1533,6 +1524,36 @@
   </si>
   <si>
     <t>round( 10 * ${u_sh_egg} div ${u_urine_vol} )</t>
+  </si>
+  <si>
+    <t>(2023 Sept) - 4. SCH/STH - Urine Filtration V2.2</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_4_urine_filtration_v2_2</t>
+  </si>
+  <si>
+    <t>u_urine_conserve</t>
+  </si>
+  <si>
+    <t>Urine conservé pour cette enfant</t>
+  </si>
+  <si>
+    <t>${u_urine_conserve} = 'Oui'</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>u_end_note</t>
+  </si>
+  <si>
+    <t>u_sch_man</t>
+  </si>
+  <si>
+    <t>L'urine de l'enfant n'a pas été consevé. Vous ne pouvez pas enregistré ces résultats.</t>
+  </si>
+  <si>
+    <t>${u_urine_conserve} = 'Non'</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1855,6 +1876,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2138,13 +2168,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2202,12 +2232,12 @@
         <v>11</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="24" customFormat="1">
       <c r="A2" s="50" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>12</v>
@@ -2232,10 +2262,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="30"/>
@@ -2276,10 +2306,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="30"/>
@@ -2323,7 +2353,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="39"/>
@@ -2331,7 +2361,9 @@
       <c r="G7" s="40"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
+      <c r="J7" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
     </row>
@@ -2340,18 +2372,18 @@
         <v>20</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="39"/>
       <c r="F8" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -2361,146 +2393,169 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:13" s="42" customFormat="1" ht="31.5">
-      <c r="A9" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+    <row r="9" spans="1:13" s="41" customFormat="1">
+      <c r="A9" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-    </row>
-    <row r="10" spans="1:13" s="24" customFormat="1">
+      <c r="K9" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="54"/>
+      <c r="M9" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="42" customFormat="1" ht="31.5">
       <c r="A10" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>487</v>
+        <v>24</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>489</v>
+        <v>25</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="31" t="s">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-    </row>
-    <row r="11" spans="1:13" s="24" customFormat="1">
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+    </row>
+    <row r="11" spans="1:13" s="24" customFormat="1" ht="31.5">
       <c r="A11" s="31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="43"/>
       <c r="F11" s="31"/>
       <c r="G11" s="44"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="43" t="s">
-        <v>491</v>
-      </c>
-      <c r="J11" s="31"/>
+      <c r="H11" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="K11" s="43"/>
       <c r="L11" s="43"/>
-      <c r="M11" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="24" customFormat="1">
+    </row>
+    <row r="12" spans="1:13" s="24" customFormat="1" ht="31.5">
       <c r="A12" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>28</v>
+        <v>485</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="43"/>
       <c r="F12" s="31"/>
       <c r="G12" s="44"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="H12" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>488</v>
+      </c>
       <c r="J12" s="31"/>
       <c r="K12" s="43"/>
       <c r="L12" s="43"/>
-    </row>
-    <row r="13" spans="1:13" s="24" customFormat="1">
+      <c r="M12" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="24" customFormat="1" ht="31.5">
       <c r="A13" s="31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>29</v>
+        <v>496</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>30</v>
+        <v>481</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="43"/>
       <c r="F13" s="31"/>
       <c r="G13" s="44"/>
-      <c r="H13" s="43"/>
+      <c r="H13" s="31" t="s">
+        <v>493</v>
+      </c>
       <c r="I13" s="43"/>
-      <c r="J13" s="31"/>
+      <c r="J13" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="K13" s="43"/>
       <c r="L13" s="43"/>
     </row>
-    <row r="14" spans="1:13" s="24" customFormat="1">
-      <c r="A14" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
+    <row r="14" spans="1:13" s="41" customFormat="1" ht="31.5">
+      <c r="A14" s="39" t="s">
+        <v>494</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>497</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
     </row>
     <row r="15" spans="1:13" s="24" customFormat="1">
       <c r="A15" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
+        <v>22</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="33"/>
       <c r="E15" s="43"/>
       <c r="F15" s="31"/>
       <c r="G15" s="44"/>
@@ -2510,19 +2565,55 @@
       <c r="K15" s="43"/>
       <c r="L15" s="43"/>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
+    <row r="16" spans="1:13" s="24" customFormat="1">
+      <c r="A16" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>31</v>
+      </c>
       <c r="C16" s="46"/>
       <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="47"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="43"/>
-      <c r="I16" s="48"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+    </row>
+    <row r="17" spans="1:12" s="24" customFormat="1">
+      <c r="A17" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2548,7 +2639,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -2557,28 +2648,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>38</v>
-      </c>
       <c r="G1" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
@@ -2587,13 +2678,13 @@
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
@@ -2602,13 +2693,13 @@
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1">
       <c r="A4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
@@ -2617,13 +2708,13 @@
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="20"/>
@@ -2632,13 +2723,13 @@
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1">
       <c r="A6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="20"/>
@@ -2647,13 +2738,13 @@
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
@@ -2662,13 +2753,13 @@
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
@@ -2677,13 +2768,13 @@
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
@@ -2692,13 +2783,13 @@
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1">
       <c r="A10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -2707,13 +2798,13 @@
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
@@ -2722,13 +2813,13 @@
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
@@ -2737,13 +2828,13 @@
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
@@ -2752,13 +2843,13 @@
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1">
       <c r="A14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
@@ -2767,13 +2858,13 @@
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
@@ -2782,13 +2873,13 @@
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
       <c r="A16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
@@ -2797,13 +2888,13 @@
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
@@ -2812,13 +2903,13 @@
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
@@ -2827,13 +2918,13 @@
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
@@ -2842,13 +2933,13 @@
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
@@ -2857,13 +2948,13 @@
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1">
       <c r="A21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="C21" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
@@ -2872,13 +2963,13 @@
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1">
       <c r="A22" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
@@ -2887,13 +2978,13 @@
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1">
       <c r="A23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
@@ -2902,13 +2993,13 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1">
       <c r="A24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
@@ -2917,13 +3008,13 @@
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
@@ -2932,13 +3023,13 @@
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
       <c r="A26" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
@@ -2947,13 +3038,13 @@
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1">
       <c r="A27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="29"/>
@@ -2962,13 +3053,13 @@
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1">
       <c r="A28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
@@ -2977,13 +3068,13 @@
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2992,13 +3083,13 @@
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
       <c r="A30" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
@@ -3007,13 +3098,13 @@
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1">
       <c r="A31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
@@ -3022,13 +3113,13 @@
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1">
       <c r="A32" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
@@ -3037,13 +3128,13 @@
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1">
       <c r="A33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
@@ -3052,13 +3143,13 @@
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1">
       <c r="A34" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3067,13 +3158,13 @@
     </row>
     <row r="35" spans="1:7" s="3" customFormat="1">
       <c r="A35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
@@ -3082,13 +3173,13 @@
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1">
       <c r="A36" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="29"/>
@@ -3097,13 +3188,13 @@
     </row>
     <row r="37" spans="1:7" s="3" customFormat="1">
       <c r="A37" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="29"/>
@@ -3121,24 +3212,24 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="C39" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3148,16 +3239,16 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="15"/>
@@ -3165,16 +3256,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="15"/>
@@ -3182,16 +3273,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="15"/>
@@ -3199,16 +3290,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="15"/>
@@ -3216,16 +3307,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="15"/>
@@ -3233,16 +3324,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="15"/>
@@ -3250,16 +3341,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="15"/>
@@ -3267,16 +3358,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="15"/>
@@ -3284,16 +3375,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="15"/>
@@ -3301,16 +3392,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="15"/>
@@ -3327,1564 +3418,1564 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
     </row>
     <row r="58" spans="1:7" ht="31.5">
       <c r="A58" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
     </row>
     <row r="60" spans="1:7" ht="31.5">
       <c r="A60" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
     </row>
     <row r="63" spans="1:7" ht="31.5">
       <c r="A63" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
     </row>
     <row r="64" spans="1:7" ht="31.5">
       <c r="A64" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
     </row>
     <row r="79" spans="1:7" ht="31.5">
       <c r="A79" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
     </row>
     <row r="82" spans="1:7" ht="31.5">
       <c r="A82" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
     </row>
     <row r="85" spans="1:7" ht="31.5">
       <c r="A85" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D92" s="15"/>
       <c r="E92" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D94" s="15"/>
       <c r="E94" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D95" s="15"/>
       <c r="E95" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
     </row>
     <row r="96" spans="1:7" ht="31.5">
       <c r="A96" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
     </row>
     <row r="97" spans="1:7" ht="31.5">
       <c r="A97" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="15"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D101" s="15"/>
       <c r="E101" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D102" s="15"/>
       <c r="E102" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D103" s="15"/>
       <c r="E103" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
     </row>
     <row r="105" spans="1:7" ht="31.5">
       <c r="A105" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
     </row>
     <row r="107" spans="1:7" ht="31.5">
       <c r="A107" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
     </row>
     <row r="108" spans="1:7" ht="31.5">
       <c r="A108" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D108" s="15"/>
       <c r="E108" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
     </row>
     <row r="109" spans="1:7" ht="31.5">
       <c r="A109" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
     </row>
     <row r="111" spans="1:7" ht="31.5">
       <c r="A111" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D113" s="15"/>
       <c r="E113" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D114" s="15"/>
       <c r="E114" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="15"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D115" s="15"/>
       <c r="E115" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="15"/>
     </row>
     <row r="116" spans="1:7" ht="31.5">
       <c r="A116" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
     </row>
     <row r="117" spans="1:7" ht="31.5">
       <c r="A117" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="15"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D118" s="15"/>
       <c r="E118" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F118" s="15"/>
       <c r="G118" s="15"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="15"/>
     </row>
     <row r="120" spans="1:7" ht="31.5">
       <c r="A120" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D120" s="15"/>
       <c r="E120" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="15"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="15"/>
     </row>
     <row r="122" spans="1:7" ht="31.5">
       <c r="A122" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="15"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="15"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="15"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="15"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="15"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
     </row>
     <row r="128" spans="1:7" ht="31.5">
       <c r="A128" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="15"/>
     </row>
     <row r="130" spans="1:7" ht="31.5">
       <c r="A130" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="15"/>
     </row>
     <row r="131" spans="1:7" ht="31.5">
       <c r="A131" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
     </row>
     <row r="132" spans="1:7" ht="47.25">
       <c r="A132" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="15"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="15"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="15"/>
     </row>
     <row r="135" spans="1:7" ht="31.5">
       <c r="A135" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
     </row>
     <row r="136" spans="1:7" ht="31.5">
       <c r="A136" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="15"/>
     </row>
     <row r="137" spans="1:7" ht="31.5">
       <c r="A137" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="15"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
     </row>
     <row r="139" spans="1:7" ht="31.5">
       <c r="A139" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F140" s="15"/>
       <c r="G140" s="15"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="15"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="15"/>
     </row>
     <row r="144" spans="1:7" ht="31.5">
       <c r="A144" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F144" s="15"/>
       <c r="G144" s="15"/>
@@ -4900,5135 +4991,5135 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
       <c r="F146" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G146" s="15"/>
     </row>
     <row r="147" spans="1:7" ht="47.25">
       <c r="A147" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D147" s="15"/>
       <c r="E147" s="15"/>
       <c r="F147" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G147" s="15"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
       <c r="F148" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G148" s="15"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
       <c r="F149" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G149" s="15"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
       <c r="F150" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G150" s="15"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D151" s="15"/>
       <c r="E151" s="15"/>
       <c r="F151" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G151" s="15"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
       <c r="F152" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G152" s="15"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
       <c r="F153" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G153" s="15"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
       <c r="F154" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G154" s="15"/>
     </row>
     <row r="155" spans="1:7" ht="31.5">
       <c r="A155" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
       <c r="F155" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G155" s="15"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
       <c r="F156" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G156" s="15"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
       <c r="F157" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G157" s="15"/>
     </row>
     <row r="158" spans="1:7" ht="47.25">
       <c r="A158" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
       <c r="F158" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G158" s="15"/>
     </row>
     <row r="159" spans="1:7" ht="31.5">
       <c r="A159" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
       <c r="F159" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G159" s="15"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
       <c r="F160" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G160" s="15"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
       <c r="F161" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G161" s="15"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
       <c r="F162" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G162" s="15"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
       <c r="F163" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G163" s="15"/>
     </row>
     <row r="164" spans="1:7" ht="31.5">
       <c r="A164" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
       <c r="F164" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G164" s="15"/>
     </row>
     <row r="165" spans="1:7" ht="31.5">
       <c r="A165" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
       <c r="F165" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G165" s="15"/>
     </row>
     <row r="166" spans="1:7" ht="31.5">
       <c r="A166" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
       <c r="F166" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G166" s="15"/>
     </row>
     <row r="167" spans="1:7" ht="31.5">
       <c r="A167" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G167" s="15"/>
     </row>
     <row r="168" spans="1:7" ht="31.5">
       <c r="A168" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
       <c r="F168" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G168" s="15"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
       <c r="F169" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G169" s="15"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
       <c r="F170" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G170" s="15"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
       <c r="F171" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G171" s="15"/>
     </row>
     <row r="172" spans="1:7" ht="47.25">
       <c r="A172" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
       <c r="F172" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G172" s="15"/>
     </row>
     <row r="173" spans="1:7" ht="31.5">
       <c r="A173" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
       <c r="F173" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G173" s="15"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
       <c r="F174" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G174" s="15"/>
     </row>
     <row r="175" spans="1:7" ht="47.25">
       <c r="A175" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
       <c r="F175" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G175" s="15"/>
     </row>
     <row r="176" spans="1:7" ht="31.5">
       <c r="A176" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
       <c r="F176" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G176" s="15"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
       <c r="F177" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G177" s="15"/>
     </row>
     <row r="178" spans="1:7" ht="31.5">
       <c r="A178" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
       <c r="F178" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G178" s="15"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G179" s="15"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
       <c r="F180" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G180" s="15"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
       <c r="F181" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G181" s="15"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
       <c r="F182" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G182" s="15"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
       <c r="F183" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G183" s="15"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
       <c r="F184" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G184" s="15"/>
     </row>
     <row r="185" spans="1:7" ht="31.5">
       <c r="A185" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
       <c r="F185" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G185" s="15"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
       <c r="F186" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G186" s="15"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
       <c r="F187" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G187" s="15"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
       <c r="F188" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G188" s="15"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
       <c r="F189" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G189" s="15"/>
     </row>
     <row r="190" spans="1:7" ht="31.5">
       <c r="A190" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
       <c r="F190" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G190" s="15"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
       <c r="F191" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G191" s="15"/>
     </row>
     <row r="192" spans="1:7" ht="31.5">
       <c r="A192" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
       <c r="F192" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G192" s="15"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
       <c r="F193" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G193" s="15"/>
     </row>
     <row r="194" spans="1:7" ht="31.5">
       <c r="A194" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
       <c r="F194" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G194" s="15"/>
     </row>
     <row r="195" spans="1:7" ht="31.5">
       <c r="A195" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G195" s="15"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
       <c r="F196" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G196" s="15"/>
     </row>
     <row r="197" spans="1:7" ht="31.5">
       <c r="A197" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="F197" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G197" s="15"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="F198" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G198" s="15"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
       <c r="F199" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G199" s="15"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
       <c r="F200" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G200" s="15"/>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
       <c r="F201" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G201" s="15"/>
     </row>
     <row r="202" spans="1:7" ht="31.5">
       <c r="A202" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
       <c r="F202" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G202" s="15"/>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
       <c r="F203" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G203" s="15"/>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
       <c r="F204" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G204" s="15"/>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
       <c r="F205" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G205" s="15"/>
     </row>
     <row r="206" spans="1:7" ht="31.5">
       <c r="A206" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
       <c r="F206" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G206" s="15"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
       <c r="F207" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G207" s="15"/>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
       <c r="F208" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G208" s="15"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
       <c r="F209" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G209" s="15"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
       <c r="F210" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G210" s="15"/>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
       <c r="F211" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G211" s="15"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
       <c r="F212" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G212" s="15"/>
     </row>
     <row r="213" spans="1:7" ht="31.5">
       <c r="A213" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
       <c r="F213" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G213" s="15"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
       <c r="F214" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G214" s="15"/>
     </row>
     <row r="215" spans="1:7" ht="31.5">
       <c r="A215" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
       <c r="F215" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G215" s="15"/>
     </row>
     <row r="216" spans="1:7" ht="31.5">
       <c r="A216" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
       <c r="F216" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G216" s="15"/>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
       <c r="F217" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G217" s="15"/>
     </row>
     <row r="218" spans="1:7" ht="31.5">
       <c r="A218" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
       <c r="F218" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G218" s="15"/>
     </row>
     <row r="219" spans="1:7" ht="31.5">
       <c r="A219" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
       <c r="F219" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G219" s="15"/>
     </row>
     <row r="220" spans="1:7" ht="31.5">
       <c r="A220" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
       <c r="F220" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G220" s="15"/>
     </row>
     <row r="221" spans="1:7" ht="31.5">
       <c r="A221" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
       <c r="F221" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G221" s="15"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
       <c r="F222" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G222" s="15"/>
     </row>
     <row r="223" spans="1:7" ht="78.75">
       <c r="A223" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
       <c r="F223" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G223" s="15"/>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="15"/>
       <c r="F224" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G224" s="15"/>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
       <c r="F225" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G225" s="15"/>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
       <c r="F226" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G226" s="15"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="15"/>
       <c r="F227" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G227" s="15"/>
     </row>
     <row r="228" spans="1:7" ht="31.5">
       <c r="A228" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
       <c r="F228" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G228" s="15"/>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
       <c r="F229" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G229" s="15"/>
     </row>
     <row r="230" spans="1:7" ht="47.25">
       <c r="A230" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="15"/>
       <c r="F230" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G230" s="15"/>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D231" s="15"/>
       <c r="E231" s="15"/>
       <c r="F231" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G231" s="15"/>
     </row>
     <row r="232" spans="1:7" ht="31.5">
       <c r="A232" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D232" s="15"/>
       <c r="E232" s="15"/>
       <c r="F232" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G232" s="15"/>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D233" s="15"/>
       <c r="E233" s="15"/>
       <c r="F233" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G233" s="15"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D234" s="15"/>
       <c r="E234" s="15"/>
       <c r="F234" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G234" s="15"/>
     </row>
     <row r="235" spans="1:7" ht="31.5">
       <c r="A235" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D235" s="15"/>
       <c r="E235" s="15"/>
       <c r="F235" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G235" s="15"/>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
       <c r="F236" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G236" s="15"/>
     </row>
     <row r="237" spans="1:7" ht="31.5">
       <c r="A237" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D237" s="15"/>
       <c r="E237" s="15"/>
       <c r="F237" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G237" s="15"/>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D238" s="15"/>
       <c r="E238" s="15"/>
       <c r="F238" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G238" s="15"/>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D239" s="15"/>
       <c r="E239" s="15"/>
       <c r="F239" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G239" s="15"/>
     </row>
     <row r="240" spans="1:7" ht="47.25">
       <c r="A240" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D240" s="15"/>
       <c r="E240" s="15"/>
       <c r="F240" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G240" s="15"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D241" s="15"/>
       <c r="E241" s="15"/>
       <c r="F241" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G241" s="15"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D242" s="15"/>
       <c r="E242" s="15"/>
       <c r="F242" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G242" s="15"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D243" s="15"/>
       <c r="E243" s="15"/>
       <c r="F243" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G243" s="15"/>
     </row>
     <row r="244" spans="1:7" ht="47.25">
       <c r="A244" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D244" s="15"/>
       <c r="E244" s="15"/>
       <c r="F244" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G244" s="15"/>
     </row>
     <row r="245" spans="1:7" ht="31.5">
       <c r="A245" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D245" s="15"/>
       <c r="E245" s="15"/>
       <c r="F245" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G245" s="15"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D246" s="15"/>
       <c r="E246" s="15"/>
       <c r="F246" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G246" s="15"/>
     </row>
     <row r="247" spans="1:7" ht="31.5">
       <c r="A247" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C247" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D247" s="15"/>
       <c r="E247" s="15"/>
       <c r="F247" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G247" s="15"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D248" s="15"/>
       <c r="E248" s="15"/>
       <c r="F248" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G248" s="15"/>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C249" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D249" s="15"/>
       <c r="E249" s="15"/>
       <c r="F249" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G249" s="15"/>
     </row>
     <row r="250" spans="1:7" ht="31.5">
       <c r="A250" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D250" s="15"/>
       <c r="E250" s="15"/>
       <c r="F250" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G250" s="15"/>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C251" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D251" s="15"/>
       <c r="E251" s="15"/>
       <c r="F251" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G251" s="15"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D252" s="15"/>
       <c r="E252" s="15"/>
       <c r="F252" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G252" s="15"/>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D253" s="15"/>
       <c r="E253" s="15"/>
       <c r="F253" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G253" s="15"/>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D254" s="15"/>
       <c r="E254" s="15"/>
       <c r="F254" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G254" s="15"/>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
       <c r="F255" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G255" s="15"/>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D256" s="15"/>
       <c r="E256" s="15"/>
       <c r="F256" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G256" s="15"/>
     </row>
     <row r="257" spans="1:7" ht="31.5">
       <c r="A257" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D257" s="15"/>
       <c r="E257" s="15"/>
       <c r="F257" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G257" s="15"/>
     </row>
     <row r="258" spans="1:7" ht="31.5">
       <c r="A258" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D258" s="15"/>
       <c r="E258" s="15"/>
       <c r="F258" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G258" s="15"/>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D259" s="15"/>
       <c r="E259" s="15"/>
       <c r="F259" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G259" s="15"/>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D260" s="15"/>
       <c r="E260" s="15"/>
       <c r="F260" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G260" s="15"/>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D261" s="15"/>
       <c r="E261" s="15"/>
       <c r="F261" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G261" s="15"/>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C262" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D262" s="15"/>
       <c r="E262" s="15"/>
       <c r="F262" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G262" s="15"/>
     </row>
     <row r="263" spans="1:7" ht="31.5">
       <c r="A263" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D263" s="15"/>
       <c r="E263" s="15"/>
       <c r="F263" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G263" s="15"/>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D264" s="15"/>
       <c r="E264" s="15"/>
       <c r="F264" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G264" s="15"/>
     </row>
     <row r="265" spans="1:7" ht="31.5">
       <c r="A265" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D265" s="15"/>
       <c r="E265" s="15"/>
       <c r="F265" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G265" s="15"/>
     </row>
     <row r="266" spans="1:7" ht="31.5">
       <c r="A266" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D266" s="15"/>
       <c r="E266" s="15"/>
       <c r="F266" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G266" s="15"/>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
       <c r="F267" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G267" s="15"/>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D268" s="15"/>
       <c r="E268" s="15"/>
       <c r="F268" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G268" s="15"/>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
       <c r="F269" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G269" s="15"/>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C270" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D270" s="15"/>
       <c r="E270" s="15"/>
       <c r="F270" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G270" s="15"/>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C271" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D271" s="15"/>
       <c r="E271" s="15"/>
       <c r="F271" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G271" s="15"/>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C272" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="F272" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G272" s="15"/>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C273" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
       <c r="F273" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G273" s="15"/>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
       <c r="F274" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G274" s="15"/>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C275" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D275" s="15"/>
       <c r="E275" s="15"/>
       <c r="F275" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G275" s="15"/>
     </row>
     <row r="276" spans="1:7" ht="31.5">
       <c r="A276" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C276" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
       <c r="F276" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G276" s="15"/>
     </row>
     <row r="277" spans="1:7" ht="31.5">
       <c r="A277" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
       <c r="F277" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G277" s="15"/>
     </row>
     <row r="278" spans="1:7" ht="31.5">
       <c r="A278" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
       <c r="F278" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G278" s="15"/>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C279" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
       <c r="F279" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G279" s="15"/>
     </row>
     <row r="280" spans="1:7" ht="31.5">
       <c r="A280" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
       <c r="F280" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G280" s="15"/>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
       <c r="F281" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G281" s="15"/>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
       <c r="F282" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G282" s="15"/>
     </row>
     <row r="283" spans="1:7" ht="31.5">
       <c r="A283" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C283" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
       <c r="F283" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G283" s="15"/>
     </row>
     <row r="284" spans="1:7" ht="31.5">
       <c r="A284" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C284" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
       <c r="F284" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G284" s="15"/>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C285" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
       <c r="F285" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G285" s="15"/>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C286" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
       <c r="F286" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G286" s="15"/>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C287" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
       <c r="F287" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G287" s="15"/>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C288" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
       <c r="F288" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G288" s="15"/>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C289" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
       <c r="F289" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G289" s="15"/>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C290" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
       <c r="F290" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G290" s="15"/>
     </row>
     <row r="291" spans="1:7" ht="31.5">
       <c r="A291" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C291" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D291" s="15"/>
       <c r="E291" s="15"/>
       <c r="F291" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G291" s="15"/>
     </row>
     <row r="292" spans="1:7" ht="31.5">
       <c r="A292" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C292" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D292" s="15"/>
       <c r="E292" s="15"/>
       <c r="F292" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G292" s="15"/>
     </row>
     <row r="293" spans="1:7" ht="31.5">
       <c r="A293" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C293" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D293" s="15"/>
       <c r="E293" s="15"/>
       <c r="F293" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G293" s="15"/>
     </row>
     <row r="294" spans="1:7" ht="31.5">
       <c r="A294" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C294" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D294" s="15"/>
       <c r="E294" s="15"/>
       <c r="F294" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G294" s="15"/>
     </row>
     <row r="295" spans="1:7" ht="31.5">
       <c r="A295" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C295" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D295" s="15"/>
       <c r="E295" s="15"/>
       <c r="F295" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G295" s="15"/>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C296" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D296" s="15"/>
       <c r="E296" s="15"/>
       <c r="F296" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G296" s="15"/>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D297" s="15"/>
       <c r="E297" s="15"/>
       <c r="F297" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G297" s="15"/>
     </row>
     <row r="298" spans="1:7" ht="31.5">
       <c r="A298" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D298" s="15"/>
       <c r="E298" s="15"/>
       <c r="F298" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G298" s="15"/>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C299" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D299" s="15"/>
       <c r="E299" s="15"/>
       <c r="F299" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G299" s="15"/>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D300" s="15"/>
       <c r="E300" s="15"/>
       <c r="F300" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G300" s="15"/>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D301" s="15"/>
       <c r="E301" s="15"/>
       <c r="F301" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G301" s="15"/>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D302" s="15"/>
       <c r="E302" s="15"/>
       <c r="F302" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G302" s="15"/>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D303" s="15"/>
       <c r="E303" s="15"/>
       <c r="F303" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G303" s="15"/>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D304" s="15"/>
       <c r="E304" s="15"/>
       <c r="F304" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G304" s="15"/>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D305" s="15"/>
       <c r="E305" s="15"/>
       <c r="F305" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G305" s="15"/>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C306" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D306" s="15"/>
       <c r="E306" s="15"/>
       <c r="F306" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G306" s="15"/>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C307" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D307" s="15"/>
       <c r="E307" s="15"/>
       <c r="F307" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G307" s="15"/>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D308" s="15"/>
       <c r="E308" s="15"/>
       <c r="F308" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G308" s="15"/>
     </row>
     <row r="309" spans="1:7" ht="31.5">
       <c r="A309" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D309" s="15"/>
       <c r="E309" s="15"/>
       <c r="F309" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G309" s="15"/>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D310" s="15"/>
       <c r="E310" s="15"/>
       <c r="F310" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G310" s="15"/>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D311" s="15"/>
       <c r="E311" s="15"/>
       <c r="F311" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G311" s="15"/>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D312" s="15"/>
       <c r="E312" s="15"/>
       <c r="F312" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G312" s="15"/>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D313" s="15"/>
       <c r="E313" s="15"/>
       <c r="F313" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G313" s="15"/>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D314" s="15"/>
       <c r="E314" s="15"/>
       <c r="F314" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G314" s="15"/>
     </row>
     <row r="315" spans="1:7" ht="31.5">
       <c r="A315" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D315" s="15"/>
       <c r="E315" s="15"/>
       <c r="F315" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G315" s="15"/>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D316" s="15"/>
       <c r="E316" s="15"/>
       <c r="F316" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G316" s="15"/>
     </row>
     <row r="317" spans="1:7" ht="31.5">
       <c r="A317" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D317" s="15"/>
       <c r="E317" s="15"/>
       <c r="F317" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G317" s="15"/>
     </row>
     <row r="318" spans="1:7" ht="31.5">
       <c r="A318" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D318" s="15"/>
       <c r="E318" s="15"/>
       <c r="F318" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G318" s="15"/>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D319" s="15"/>
       <c r="E319" s="15"/>
       <c r="F319" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G319" s="15"/>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D320" s="15"/>
       <c r="E320" s="15"/>
       <c r="F320" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G320" s="15"/>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D321" s="15"/>
       <c r="E321" s="15"/>
       <c r="F321" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G321" s="15"/>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D322" s="15"/>
       <c r="E322" s="15"/>
       <c r="F322" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G322" s="15"/>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D323" s="15"/>
       <c r="E323" s="15"/>
       <c r="F323" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G323" s="15"/>
     </row>
     <row r="324" spans="1:7" ht="31.5">
       <c r="A324" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D324" s="15"/>
       <c r="E324" s="15"/>
       <c r="F324" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G324" s="15"/>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D325" s="15"/>
       <c r="E325" s="15"/>
       <c r="F325" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G325" s="15"/>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C326" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D326" s="15"/>
       <c r="E326" s="15"/>
       <c r="F326" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G326" s="15"/>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C327" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D327" s="15"/>
       <c r="E327" s="15"/>
       <c r="F327" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G327" s="15"/>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C328" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D328" s="15"/>
       <c r="E328" s="15"/>
       <c r="F328" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G328" s="15"/>
     </row>
     <row r="329" spans="1:7" ht="31.5">
       <c r="A329" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B329" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C329" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D329" s="15"/>
       <c r="E329" s="15"/>
       <c r="F329" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G329" s="15"/>
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C330" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D330" s="15"/>
       <c r="E330" s="15"/>
       <c r="F330" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G330" s="15"/>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D331" s="15"/>
       <c r="E331" s="15"/>
       <c r="F331" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G331" s="15"/>
     </row>
     <row r="332" spans="1:7" ht="31.5">
       <c r="A332" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C332" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D332" s="15"/>
       <c r="E332" s="15"/>
       <c r="F332" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G332" s="15"/>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D333" s="15"/>
       <c r="E333" s="15"/>
       <c r="F333" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G333" s="15"/>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D334" s="15"/>
       <c r="E334" s="15"/>
       <c r="F334" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G334" s="15"/>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D335" s="15"/>
       <c r="E335" s="15"/>
       <c r="F335" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G335" s="15"/>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D336" s="15"/>
       <c r="E336" s="15"/>
       <c r="F336" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G336" s="15"/>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C337" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D337" s="15"/>
       <c r="E337" s="15"/>
       <c r="F337" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G337" s="15"/>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D338" s="15"/>
       <c r="E338" s="15"/>
       <c r="F338" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G338" s="15"/>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C339" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D339" s="15"/>
       <c r="E339" s="15"/>
       <c r="F339" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G339" s="15"/>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D340" s="15"/>
       <c r="E340" s="15"/>
       <c r="F340" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G340" s="15"/>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C341" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D341" s="15"/>
       <c r="E341" s="15"/>
       <c r="F341" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G341" s="15"/>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C342" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D342" s="15"/>
       <c r="E342" s="15"/>
       <c r="F342" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G342" s="15"/>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C343" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D343" s="15"/>
       <c r="E343" s="15"/>
       <c r="F343" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G343" s="15"/>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D344" s="15"/>
       <c r="E344" s="15"/>
       <c r="F344" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G344" s="15"/>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C345" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D345" s="15"/>
       <c r="E345" s="15"/>
       <c r="F345" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G345" s="15"/>
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D346" s="15"/>
       <c r="E346" s="15"/>
       <c r="F346" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G346" s="15"/>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C347" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D347" s="15"/>
       <c r="E347" s="15"/>
       <c r="F347" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G347" s="15"/>
     </row>
     <row r="348" spans="1:7" ht="31.5">
       <c r="A348" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C348" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D348" s="15"/>
       <c r="E348" s="15"/>
       <c r="F348" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G348" s="15"/>
     </row>
     <row r="349" spans="1:7" ht="31.5">
       <c r="A349" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C349" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D349" s="15"/>
       <c r="E349" s="15"/>
       <c r="F349" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G349" s="15"/>
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C350" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D350" s="15"/>
       <c r="E350" s="15"/>
       <c r="F350" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G350" s="15"/>
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C351" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D351" s="15"/>
       <c r="E351" s="15"/>
       <c r="F351" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G351" s="15"/>
     </row>
     <row r="352" spans="1:7">
       <c r="A352" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C352" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D352" s="15"/>
       <c r="E352" s="15"/>
       <c r="F352" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G352" s="15"/>
     </row>
     <row r="353" spans="1:7">
       <c r="A353" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C353" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D353" s="15"/>
       <c r="E353" s="15"/>
       <c r="F353" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G353" s="15"/>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C354" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D354" s="15"/>
       <c r="E354" s="15"/>
       <c r="F354" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G354" s="15"/>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C355" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D355" s="15"/>
       <c r="E355" s="15"/>
       <c r="F355" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G355" s="15"/>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C356" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D356" s="15"/>
       <c r="E356" s="15"/>
       <c r="F356" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G356" s="15"/>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C357" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D357" s="15"/>
       <c r="E357" s="15"/>
       <c r="F357" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G357" s="15"/>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C358" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D358" s="15"/>
       <c r="E358" s="15"/>
       <c r="F358" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G358" s="15"/>
     </row>
     <row r="359" spans="1:7" ht="31.5">
       <c r="A359" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C359" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D359" s="15"/>
       <c r="E359" s="15"/>
       <c r="F359" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G359" s="15"/>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C360" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D360" s="15"/>
       <c r="E360" s="15"/>
       <c r="F360" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G360" s="15"/>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C361" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D361" s="15"/>
       <c r="E361" s="15"/>
       <c r="F361" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G361" s="15"/>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C362" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D362" s="15"/>
       <c r="E362" s="15"/>
       <c r="F362" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G362" s="15"/>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C363" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D363" s="15"/>
       <c r="E363" s="15"/>
       <c r="F363" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G363" s="15"/>
     </row>
     <row r="364" spans="1:7">
       <c r="A364" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C364" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D364" s="15"/>
       <c r="E364" s="15"/>
       <c r="F364" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G364" s="15"/>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C365" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D365" s="15"/>
       <c r="E365" s="15"/>
       <c r="F365" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G365" s="15"/>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C366" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D366" s="15"/>
       <c r="E366" s="15"/>
       <c r="F366" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G366" s="15"/>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C367" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D367" s="15"/>
       <c r="E367" s="15"/>
       <c r="F367" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G367" s="15"/>
     </row>
     <row r="368" spans="1:7" ht="47.25">
       <c r="A368" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C368" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D368" s="15"/>
       <c r="E368" s="15"/>
       <c r="F368" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G368" s="15"/>
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C369" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D369" s="15"/>
       <c r="E369" s="15"/>
       <c r="F369" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G369" s="15"/>
     </row>
     <row r="370" spans="1:7">
       <c r="A370" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C370" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D370" s="15"/>
       <c r="E370" s="15"/>
       <c r="F370" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G370" s="15"/>
     </row>
     <row r="371" spans="1:7">
       <c r="A371" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C371" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D371" s="15"/>
       <c r="E371" s="15"/>
       <c r="F371" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G371" s="15"/>
     </row>
     <row r="372" spans="1:7" ht="31.5">
       <c r="A372" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D372" s="15"/>
       <c r="E372" s="15"/>
       <c r="F372" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G372" s="15"/>
     </row>
     <row r="373" spans="1:7">
       <c r="A373" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D373" s="15"/>
       <c r="E373" s="15"/>
       <c r="F373" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G373" s="15"/>
     </row>
     <row r="374" spans="1:7">
       <c r="A374" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C374" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D374" s="15"/>
       <c r="E374" s="15"/>
       <c r="F374" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G374" s="15"/>
     </row>
     <row r="375" spans="1:7">
       <c r="A375" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C375" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D375" s="15"/>
       <c r="E375" s="15"/>
       <c r="F375" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G375" s="15"/>
     </row>
     <row r="376" spans="1:7">
       <c r="A376" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C376" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D376" s="15"/>
       <c r="E376" s="15"/>
       <c r="F376" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G376" s="15"/>
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C377" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D377" s="15"/>
       <c r="E377" s="15"/>
       <c r="F377" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G377" s="15"/>
     </row>
     <row r="378" spans="1:7" ht="31.5">
       <c r="A378" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C378" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D378" s="15"/>
       <c r="E378" s="15"/>
       <c r="F378" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G378" s="15"/>
     </row>
     <row r="379" spans="1:7">
       <c r="A379" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C379" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D379" s="15"/>
       <c r="E379" s="15"/>
       <c r="F379" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G379" s="15"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C380" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D380" s="15"/>
       <c r="E380" s="15"/>
       <c r="F380" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G380" s="15"/>
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C381" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D381" s="15"/>
       <c r="E381" s="15"/>
       <c r="F381" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G381" s="15"/>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C382" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D382" s="15"/>
       <c r="E382" s="15"/>
       <c r="F382" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G382" s="15"/>
     </row>
     <row r="383" spans="1:7" ht="31.5">
       <c r="A383" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C383" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D383" s="15"/>
       <c r="E383" s="15"/>
       <c r="F383" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G383" s="15"/>
     </row>
     <row r="384" spans="1:7" ht="31.5">
       <c r="A384" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C384" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D384" s="15"/>
       <c r="E384" s="15"/>
       <c r="F384" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G384" s="15"/>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C385" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D385" s="15"/>
       <c r="E385" s="15"/>
       <c r="F385" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G385" s="15"/>
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C386" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D386" s="15"/>
       <c r="E386" s="15"/>
       <c r="F386" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G386" s="15"/>
     </row>
     <row r="387" spans="1:7" ht="31.5">
       <c r="A387" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C387" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D387" s="15"/>
       <c r="E387" s="15"/>
       <c r="F387" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G387" s="15"/>
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C388" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D388" s="15"/>
       <c r="E388" s="15"/>
       <c r="F388" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G388" s="15"/>
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C389" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D389" s="15"/>
       <c r="E389" s="15"/>
       <c r="F389" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G389" s="15"/>
     </row>
     <row r="390" spans="1:7">
       <c r="A390" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C390" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D390" s="15"/>
       <c r="E390" s="15"/>
       <c r="F390" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G390" s="15"/>
     </row>
     <row r="391" spans="1:7">
       <c r="A391" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C391" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D391" s="15"/>
       <c r="E391" s="15"/>
       <c r="F391" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G391" s="15"/>
     </row>
     <row r="392" spans="1:7" ht="31.5">
       <c r="A392" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C392" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D392" s="15"/>
       <c r="E392" s="15"/>
       <c r="F392" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G392" s="15"/>
     </row>
     <row r="393" spans="1:7" ht="31.5">
       <c r="A393" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C393" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D393" s="15"/>
       <c r="E393" s="15"/>
       <c r="F393" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G393" s="15"/>
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C394" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D394" s="15"/>
       <c r="E394" s="15"/>
       <c r="F394" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G394" s="15"/>
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C395" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D395" s="15"/>
       <c r="E395" s="15"/>
       <c r="F395" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G395" s="15"/>
     </row>
     <row r="396" spans="1:7" ht="31.5">
       <c r="A396" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C396" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D396" s="15"/>
       <c r="E396" s="15"/>
       <c r="F396" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G396" s="15"/>
     </row>
     <row r="397" spans="1:7">
       <c r="A397" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C397" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D397" s="15"/>
       <c r="E397" s="15"/>
       <c r="F397" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G397" s="15"/>
     </row>
     <row r="398" spans="1:7" ht="31.5">
       <c r="A398" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C398" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D398" s="15"/>
       <c r="E398" s="15"/>
       <c r="F398" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G398" s="15"/>
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C399" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D399" s="15"/>
       <c r="E399" s="15"/>
       <c r="F399" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G399" s="15"/>
     </row>
     <row r="400" spans="1:7">
       <c r="A400" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D400" s="15"/>
       <c r="E400" s="15"/>
       <c r="F400" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G400" s="15"/>
     </row>
     <row r="401" spans="1:7">
       <c r="A401" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B401" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C401" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D401" s="15"/>
       <c r="E401" s="15"/>
       <c r="F401" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G401" s="15"/>
     </row>
     <row r="402" spans="1:7" ht="31.5">
       <c r="A402" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C402" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D402" s="15"/>
       <c r="E402" s="15"/>
       <c r="F402" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G402" s="15"/>
     </row>
     <row r="403" spans="1:7" ht="31.5">
       <c r="A403" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C403" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D403" s="15"/>
       <c r="E403" s="15"/>
       <c r="F403" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G403" s="15"/>
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C404" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D404" s="15"/>
       <c r="E404" s="15"/>
       <c r="F404" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G404" s="15"/>
     </row>
     <row r="405" spans="1:7">
       <c r="A405" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C405" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D405" s="15"/>
       <c r="E405" s="15"/>
       <c r="F405" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G405" s="15"/>
     </row>
     <row r="406" spans="1:7">
       <c r="A406" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C406" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D406" s="15"/>
       <c r="E406" s="15"/>
       <c r="F406" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G406" s="15"/>
     </row>
     <row r="407" spans="1:7" ht="31.5">
       <c r="A407" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C407" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D407" s="15"/>
       <c r="E407" s="15"/>
       <c r="F407" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G407" s="15"/>
     </row>
     <row r="408" spans="1:7">
       <c r="A408" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C408" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D408" s="15"/>
       <c r="E408" s="15"/>
       <c r="F408" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G408" s="15"/>
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C409" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D409" s="15"/>
       <c r="E409" s="15"/>
       <c r="F409" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G409" s="15"/>
     </row>
     <row r="410" spans="1:7">
       <c r="A410" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C410" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D410" s="15"/>
       <c r="E410" s="15"/>
       <c r="F410" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G410" s="15"/>
     </row>
     <row r="411" spans="1:7">
       <c r="A411" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C411" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D411" s="15"/>
       <c r="E411" s="15"/>
       <c r="F411" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G411" s="15"/>
     </row>
     <row r="412" spans="1:7" ht="31.5">
       <c r="A412" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C412" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D412" s="15"/>
       <c r="E412" s="15"/>
       <c r="F412" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G412" s="15"/>
     </row>
     <row r="413" spans="1:7" ht="47.25">
       <c r="A413" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C413" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D413" s="15"/>
       <c r="E413" s="15"/>
       <c r="F413" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G413" s="15"/>
     </row>
     <row r="414" spans="1:7">
       <c r="A414" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C414" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D414" s="15"/>
       <c r="E414" s="15"/>
       <c r="F414" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G414" s="15"/>
     </row>
     <row r="415" spans="1:7">
       <c r="A415" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C415" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D415" s="15"/>
       <c r="E415" s="15"/>
       <c r="F415" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G415" s="15"/>
     </row>
     <row r="416" spans="1:7">
       <c r="A416" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C416" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D416" s="15"/>
       <c r="E416" s="15"/>
       <c r="F416" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G416" s="15"/>
     </row>
     <row r="417" spans="1:7" ht="47.25">
       <c r="A417" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D417" s="15"/>
       <c r="E417" s="15"/>
       <c r="F417" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G417" s="15"/>
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D418" s="15"/>
       <c r="E418" s="15"/>
       <c r="F418" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G418" s="15"/>
     </row>
     <row r="419" spans="1:7" ht="31.5">
       <c r="A419" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D419" s="15"/>
       <c r="E419" s="15"/>
       <c r="F419" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G419" s="15"/>
     </row>
     <row r="420" spans="1:7" ht="31.5">
       <c r="A420" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D420" s="15"/>
       <c r="E420" s="15"/>
       <c r="F420" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G420" s="15"/>
     </row>
     <row r="421" spans="1:7">
       <c r="A421" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C421" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D421" s="15"/>
       <c r="E421" s="15"/>
       <c r="F421" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G421" s="15"/>
     </row>
     <row r="422" spans="1:7" ht="31.5">
       <c r="A422" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C422" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D422" s="15"/>
       <c r="E422" s="15"/>
       <c r="F422" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G422" s="15"/>
     </row>
     <row r="423" spans="1:7">
       <c r="A423" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D423" s="15"/>
       <c r="E423" s="15"/>
       <c r="F423" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G423" s="15"/>
     </row>
     <row r="424" spans="1:7">
       <c r="A424" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C424" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D424" s="15"/>
       <c r="E424" s="15"/>
       <c r="F424" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G424" s="15"/>
     </row>
     <row r="425" spans="1:7">
       <c r="A425" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C425" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D425" s="15"/>
       <c r="E425" s="15"/>
       <c r="F425" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G425" s="15"/>
     </row>
     <row r="426" spans="1:7">
       <c r="A426" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C426" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D426" s="15"/>
       <c r="E426" s="15"/>
       <c r="F426" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G426" s="15"/>
     </row>
     <row r="427" spans="1:7" ht="31.5">
       <c r="A427" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C427" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D427" s="15"/>
       <c r="E427" s="15"/>
       <c r="F427" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G427" s="15"/>
     </row>
     <row r="428" spans="1:7" ht="31.5">
       <c r="A428" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D428" s="15"/>
       <c r="E428" s="15"/>
       <c r="F428" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G428" s="15"/>
     </row>
     <row r="429" spans="1:7">
       <c r="A429" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D429" s="15"/>
       <c r="E429" s="15"/>
       <c r="F429" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G429" s="15"/>
     </row>
     <row r="430" spans="1:7" ht="47.25">
       <c r="A430" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D430" s="15"/>
       <c r="E430" s="15"/>
       <c r="F430" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G430" s="15"/>
     </row>
     <row r="431" spans="1:7" ht="47.25">
       <c r="A431" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C431" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D431" s="15"/>
       <c r="E431" s="15"/>
       <c r="F431" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G431" s="15"/>
     </row>
     <row r="432" spans="1:7">
       <c r="A432" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C432" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D432" s="15"/>
       <c r="E432" s="15"/>
       <c r="F432" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G432" s="15"/>
     </row>
     <row r="433" spans="1:7">
       <c r="A433" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C433" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D433" s="15"/>
       <c r="E433" s="15"/>
       <c r="F433" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G433" s="15"/>
     </row>
     <row r="434" spans="1:7">
       <c r="A434" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C434" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D434" s="15"/>
       <c r="E434" s="15"/>
       <c r="F434" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G434" s="15"/>
     </row>
     <row r="435" spans="1:7" ht="31.5">
       <c r="A435" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C435" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D435" s="15"/>
       <c r="E435" s="15"/>
       <c r="F435" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G435" s="15"/>
     </row>
     <row r="436" spans="1:7">
       <c r="A436" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C436" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D436" s="15"/>
       <c r="E436" s="15"/>
       <c r="F436" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G436" s="15"/>
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B437" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C437" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D437" s="15"/>
       <c r="E437" s="15"/>
       <c r="F437" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G437" s="15"/>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B438" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C438" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D438" s="15"/>
       <c r="E438" s="15"/>
       <c r="F438" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G438" s="15"/>
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C439" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D439" s="15"/>
       <c r="E439" s="15"/>
       <c r="F439" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G439" s="15"/>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C440" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D440" s="15"/>
       <c r="E440" s="15"/>
       <c r="F440" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G440" s="15"/>
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C441" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D441" s="15"/>
       <c r="E441" s="15"/>
       <c r="F441" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G441" s="15"/>
     </row>
     <row r="442" spans="1:7" ht="31.5">
       <c r="A442" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C442" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D442" s="15"/>
       <c r="E442" s="15"/>
       <c r="F442" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G442" s="15"/>
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C443" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D443" s="15"/>
       <c r="E443" s="15"/>
       <c r="F443" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G443" s="15"/>
     </row>
     <row r="444" spans="1:7">
       <c r="A444" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C444" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D444" s="15"/>
       <c r="E444" s="15"/>
       <c r="F444" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G444" s="15"/>
     </row>
     <row r="445" spans="1:7">
       <c r="A445" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C445" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D445" s="15"/>
       <c r="E445" s="15"/>
       <c r="F445" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G445" s="15"/>
     </row>
     <row r="446" spans="1:7" ht="31.5">
       <c r="A446" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C446" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D446" s="15"/>
       <c r="E446" s="15"/>
       <c r="F446" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G446" s="15"/>
     </row>
     <row r="447" spans="1:7" ht="31.5">
       <c r="A447" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C447" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D447" s="15"/>
       <c r="E447" s="15"/>
       <c r="F447" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G447" s="15"/>
     </row>
@@ -10055,7 +10146,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -10067,24 +10158,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC63449-F34F-46C0-ACB5-5E5583155073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989C2404-55AB-40C5-B881-6FB35407428E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="499">
   <si>
     <t>type</t>
   </si>
@@ -2171,10 +2171,10 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2412,9 +2412,7 @@
       <c r="J9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="54" t="s">
-        <v>45</v>
-      </c>
+      <c r="K9" s="54"/>
       <c r="L9" s="54"/>
       <c r="M9" s="41" t="s">
         <v>14</v>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989C2404-55AB-40C5-B881-6FB35407428E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9E469E-85D9-4F2D-B3F4-3DCE66AC53F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="495">
   <si>
     <t>type</t>
   </si>
@@ -1526,21 +1526,6 @@
     <t>round( 10 * ${u_sh_egg} div ${u_urine_vol} )</t>
   </si>
   <si>
-    <t>(2023 Sept) - 4. SCH/STH - Urine Filtration V2.2</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_4_urine_filtration_v2_2</t>
-  </si>
-  <si>
-    <t>u_urine_conserve</t>
-  </si>
-  <si>
-    <t>Urine conservé pour cette enfant</t>
-  </si>
-  <si>
-    <t>${u_urine_conserve} = 'Oui'</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -1553,7 +1538,10 @@
     <t>L'urine de l'enfant n'a pas été consevé. Vous ne pouvez pas enregistré ces résultats.</t>
   </si>
   <si>
-    <t>${u_urine_conserve} = 'Non'</t>
+    <t>(2023 Sept) - 4. SCH/STH - Urine Filtration V2.3</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_4_urine_filtration_v2_3</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1876,15 +1864,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2168,13 +2147,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2393,167 +2372,150 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:13" s="41" customFormat="1">
-      <c r="A9" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>491</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>492</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
+    <row r="9" spans="1:13" s="42" customFormat="1" ht="31.5">
+      <c r="A9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="42" customFormat="1" ht="31.5">
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="1:13" s="24" customFormat="1">
       <c r="A10" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>24</v>
+        <v>484</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>25</v>
+        <v>486</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="30" t="s">
+      <c r="E10" s="43"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-    </row>
-    <row r="11" spans="1:13" s="24" customFormat="1" ht="31.5">
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+    </row>
+    <row r="11" spans="1:13" s="24" customFormat="1">
       <c r="A11" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="43"/>
       <c r="F11" s="31"/>
       <c r="G11" s="44"/>
-      <c r="H11" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="31" t="s">
-        <v>14</v>
-      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="J11" s="31"/>
       <c r="K11" s="43"/>
       <c r="L11" s="43"/>
-    </row>
-    <row r="12" spans="1:13" s="24" customFormat="1" ht="31.5">
+      <c r="M11" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="24" customFormat="1">
       <c r="A12" s="31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="43"/>
       <c r="F12" s="31"/>
       <c r="G12" s="44"/>
-      <c r="H12" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>488</v>
-      </c>
-      <c r="J12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="K12" s="43"/>
       <c r="L12" s="43"/>
-      <c r="M12" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="24" customFormat="1" ht="31.5">
-      <c r="A13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-    </row>
-    <row r="14" spans="1:13" s="41" customFormat="1" ht="31.5">
-      <c r="A14" s="39" t="s">
-        <v>494</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>495</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>497</v>
-      </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="31" t="s">
-        <v>498</v>
-      </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+    </row>
+    <row r="13" spans="1:13" s="41" customFormat="1" ht="31.5">
+      <c r="A13" s="39" t="s">
+        <v>489</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>490</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:13" s="24" customFormat="1">
+      <c r="A14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" spans="1:13" s="24" customFormat="1">
       <c r="A15" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="43"/>
       <c r="F15" s="31"/>
       <c r="G15" s="44"/>
@@ -2565,10 +2527,10 @@
     </row>
     <row r="16" spans="1:13" s="24" customFormat="1">
       <c r="A16" s="31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="47"/>
@@ -2581,37 +2543,19 @@
       <c r="K16" s="43"/>
       <c r="L16" s="43"/>
     </row>
-    <row r="17" spans="1:12" s="24" customFormat="1">
-      <c r="A17" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>33</v>
-      </c>
+    <row r="17" spans="1:12">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="46"/>
       <c r="D17" s="47"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="44"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10144,13 +10088,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="44.125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="42.25" style="25" customWidth="1"/>
+    <col min="2" max="2" width="44.25" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="25"/>
   </cols>
   <sheetData>
@@ -10167,10 +10111,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>438</v>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9E469E-85D9-4F2D-B3F4-3DCE66AC53F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E50B70-A909-4AD1-9A09-B96BBD6DA829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="510">
   <si>
     <t>type</t>
   </si>
@@ -1451,12 +1451,6 @@
   </si>
   <si>
     <t>TCHAGBELE Wanikougnon</t>
-  </si>
-  <si>
-    <t>Sélectionner la région</t>
-  </si>
-  <si>
-    <t>u_region</t>
   </si>
   <si>
     <t>Veuillez scanner le QR Code à nouveau</t>
@@ -1538,10 +1532,61 @@
     <t>L'urine de l'enfant n'a pas été consevé. Vous ne pouvez pas enregistré ces résultats.</t>
   </si>
   <si>
-    <t>(2023 Sept) - 4. SCH/STH - Urine Filtration V2.3</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_4_urine_filtration_v2_3</t>
+    <t>(2023 Sept) - 4. SCH/STH - Urine Filtration V3</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_4_urine_filtration_v3</t>
+  </si>
+  <si>
+    <t>select_one yesNo</t>
+  </si>
+  <si>
+    <t>u_control</t>
+  </si>
+  <si>
+    <t>u_urine_vol_control</t>
+  </si>
+  <si>
+    <t>u_sh_egg_control</t>
+  </si>
+  <si>
+    <t>u_sh_egg_per_10ml_control</t>
+  </si>
+  <si>
+    <t>u_sch_man_control</t>
+  </si>
+  <si>
+    <t>Volume d’urine - Contrôle</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs (S. Haematobium) - Contrôle</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs (S. Haematobium) par 10 ml - Contrôle</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs (S. Mansoni) par 10 ml - Contrôle</t>
+  </si>
+  <si>
+    <t>round( 10 * ${u_sh_egg_control} div ${u_urine_vol_control} )</t>
+  </si>
+  <si>
+    <t>La lame est retenue pour le contrôle qualité</t>
+  </si>
+  <si>
+    <t>u_barcodeid3</t>
+  </si>
+  <si>
+    <t>u_urine_conserve</t>
+  </si>
+  <si>
+    <t>L'urine de l'enfant avait-il était concervé</t>
+  </si>
+  <si>
+    <t>${u_urine_conserve} = 'Oui'</t>
+  </si>
+  <si>
+    <t>${u_control} = 'Oui' and ${u_urine_conserve} = 'Oui'</t>
   </si>
 </sst>
 </file>
@@ -2147,13 +2192,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9:H13"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2211,12 +2256,12 @@
         <v>11</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="24" customFormat="1">
       <c r="A2" s="50" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>12</v>
@@ -2238,13 +2283,13 @@
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>473</v>
+        <v>16</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>472</v>
+        <v>17</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="30"/>
@@ -2263,14 +2308,14 @@
         <v>15</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>17</v>
+        <v>475</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="35"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="32"/>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
@@ -2278,17 +2323,17 @@
         <v>14</v>
       </c>
       <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="1:13" s="36" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>439</v>
+      <c r="B5" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>477</v>
+        <v>19</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="30"/>
@@ -2302,42 +2347,46 @@
       <c r="K5" s="30"/>
       <c r="L5" s="37"/>
     </row>
-    <row r="6" spans="1:13" s="36" customFormat="1">
-      <c r="A6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="30"/>
+    <row r="6" spans="1:13" s="41" customFormat="1">
+      <c r="A6" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="32"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="37"/>
-    </row>
-    <row r="7" spans="1:13" s="41" customFormat="1">
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:13" s="41" customFormat="1" ht="31.5">
       <c r="A7" s="39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>21</v>
+        <v>473</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="40"/>
+      <c r="F7" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>477</v>
+      </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
       <c r="J7" s="30" t="s">
@@ -2346,31 +2395,27 @@
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="1:13" s="41" customFormat="1" ht="31.5">
-      <c r="A8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>475</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>474</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+    <row r="8" spans="1:13" s="42" customFormat="1">
+      <c r="A8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="1:13" s="42" customFormat="1" ht="31.5">
       <c r="A9" s="31" t="s">
@@ -2390,7 +2435,9 @@
       <c r="G9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="31" t="s">
+        <v>508</v>
+      </c>
       <c r="I9" s="31"/>
       <c r="J9" s="30" t="s">
         <v>14</v>
@@ -2398,21 +2445,23 @@
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="1:13" s="24" customFormat="1">
+    <row r="10" spans="1:13" s="24" customFormat="1" ht="31.5">
       <c r="A10" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>484</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>486</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="43"/>
       <c r="F10" s="31"/>
       <c r="G10" s="44"/>
-      <c r="H10" s="31"/>
+      <c r="H10" s="31" t="s">
+        <v>508</v>
+      </c>
       <c r="I10" s="43"/>
       <c r="J10" s="31" t="s">
         <v>14</v>
@@ -2420,23 +2469,25 @@
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
     </row>
-    <row r="11" spans="1:13" s="24" customFormat="1">
+    <row r="11" spans="1:13" s="24" customFormat="1" ht="31.5">
       <c r="A11" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="43"/>
       <c r="F11" s="31"/>
       <c r="G11" s="44"/>
-      <c r="H11" s="31"/>
+      <c r="H11" s="31" t="s">
+        <v>508</v>
+      </c>
       <c r="I11" s="43" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J11" s="31"/>
       <c r="K11" s="43"/>
@@ -2445,21 +2496,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="24" customFormat="1">
+    <row r="12" spans="1:13" s="24" customFormat="1" ht="31.5">
       <c r="A12" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="43"/>
       <c r="F12" s="31"/>
       <c r="G12" s="44"/>
-      <c r="H12" s="31"/>
+      <c r="H12" s="31" t="s">
+        <v>508</v>
+      </c>
       <c r="I12" s="43"/>
       <c r="J12" s="31" t="s">
         <v>14</v>
@@ -2467,95 +2520,248 @@
       <c r="K12" s="43"/>
       <c r="L12" s="43"/>
     </row>
-    <row r="13" spans="1:13" s="41" customFormat="1" ht="31.5">
-      <c r="A13" s="39" t="s">
-        <v>489</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>490</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>492</v>
-      </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" s="24" customFormat="1">
-      <c r="A14" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-    </row>
-    <row r="15" spans="1:13" s="24" customFormat="1">
+    <row r="13" spans="1:13" s="24" customFormat="1">
+      <c r="A13" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="43" t="s">
+        <v>508</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+    </row>
+    <row r="14" spans="1:13" s="41" customFormat="1" ht="47.25">
+      <c r="A14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>505</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:13" s="42" customFormat="1" ht="47.25">
       <c r="A15" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-    </row>
-    <row r="16" spans="1:13" s="24" customFormat="1">
+        <v>23</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+    </row>
+    <row r="16" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A16" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
+        <v>23</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>500</v>
+      </c>
+      <c r="D16" s="33"/>
       <c r="E16" s="43"/>
       <c r="F16" s="31"/>
       <c r="G16" s="44"/>
-      <c r="H16" s="43"/>
+      <c r="H16" s="31" t="s">
+        <v>509</v>
+      </c>
       <c r="I16" s="43"/>
-      <c r="J16" s="31"/>
+      <c r="J16" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="K16" s="43"/>
       <c r="L16" s="43"/>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="48"/>
+    <row r="17" spans="1:13" s="24" customFormat="1" ht="47.25">
+      <c r="A17" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>503</v>
+      </c>
       <c r="J17" s="31"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="24" customFormat="1" ht="47.25">
+      <c r="A18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="J18" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+    </row>
+    <row r="19" spans="1:13" s="41" customFormat="1" ht="31.5">
+      <c r="A19" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>488</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:13" s="24" customFormat="1">
+      <c r="A20" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+    </row>
+    <row r="21" spans="1:13" s="24" customFormat="1">
+      <c r="A21" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+    </row>
+    <row r="22" spans="1:13" s="24" customFormat="1">
+      <c r="A22" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2968,10 +3174,10 @@
         <v>39</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
@@ -10111,10 +10317,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>438</v>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E50B70-A909-4AD1-9A09-B96BBD6DA829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF0CF7B-1355-44E6-A086-FEE71282D662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1529,9 +1529,6 @@
     <t>u_sch_man</t>
   </si>
   <si>
-    <t>L'urine de l'enfant n'a pas été consevé. Vous ne pouvez pas enregistré ces résultats.</t>
-  </si>
-  <si>
     <t>(2023 Sept) - 4. SCH/STH - Urine Filtration V3</t>
   </si>
   <si>
@@ -1587,6 +1584,9 @@
   </si>
   <si>
     <t>${u_control} = 'Oui' and ${u_urine_conserve} = 'Oui'</t>
+  </si>
+  <si>
+    <t>L'urine de l'enfant n'a pas été consevé. Vous ne pouvez pas enregistré ses résultats.</t>
   </si>
 </sst>
 </file>
@@ -2198,7 +2198,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2400,10 +2400,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>506</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>507</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="31"/>
@@ -2436,7 +2436,7 @@
         <v>27</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I9" s="31"/>
       <c r="J9" s="30" t="s">
@@ -2460,7 +2460,7 @@
       <c r="F10" s="31"/>
       <c r="G10" s="44"/>
       <c r="H10" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I10" s="43"/>
       <c r="J10" s="31" t="s">
@@ -2484,7 +2484,7 @@
       <c r="F11" s="31"/>
       <c r="G11" s="44"/>
       <c r="H11" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I11" s="43" t="s">
         <v>486</v>
@@ -2511,7 +2511,7 @@
       <c r="F12" s="31"/>
       <c r="G12" s="44"/>
       <c r="H12" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I12" s="43"/>
       <c r="J12" s="31" t="s">
@@ -2522,20 +2522,20 @@
     </row>
     <row r="13" spans="1:13" s="24" customFormat="1">
       <c r="A13" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B13" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>494</v>
-      </c>
       <c r="C13" s="46" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="43"/>
       <c r="F13" s="31"/>
       <c r="G13" s="44"/>
       <c r="H13" s="43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I13" s="43"/>
       <c r="J13" s="31"/>
@@ -2547,7 +2547,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>472</v>
@@ -2561,7 +2561,7 @@
         <v>477</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="30" t="s">
@@ -2575,10 +2575,10 @@
         <v>23</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="31"/>
@@ -2589,7 +2589,7 @@
         <v>27</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I15" s="31"/>
       <c r="J15" s="30" t="s">
@@ -2603,17 +2603,17 @@
         <v>23</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="43"/>
       <c r="F16" s="31"/>
       <c r="G16" s="44"/>
       <c r="H16" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I16" s="43"/>
       <c r="J16" s="31" t="s">
@@ -2627,20 +2627,20 @@
         <v>22</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="43"/>
       <c r="F17" s="31"/>
       <c r="G17" s="44"/>
       <c r="H17" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="43"/>
@@ -2654,17 +2654,17 @@
         <v>23</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="43"/>
       <c r="F18" s="31"/>
       <c r="G18" s="44"/>
       <c r="H18" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I18" s="43"/>
       <c r="J18" s="31" t="s">
@@ -2681,7 +2681,7 @@
         <v>488</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="39"/>
@@ -10317,10 +10317,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>491</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>492</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>438</v>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF0CF7B-1355-44E6-A086-FEE71282D662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBF6FEA-1940-4E16-9FB0-5C8F17723147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="514">
   <si>
     <t>type</t>
   </si>
@@ -160,12 +160,6 @@
     <t>HOUNYOVI Ayaovi</t>
   </si>
   <si>
-    <t>NOUSSOUGNON Kokou</t>
-  </si>
-  <si>
-    <t>SOH Atafembou</t>
-  </si>
-  <si>
     <t>yesNo</t>
   </si>
   <si>
@@ -1357,30 +1351,18 @@
     <t>u_usp</t>
   </si>
   <si>
-    <t>ABAYE Elom</t>
-  </si>
-  <si>
     <t>ABDOU-KERIM Agueregna</t>
   </si>
   <si>
-    <t>ADABRA Hélène</t>
-  </si>
-  <si>
     <t>ADJAGODO Gadiel</t>
   </si>
   <si>
-    <t>ADJENDA Eke</t>
-  </si>
-  <si>
     <t>AFANOU Kokou M</t>
   </si>
   <si>
     <t>AGBOZO Senyo</t>
   </si>
   <si>
-    <t>AKOBI  Komi</t>
-  </si>
-  <si>
     <t>AKUTSA Kafui</t>
   </si>
   <si>
@@ -1390,64 +1372,31 @@
     <t>BADJASSEM Gloria Diyane</t>
   </si>
   <si>
-    <t>BAKOLTINA Disrama Denise</t>
-  </si>
-  <si>
     <t>BATEBAWI Raphaël</t>
   </si>
   <si>
-    <t>DJAMAH Prosper</t>
-  </si>
-  <si>
-    <t>DJOBO Annissah</t>
-  </si>
-  <si>
     <t>DOUMONGUE Tibanguebé</t>
   </si>
   <si>
     <t>EKAHOHO Yaovi</t>
   </si>
   <si>
-    <t>GBOGBATSE Komi Mensa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNANLABA Pyabalo </t>
-  </si>
-  <si>
     <t>KOKAN Faïzat</t>
   </si>
   <si>
     <t>KUTOATI Abla</t>
   </si>
   <si>
-    <t xml:space="preserve">LOGO Kokou </t>
-  </si>
-  <si>
     <t>MONTANT Minyo Ega Sossa</t>
   </si>
   <si>
-    <t xml:space="preserve">NAKOME Bamouni </t>
-  </si>
-  <si>
-    <t>PORO Kpatcha Edjareguew</t>
-  </si>
-  <si>
     <t>SAGOA Djamsa</t>
   </si>
   <si>
-    <t>SEDJRO Afantolo</t>
-  </si>
-  <si>
-    <t>SINGO ATTAH</t>
-  </si>
-  <si>
     <t>SOLI Lontassam</t>
   </si>
   <si>
     <t>SOTOU Novinyo</t>
-  </si>
-  <si>
-    <t>TAGBA Atna Edi</t>
   </si>
   <si>
     <t>TCHAGBELE Wanikougnon</t>
@@ -1502,9 +1451,6 @@
     <t>select_one recorders</t>
   </si>
   <si>
-    <t>NDATO Kossi</t>
-  </si>
-  <si>
     <t>u_sh_egg</t>
   </si>
   <si>
@@ -1529,12 +1475,6 @@
     <t>u_sch_man</t>
   </si>
   <si>
-    <t>(2023 Sept) - 4. SCH/STH - Urine Filtration V3</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_4_urine_filtration_v3</t>
-  </si>
-  <si>
     <t>select_one yesNo</t>
   </si>
   <si>
@@ -1553,18 +1493,6 @@
     <t>u_sch_man_control</t>
   </si>
   <si>
-    <t>Volume d’urine - Contrôle</t>
-  </si>
-  <si>
-    <t>Nombre d'œufs (S. Haematobium) - Contrôle</t>
-  </si>
-  <si>
-    <t>Nombre d'œufs (S. Haematobium) par 10 ml - Contrôle</t>
-  </si>
-  <si>
-    <t>Nombre d'œufs (S. Mansoni) par 10 ml - Contrôle</t>
-  </si>
-  <si>
     <t>round( 10 * ${u_sh_egg_control} div ${u_urine_vol_control} )</t>
   </si>
   <si>
@@ -1577,9 +1505,6 @@
     <t>u_urine_conserve</t>
   </si>
   <si>
-    <t>L'urine de l'enfant avait-il était concervé</t>
-  </si>
-  <si>
     <t>${u_urine_conserve} = 'Oui'</t>
   </si>
   <si>
@@ -1587,6 +1512,93 @@
   </si>
   <si>
     <t>L'urine de l'enfant n'a pas été consevé. Vous ne pouvez pas enregistré ses résultats.</t>
+  </si>
+  <si>
+    <t>(2023 Sept) - 4. SCH/STH - Urine Filtration V4</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_4_urine_filtration_v4</t>
+  </si>
+  <si>
+    <t>ABAYE Kokou Mawulom</t>
+  </si>
+  <si>
+    <t>ADABRA Abra Hélène</t>
+  </si>
+  <si>
+    <t>ADJINDA Eké</t>
+  </si>
+  <si>
+    <t>AKOBI Komi</t>
+  </si>
+  <si>
+    <t>BAKOLITANA Disrama Denise</t>
+  </si>
+  <si>
+    <t>DJAMAH Yaovi Prosper</t>
+  </si>
+  <si>
+    <t>DJOBO Anissah</t>
+  </si>
+  <si>
+    <t>FONVI Akakpo</t>
+  </si>
+  <si>
+    <t>GBOGBATSE</t>
+  </si>
+  <si>
+    <t>GNANLABA Pyabalo</t>
+  </si>
+  <si>
+    <t>LACK Fiali,</t>
+  </si>
+  <si>
+    <t>LOGO Kokou Dodji</t>
+  </si>
+  <si>
+    <t>N’DATO Kossi</t>
+  </si>
+  <si>
+    <t>NAKOME Bamouni</t>
+  </si>
+  <si>
+    <t>NOUSSOUGNON Kokou S.</t>
+  </si>
+  <si>
+    <t>PORO Kpatcha Edjaréguéw</t>
+  </si>
+  <si>
+    <t>SEDJRO Afantolou</t>
+  </si>
+  <si>
+    <t>SINGO Kodjo ATTAH</t>
+  </si>
+  <si>
+    <t>SOH Aféyibou</t>
+  </si>
+  <si>
+    <t>TAGBA Atna-Edi M.</t>
+  </si>
+  <si>
+    <t>YAKPA Kossi</t>
+  </si>
+  <si>
+    <t>L'urine de l'enfant avait-elle était concervé</t>
+  </si>
+  <si>
+    <t>Volume d’urine pour le contrôle</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs (S. Haematobium) pour le contrôle</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs (S. Haematobium) par 10 ml pour le contrôle</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs (S. Mansoni) par 10 ml pour le contrôle</t>
+  </si>
+  <si>
+    <t>${u_urine_conserve} = 'Non'</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1703,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2198,7 +2210,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2256,12 +2268,12 @@
         <v>11</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="24" customFormat="1">
       <c r="A2" s="50" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>12</v>
@@ -2308,10 +2320,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="30"/>
@@ -2355,7 +2367,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="39"/>
@@ -2374,18 +2386,18 @@
         <v>20</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="39"/>
       <c r="F7" s="30" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -2400,10 +2412,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="31"/>
@@ -2436,7 +2448,7 @@
         <v>27</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="I9" s="31"/>
       <c r="J9" s="30" t="s">
@@ -2450,17 +2462,17 @@
         <v>23</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="43"/>
       <c r="F10" s="31"/>
       <c r="G10" s="44"/>
       <c r="H10" s="31" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="I10" s="43"/>
       <c r="J10" s="31" t="s">
@@ -2474,20 +2486,20 @@
         <v>22</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="43"/>
       <c r="F11" s="31"/>
       <c r="G11" s="44"/>
       <c r="H11" s="31" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="J11" s="31"/>
       <c r="K11" s="43"/>
@@ -2501,17 +2513,17 @@
         <v>23</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="43"/>
       <c r="F12" s="31"/>
       <c r="G12" s="44"/>
       <c r="H12" s="31" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="I12" s="43"/>
       <c r="J12" s="31" t="s">
@@ -2522,20 +2534,20 @@
     </row>
     <row r="13" spans="1:13" s="24" customFormat="1">
       <c r="A13" s="31" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="43"/>
       <c r="F13" s="31"/>
       <c r="G13" s="44"/>
       <c r="H13" s="43" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="I13" s="43"/>
       <c r="J13" s="31"/>
@@ -2547,21 +2559,21 @@
         <v>20</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="39"/>
       <c r="F14" s="30" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="30" t="s">
@@ -2575,10 +2587,10 @@
         <v>23</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="31"/>
@@ -2589,7 +2601,7 @@
         <v>27</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="I15" s="31"/>
       <c r="J15" s="30" t="s">
@@ -2603,17 +2615,17 @@
         <v>23</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="43"/>
       <c r="F16" s="31"/>
       <c r="G16" s="44"/>
       <c r="H16" s="31" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="I16" s="43"/>
       <c r="J16" s="31" t="s">
@@ -2627,20 +2639,20 @@
         <v>22</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="43"/>
       <c r="F17" s="31"/>
       <c r="G17" s="44"/>
       <c r="H17" s="31" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="43"/>
@@ -2654,17 +2666,17 @@
         <v>23</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="43"/>
       <c r="F18" s="31"/>
       <c r="G18" s="44"/>
       <c r="H18" s="31" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="I18" s="43"/>
       <c r="J18" s="31" t="s">
@@ -2675,19 +2687,21 @@
     </row>
     <row r="19" spans="1:13" s="41" customFormat="1" ht="31.5">
       <c r="A19" s="39" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="39"/>
       <c r="F19" s="30"/>
       <c r="G19" s="40"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="31" t="s">
+        <v>513</v>
+      </c>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
@@ -2771,11 +2785,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H448"/>
+  <dimension ref="A1:H451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2814,10 +2828,10 @@
         <v>39</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
@@ -2829,10 +2843,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
@@ -2844,10 +2858,10 @@
         <v>39</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
@@ -2859,10 +2873,10 @@
         <v>39</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="20"/>
@@ -2874,10 +2888,10 @@
         <v>39</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="20"/>
@@ -2889,10 +2903,10 @@
         <v>39</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
@@ -2904,10 +2918,10 @@
         <v>39</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
@@ -2919,10 +2933,10 @@
         <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
@@ -2934,10 +2948,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -2949,10 +2963,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
@@ -2964,10 +2978,10 @@
         <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
@@ -2979,10 +2993,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
@@ -2994,10 +3008,10 @@
         <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
@@ -3009,10 +3023,10 @@
         <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
@@ -3024,10 +3038,10 @@
         <v>39</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
@@ -3039,10 +3053,10 @@
         <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
@@ -3054,10 +3068,10 @@
         <v>39</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
@@ -3069,10 +3083,10 @@
         <v>39</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
@@ -3084,10 +3098,10 @@
         <v>39</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
@@ -3099,10 +3113,10 @@
         <v>39</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>40</v>
+        <v>496</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>40</v>
+        <v>496</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
@@ -3114,10 +3128,10 @@
         <v>39</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>459</v>
+        <v>40</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>459</v>
+        <v>40</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
@@ -3129,10 +3143,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
@@ -3144,10 +3158,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
@@ -3159,10 +3173,10 @@
         <v>39</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
@@ -3174,10 +3188,10 @@
         <v>39</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
@@ -3189,10 +3203,10 @@
         <v>39</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="29"/>
@@ -3204,10 +3218,10 @@
         <v>39</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>41</v>
+        <v>499</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>41</v>
+        <v>499</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
@@ -3219,10 +3233,10 @@
         <v>39</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -3234,10 +3248,10 @@
         <v>39</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
@@ -3249,10 +3263,10 @@
         <v>39</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
@@ -3264,10 +3278,10 @@
         <v>39</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
@@ -3279,10 +3293,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>42</v>
+        <v>503</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>42</v>
+        <v>503</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
@@ -3294,10 +3308,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3309,10 +3323,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
@@ -3324,10 +3338,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="29"/>
@@ -3339,10 +3353,10 @@
         <v>39</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="29"/>
@@ -3350,104 +3364,98 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
+      <c r="A38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>506</v>
+      </c>
       <c r="D38" s="28"/>
       <c r="E38" s="29"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:7" s="3" customFormat="1">
+      <c r="A39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="1:7" s="3" customFormat="1">
+      <c r="A40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="1:7" s="3" customFormat="1">
+      <c r="A41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="9" t="s">
+      <c r="C43" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="12"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="12"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="15"/>
@@ -3458,13 +3466,13 @@
         <v>36</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="15"/>
@@ -3475,13 +3483,13 @@
         <v>36</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="15"/>
@@ -3492,13 +3500,13 @@
         <v>36</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="15"/>
@@ -3509,13 +3517,13 @@
         <v>36</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="15"/>
@@ -3526,13 +3534,13 @@
         <v>36</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="15"/>
@@ -3543,75 +3551,75 @@
         <v>36</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
+      <c r="A52" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="17"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="15" t="s">
-        <v>37</v>
+      <c r="A53" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="14" t="s">
-        <v>49</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="17"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="15" t="s">
-        <v>37</v>
+      <c r="A54" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="14" t="s">
-        <v>54</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="17"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="15"/>
-      <c r="E55" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
@@ -3620,14 +3628,14 @@
         <v>37</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -3637,31 +3645,31 @@
         <v>37</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="1:7" ht="31.5">
+    <row r="58" spans="1:7">
       <c r="A58" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -3671,48 +3679,48 @@
         <v>37</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="14" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:7" ht="31.5">
+    <row r="60" spans="1:7">
       <c r="A60" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" ht="31.5">
       <c r="A61" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -3722,14 +3730,14 @@
         <v>37</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -3739,31 +3747,31 @@
         <v>37</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
     </row>
-    <row r="64" spans="1:7" ht="31.5">
+    <row r="64" spans="1:7">
       <c r="A64" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
@@ -3773,48 +3781,48 @@
         <v>37</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" ht="31.5">
       <c r="A66" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" ht="31.5">
       <c r="A67" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -3824,14 +3832,14 @@
         <v>37</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="14" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
@@ -3841,14 +3849,14 @@
         <v>37</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
@@ -3858,14 +3866,14 @@
         <v>37</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -3875,14 +3883,14 @@
         <v>37</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -3892,14 +3900,14 @@
         <v>37</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="14" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
@@ -3909,14 +3917,14 @@
         <v>37</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -3926,14 +3934,14 @@
         <v>37</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
@@ -3943,14 +3951,14 @@
         <v>37</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="14" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
@@ -3960,14 +3968,14 @@
         <v>37</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
@@ -3977,14 +3985,14 @@
         <v>37</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -3994,31 +4002,31 @@
         <v>37</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
     </row>
-    <row r="79" spans="1:7" ht="31.5">
+    <row r="79" spans="1:7">
       <c r="A79" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
@@ -4028,14 +4036,14 @@
         <v>37</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="14" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
@@ -4045,10 +4053,10 @@
         <v>37</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="14" t="s">
@@ -4062,14 +4070,14 @@
         <v>37</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
@@ -4079,14 +4087,14 @@
         <v>37</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="14" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
@@ -4096,14 +4104,14 @@
         <v>37</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
@@ -4113,14 +4121,14 @@
         <v>37</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
@@ -4130,14 +4138,14 @@
         <v>37</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="14" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
@@ -4147,31 +4155,31 @@
         <v>37</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="14" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" ht="31.5">
       <c r="A88" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
@@ -4181,14 +4189,14 @@
         <v>37</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
@@ -4198,14 +4206,14 @@
         <v>37</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="14" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
@@ -4215,14 +4223,14 @@
         <v>37</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
@@ -4232,14 +4240,14 @@
         <v>37</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D92" s="15"/>
       <c r="E92" s="14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
@@ -4249,14 +4257,14 @@
         <v>37</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
@@ -4266,14 +4274,14 @@
         <v>37</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D94" s="15"/>
       <c r="E94" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
@@ -4283,48 +4291,48 @@
         <v>37</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D95" s="15"/>
       <c r="E95" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
     </row>
-    <row r="96" spans="1:7" ht="31.5">
+    <row r="96" spans="1:7">
       <c r="A96" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
     </row>
-    <row r="97" spans="1:7" ht="31.5">
+    <row r="97" spans="1:7">
       <c r="A97" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="15"/>
@@ -4334,48 +4342,48 @@
         <v>37</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" ht="31.5">
       <c r="A99" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" ht="31.5">
       <c r="A100" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
@@ -4385,14 +4393,14 @@
         <v>37</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D101" s="15"/>
       <c r="E101" s="14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
@@ -4402,14 +4410,14 @@
         <v>37</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D102" s="15"/>
       <c r="E102" s="14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
@@ -4419,14 +4427,14 @@
         <v>37</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D103" s="15"/>
       <c r="E103" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
@@ -4436,27 +4444,27 @@
         <v>37</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="14" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
     </row>
-    <row r="105" spans="1:7" ht="31.5">
+    <row r="105" spans="1:7">
       <c r="A105" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="14" t="s">
@@ -4470,31 +4478,31 @@
         <v>37</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:7" ht="31.5">
+    <row r="107" spans="1:7">
       <c r="A107" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
@@ -4504,48 +4512,48 @@
         <v>37</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D108" s="15"/>
       <c r="E108" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
     </row>
-    <row r="109" spans="1:7" ht="31.5">
+    <row r="109" spans="1:7">
       <c r="A109" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" ht="31.5">
       <c r="A110" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
@@ -4555,31 +4563,31 @@
         <v>37</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" ht="31.5">
       <c r="A112" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
@@ -4589,31 +4597,31 @@
         <v>37</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D113" s="15"/>
       <c r="E113" s="14" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" ht="31.5">
       <c r="A114" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D114" s="15"/>
       <c r="E114" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="15"/>
@@ -4623,48 +4631,48 @@
         <v>37</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D115" s="15"/>
       <c r="E115" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="15"/>
     </row>
-    <row r="116" spans="1:7" ht="31.5">
+    <row r="116" spans="1:7">
       <c r="A116" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
     </row>
-    <row r="117" spans="1:7" ht="31.5">
+    <row r="117" spans="1:7">
       <c r="A117" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="15"/>
@@ -4674,31 +4682,31 @@
         <v>37</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D118" s="15"/>
       <c r="E118" s="14" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="F118" s="15"/>
       <c r="G118" s="15"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" ht="31.5">
       <c r="A119" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="15"/>
@@ -4708,14 +4716,14 @@
         <v>37</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D120" s="15"/>
       <c r="E120" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="15"/>
@@ -4725,48 +4733,48 @@
         <v>37</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="14" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="15"/>
     </row>
-    <row r="122" spans="1:7" ht="31.5">
+    <row r="122" spans="1:7">
       <c r="A122" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="14" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="15"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" ht="31.5">
       <c r="A123" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="15"/>
@@ -4776,31 +4784,31 @@
         <v>37</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="15"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" ht="31.5">
       <c r="A125" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="15"/>
@@ -4810,14 +4818,14 @@
         <v>37</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="15"/>
@@ -4827,31 +4835,31 @@
         <v>37</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="14" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
     </row>
-    <row r="128" spans="1:7" ht="31.5">
+    <row r="128" spans="1:7">
       <c r="A128" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="14" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
@@ -4861,27 +4869,27 @@
         <v>37</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="15"/>
     </row>
-    <row r="130" spans="1:7" ht="31.5">
+    <row r="130" spans="1:7">
       <c r="A130" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="14" t="s">
@@ -4895,133 +4903,133 @@
         <v>37</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="14" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
     </row>
-    <row r="132" spans="1:7" ht="47.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="14" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="15"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" ht="31.5">
       <c r="A133" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" ht="31.5">
       <c r="A134" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="15"/>
     </row>
-    <row r="135" spans="1:7" ht="31.5">
+    <row r="135" spans="1:7" ht="47.25">
       <c r="A135" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="14" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
     </row>
-    <row r="136" spans="1:7" ht="31.5">
+    <row r="136" spans="1:7">
       <c r="A136" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="15"/>
     </row>
-    <row r="137" spans="1:7" ht="31.5">
+    <row r="137" spans="1:7">
       <c r="A137" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="15"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" ht="31.5">
       <c r="A138" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
@@ -5031,31 +5039,31 @@
         <v>37</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" ht="31.5">
       <c r="A140" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F140" s="15"/>
       <c r="G140" s="15"/>
@@ -5065,31 +5073,31 @@
         <v>37</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" ht="31.5">
       <c r="A142" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="15"/>
@@ -5099,93 +5107,93 @@
         <v>37</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="15"/>
     </row>
-    <row r="144" spans="1:7" ht="31.5">
+    <row r="144" spans="1:7">
       <c r="A144" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F144" s="15"/>
       <c r="G144" s="15"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="15"/>
-      <c r="B145" s="22"/>
-      <c r="C145" s="22"/>
+      <c r="A145" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
+      <c r="E145" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F145" s="15"/>
       <c r="G145" s="15"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="14" t="s">
-        <v>74</v>
-      </c>
+      <c r="E146" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F146" s="15"/>
       <c r="G146" s="15"/>
     </row>
-    <row r="147" spans="1:7" ht="47.25">
+    <row r="147" spans="1:7" ht="31.5">
       <c r="A147" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="E147" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F147" s="15"/>
       <c r="G147" s="15"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>156</v>
-      </c>
+      <c r="A148" s="15"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="22"/>
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
-      <c r="F148" s="14" t="s">
-        <v>150</v>
-      </c>
+      <c r="F148" s="15"/>
       <c r="G148" s="15"/>
     </row>
     <row r="149" spans="1:7">
@@ -5193,32 +5201,32 @@
         <v>38</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
       <c r="F149" s="14" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="G149" s="15"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" ht="47.25">
       <c r="A150" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
       <c r="F150" s="14" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="G150" s="15"/>
     </row>
@@ -5227,15 +5235,15 @@
         <v>38</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="D151" s="15"/>
       <c r="E151" s="15"/>
       <c r="F151" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="G151" s="15"/>
     </row>
@@ -5244,15 +5252,15 @@
         <v>38</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
       <c r="F152" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G152" s="15"/>
     </row>
@@ -5261,15 +5269,15 @@
         <v>38</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
       <c r="F153" s="14" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="G153" s="15"/>
     </row>
@@ -5278,32 +5286,32 @@
         <v>38</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
       <c r="F154" s="14" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="G154" s="15"/>
     </row>
-    <row r="155" spans="1:7" ht="31.5">
+    <row r="155" spans="1:7">
       <c r="A155" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
       <c r="F155" s="14" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="G155" s="15"/>
     </row>
@@ -5312,15 +5320,15 @@
         <v>38</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
       <c r="F156" s="14" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G156" s="15"/>
     </row>
@@ -5329,49 +5337,49 @@
         <v>38</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
       <c r="F157" s="14" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="G157" s="15"/>
     </row>
-    <row r="158" spans="1:7" ht="47.25">
+    <row r="158" spans="1:7" ht="31.5">
       <c r="A158" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
       <c r="F158" s="14" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="G158" s="15"/>
     </row>
-    <row r="159" spans="1:7" ht="31.5">
+    <row r="159" spans="1:7">
       <c r="A159" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
       <c r="F159" s="14" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G159" s="15"/>
     </row>
@@ -5380,49 +5388,49 @@
         <v>38</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
       <c r="F160" s="14" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="G160" s="15"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" ht="47.25">
       <c r="A161" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
       <c r="F161" s="14" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G161" s="15"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" ht="31.5">
       <c r="A162" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
       <c r="F162" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G162" s="15"/>
     </row>
@@ -5431,66 +5439,66 @@
         <v>38</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
       <c r="F163" s="14" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="G163" s="15"/>
     </row>
-    <row r="164" spans="1:7" ht="31.5">
+    <row r="164" spans="1:7">
       <c r="A164" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
       <c r="F164" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G164" s="15"/>
     </row>
-    <row r="165" spans="1:7" ht="31.5">
+    <row r="165" spans="1:7">
       <c r="A165" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
       <c r="F165" s="14" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="G165" s="15"/>
     </row>
-    <row r="166" spans="1:7" ht="31.5">
+    <row r="166" spans="1:7">
       <c r="A166" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
       <c r="F166" s="14" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="G166" s="15"/>
     </row>
@@ -5499,15 +5507,15 @@
         <v>38</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="14" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G167" s="15"/>
     </row>
@@ -5516,100 +5524,100 @@
         <v>38</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
       <c r="F168" s="14" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G168" s="15"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" ht="31.5">
       <c r="A169" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
       <c r="F169" s="14" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="G169" s="15"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" ht="31.5">
       <c r="A170" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
       <c r="F170" s="14" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G170" s="15"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" ht="31.5">
       <c r="A171" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
       <c r="F171" s="14" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="G171" s="15"/>
     </row>
-    <row r="172" spans="1:7" ht="47.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
       <c r="F172" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G172" s="15"/>
     </row>
-    <row r="173" spans="1:7" ht="31.5">
+    <row r="173" spans="1:7">
       <c r="A173" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
       <c r="F173" s="14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G173" s="15"/>
     </row>
@@ -5618,15 +5626,15 @@
         <v>38</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
       <c r="F174" s="14" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="G174" s="15"/>
     </row>
@@ -5635,15 +5643,15 @@
         <v>38</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
       <c r="F175" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G175" s="15"/>
     </row>
@@ -5652,15 +5660,15 @@
         <v>38</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
       <c r="F176" s="14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G176" s="15"/>
     </row>
@@ -5669,49 +5677,49 @@
         <v>38</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
       <c r="F177" s="14" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="G177" s="15"/>
     </row>
-    <row r="178" spans="1:7" ht="31.5">
+    <row r="178" spans="1:7" ht="47.25">
       <c r="A178" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
       <c r="F178" s="14" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="G178" s="15"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" ht="31.5">
       <c r="A179" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="14" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G179" s="15"/>
     </row>
@@ -5720,32 +5728,32 @@
         <v>38</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
       <c r="F180" s="14" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G180" s="15"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" ht="31.5">
       <c r="A181" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
       <c r="F181" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G181" s="15"/>
     </row>
@@ -5754,15 +5762,15 @@
         <v>38</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
       <c r="F182" s="14" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="G182" s="15"/>
     </row>
@@ -5771,15 +5779,15 @@
         <v>38</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
       <c r="F183" s="14" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="G183" s="15"/>
     </row>
@@ -5788,32 +5796,32 @@
         <v>38</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
       <c r="F184" s="14" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="G184" s="15"/>
     </row>
-    <row r="185" spans="1:7" ht="31.5">
+    <row r="185" spans="1:7">
       <c r="A185" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
       <c r="F185" s="14" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G185" s="15"/>
     </row>
@@ -5822,15 +5830,15 @@
         <v>38</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
       <c r="F186" s="14" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="G186" s="15"/>
     </row>
@@ -5839,32 +5847,32 @@
         <v>38</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
       <c r="F187" s="14" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="G187" s="15"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" ht="31.5">
       <c r="A188" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
       <c r="F188" s="14" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G188" s="15"/>
     </row>
@@ -5873,32 +5881,32 @@
         <v>38</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
       <c r="F189" s="14" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="G189" s="15"/>
     </row>
-    <row r="190" spans="1:7" ht="31.5">
+    <row r="190" spans="1:7">
       <c r="A190" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
       <c r="F190" s="14" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="G190" s="15"/>
     </row>
@@ -5907,66 +5915,66 @@
         <v>38</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
       <c r="F191" s="14" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="G191" s="15"/>
     </row>
-    <row r="192" spans="1:7" ht="31.5">
+    <row r="192" spans="1:7">
       <c r="A192" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
       <c r="F192" s="14" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="G192" s="15"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" ht="31.5">
       <c r="A193" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
       <c r="F193" s="14" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="G193" s="15"/>
     </row>
-    <row r="194" spans="1:7" ht="31.5">
+    <row r="194" spans="1:7">
       <c r="A194" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
       <c r="F194" s="14" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="G194" s="15"/>
     </row>
@@ -5975,15 +5983,15 @@
         <v>38</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="14" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="G195" s="15"/>
     </row>
@@ -5992,15 +6000,15 @@
         <v>38</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
       <c r="F196" s="14" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="G196" s="15"/>
     </row>
@@ -6009,32 +6017,32 @@
         <v>38</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="F197" s="14" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="G197" s="15"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" ht="31.5">
       <c r="A198" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="F198" s="14" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="G198" s="15"/>
     </row>
@@ -6043,32 +6051,32 @@
         <v>38</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
       <c r="F199" s="14" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G199" s="15"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" ht="31.5">
       <c r="A200" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
       <c r="F200" s="14" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="G200" s="15"/>
     </row>
@@ -6077,32 +6085,32 @@
         <v>38</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
       <c r="F201" s="14" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="G201" s="15"/>
     </row>
-    <row r="202" spans="1:7" ht="31.5">
+    <row r="202" spans="1:7">
       <c r="A202" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
       <c r="F202" s="14" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="G202" s="15"/>
     </row>
@@ -6111,15 +6119,15 @@
         <v>38</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
       <c r="F203" s="14" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="G203" s="15"/>
     </row>
@@ -6128,49 +6136,49 @@
         <v>38</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
       <c r="F204" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G204" s="15"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" ht="31.5">
       <c r="A205" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
       <c r="F205" s="14" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G205" s="15"/>
     </row>
-    <row r="206" spans="1:7" ht="31.5">
+    <row r="206" spans="1:7">
       <c r="A206" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
       <c r="F206" s="14" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="G206" s="15"/>
     </row>
@@ -6179,15 +6187,15 @@
         <v>38</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
       <c r="F207" s="14" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G207" s="15"/>
     </row>
@@ -6196,32 +6204,32 @@
         <v>38</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
       <c r="F208" s="14" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="G208" s="15"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" ht="31.5">
       <c r="A209" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
       <c r="F209" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G209" s="15"/>
     </row>
@@ -6230,15 +6238,15 @@
         <v>38</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
       <c r="F210" s="14" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="G210" s="15"/>
     </row>
@@ -6247,15 +6255,15 @@
         <v>38</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
       <c r="F211" s="14" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="G211" s="15"/>
     </row>
@@ -6264,32 +6272,32 @@
         <v>38</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
       <c r="F212" s="14" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="G212" s="15"/>
     </row>
-    <row r="213" spans="1:7" ht="31.5">
+    <row r="213" spans="1:7">
       <c r="A213" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
       <c r="F213" s="14" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="G213" s="15"/>
     </row>
@@ -6298,32 +6306,32 @@
         <v>38</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
       <c r="F214" s="14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G214" s="15"/>
     </row>
-    <row r="215" spans="1:7" ht="31.5">
+    <row r="215" spans="1:7">
       <c r="A215" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
       <c r="F215" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G215" s="15"/>
     </row>
@@ -6332,15 +6340,15 @@
         <v>38</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
       <c r="F216" s="14" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="G216" s="15"/>
     </row>
@@ -6349,15 +6357,15 @@
         <v>38</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
       <c r="F217" s="14" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="G217" s="15"/>
     </row>
@@ -6366,15 +6374,15 @@
         <v>38</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
       <c r="F218" s="14" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="G218" s="15"/>
     </row>
@@ -6383,32 +6391,32 @@
         <v>38</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
       <c r="F219" s="14" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="G219" s="15"/>
     </row>
-    <row r="220" spans="1:7" ht="31.5">
+    <row r="220" spans="1:7">
       <c r="A220" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
       <c r="F220" s="14" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G220" s="15"/>
     </row>
@@ -6417,66 +6425,66 @@
         <v>38</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
       <c r="F221" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G221" s="15"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" ht="31.5">
       <c r="A222" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
       <c r="F222" s="14" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G222" s="15"/>
     </row>
-    <row r="223" spans="1:7" ht="78.75">
+    <row r="223" spans="1:7" ht="31.5">
       <c r="A223" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
       <c r="F223" s="14" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="G223" s="15"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" ht="31.5">
       <c r="A224" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="15"/>
       <c r="F224" s="14" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="G224" s="15"/>
     </row>
@@ -6485,32 +6493,32 @@
         <v>38</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
       <c r="F225" s="14" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="G225" s="15"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" ht="78.75">
       <c r="A226" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
       <c r="F226" s="14" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="G226" s="15"/>
     </row>
@@ -6519,32 +6527,32 @@
         <v>38</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="15"/>
       <c r="F227" s="14" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="G227" s="15"/>
     </row>
-    <row r="228" spans="1:7" ht="31.5">
+    <row r="228" spans="1:7">
       <c r="A228" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
       <c r="F228" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G228" s="15"/>
     </row>
@@ -6553,83 +6561,83 @@
         <v>38</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
       <c r="F229" s="14" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="G229" s="15"/>
     </row>
-    <row r="230" spans="1:7" ht="47.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="15"/>
       <c r="F230" s="14" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="G230" s="15"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" ht="31.5">
       <c r="A231" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D231" s="15"/>
       <c r="E231" s="15"/>
       <c r="F231" s="14" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="G231" s="15"/>
     </row>
-    <row r="232" spans="1:7" ht="31.5">
+    <row r="232" spans="1:7">
       <c r="A232" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D232" s="15"/>
       <c r="E232" s="15"/>
       <c r="F232" s="14" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G232" s="15"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" ht="47.25">
       <c r="A233" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D233" s="15"/>
       <c r="E233" s="15"/>
       <c r="F233" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G233" s="15"/>
     </row>
@@ -6638,15 +6646,15 @@
         <v>38</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D234" s="15"/>
       <c r="E234" s="15"/>
       <c r="F234" s="14" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="G234" s="15"/>
     </row>
@@ -6655,15 +6663,15 @@
         <v>38</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D235" s="15"/>
       <c r="E235" s="15"/>
       <c r="F235" s="14" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G235" s="15"/>
     </row>
@@ -6672,49 +6680,49 @@
         <v>38</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
       <c r="F236" s="14" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="G236" s="15"/>
     </row>
-    <row r="237" spans="1:7" ht="31.5">
+    <row r="237" spans="1:7">
       <c r="A237" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D237" s="15"/>
       <c r="E237" s="15"/>
       <c r="F237" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G237" s="15"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" ht="31.5">
       <c r="A238" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D238" s="15"/>
       <c r="E238" s="15"/>
       <c r="F238" s="14" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="G238" s="15"/>
     </row>
@@ -6723,32 +6731,32 @@
         <v>38</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D239" s="15"/>
       <c r="E239" s="15"/>
       <c r="F239" s="14" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="G239" s="15"/>
     </row>
-    <row r="240" spans="1:7" ht="47.25">
+    <row r="240" spans="1:7" ht="31.5">
       <c r="A240" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D240" s="15"/>
       <c r="E240" s="15"/>
       <c r="F240" s="14" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G240" s="15"/>
     </row>
@@ -6757,15 +6765,15 @@
         <v>38</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D241" s="15"/>
       <c r="E241" s="15"/>
       <c r="F241" s="14" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="G241" s="15"/>
     </row>
@@ -6774,66 +6782,66 @@
         <v>38</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D242" s="15"/>
       <c r="E242" s="15"/>
       <c r="F242" s="14" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G242" s="15"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" ht="47.25">
       <c r="A243" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D243" s="15"/>
       <c r="E243" s="15"/>
       <c r="F243" s="14" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G243" s="15"/>
     </row>
-    <row r="244" spans="1:7" ht="47.25">
+    <row r="244" spans="1:7">
       <c r="A244" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D244" s="15"/>
       <c r="E244" s="15"/>
       <c r="F244" s="14" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="G244" s="15"/>
     </row>
-    <row r="245" spans="1:7" ht="31.5">
+    <row r="245" spans="1:7">
       <c r="A245" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D245" s="15"/>
       <c r="E245" s="15"/>
       <c r="F245" s="14" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="G245" s="15"/>
     </row>
@@ -6842,49 +6850,49 @@
         <v>38</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D246" s="15"/>
       <c r="E246" s="15"/>
       <c r="F246" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G246" s="15"/>
     </row>
-    <row r="247" spans="1:7" ht="31.5">
+    <row r="247" spans="1:7" ht="47.25">
       <c r="A247" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C247" s="14" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D247" s="15"/>
       <c r="E247" s="15"/>
       <c r="F247" s="14" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="G247" s="15"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" ht="31.5">
       <c r="A248" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D248" s="15"/>
       <c r="E248" s="15"/>
       <c r="F248" s="14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G248" s="15"/>
     </row>
@@ -6893,15 +6901,15 @@
         <v>38</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C249" s="14" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D249" s="15"/>
       <c r="E249" s="15"/>
       <c r="F249" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G249" s="15"/>
     </row>
@@ -6910,15 +6918,15 @@
         <v>38</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D250" s="15"/>
       <c r="E250" s="15"/>
       <c r="F250" s="14" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G250" s="15"/>
     </row>
@@ -6927,15 +6935,15 @@
         <v>38</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="C251" s="14" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="D251" s="15"/>
       <c r="E251" s="15"/>
       <c r="F251" s="14" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G251" s="15"/>
     </row>
@@ -6944,32 +6952,32 @@
         <v>38</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D252" s="15"/>
       <c r="E252" s="15"/>
       <c r="F252" s="14" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G252" s="15"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" ht="31.5">
       <c r="A253" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D253" s="15"/>
       <c r="E253" s="15"/>
       <c r="F253" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G253" s="15"/>
     </row>
@@ -6978,15 +6986,15 @@
         <v>38</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="D254" s="15"/>
       <c r="E254" s="15"/>
       <c r="F254" s="14" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G254" s="15"/>
     </row>
@@ -6995,15 +7003,15 @@
         <v>38</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
       <c r="F255" s="14" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G255" s="15"/>
     </row>
@@ -7012,49 +7020,49 @@
         <v>38</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D256" s="15"/>
       <c r="E256" s="15"/>
       <c r="F256" s="14" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G256" s="15"/>
     </row>
-    <row r="257" spans="1:7" ht="31.5">
+    <row r="257" spans="1:7">
       <c r="A257" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D257" s="15"/>
       <c r="E257" s="15"/>
       <c r="F257" s="14" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="G257" s="15"/>
     </row>
-    <row r="258" spans="1:7" ht="31.5">
+    <row r="258" spans="1:7">
       <c r="A258" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D258" s="15"/>
       <c r="E258" s="15"/>
       <c r="F258" s="14" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="G258" s="15"/>
     </row>
@@ -7063,49 +7071,49 @@
         <v>38</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D259" s="15"/>
       <c r="E259" s="15"/>
       <c r="F259" s="14" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="G259" s="15"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" ht="31.5">
       <c r="A260" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D260" s="15"/>
       <c r="E260" s="15"/>
       <c r="F260" s="14" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G260" s="15"/>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" ht="31.5">
       <c r="A261" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D261" s="15"/>
       <c r="E261" s="15"/>
       <c r="F261" s="14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G261" s="15"/>
     </row>
@@ -7114,32 +7122,32 @@
         <v>38</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C262" s="14" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D262" s="15"/>
       <c r="E262" s="15"/>
       <c r="F262" s="14" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G262" s="15"/>
     </row>
-    <row r="263" spans="1:7" ht="31.5">
+    <row r="263" spans="1:7">
       <c r="A263" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D263" s="15"/>
       <c r="E263" s="15"/>
       <c r="F263" s="14" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G263" s="15"/>
     </row>
@@ -7148,32 +7156,32 @@
         <v>38</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D264" s="15"/>
       <c r="E264" s="15"/>
       <c r="F264" s="14" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="G264" s="15"/>
     </row>
-    <row r="265" spans="1:7" ht="31.5">
+    <row r="265" spans="1:7">
       <c r="A265" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D265" s="15"/>
       <c r="E265" s="15"/>
       <c r="F265" s="14" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G265" s="15"/>
     </row>
@@ -7182,15 +7190,15 @@
         <v>38</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D266" s="15"/>
       <c r="E266" s="15"/>
       <c r="F266" s="14" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="G266" s="15"/>
     </row>
@@ -7199,49 +7207,49 @@
         <v>38</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
       <c r="F267" s="14" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G267" s="15"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" ht="31.5">
       <c r="A268" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D268" s="15"/>
       <c r="E268" s="15"/>
       <c r="F268" s="14" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="G268" s="15"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" ht="31.5">
       <c r="A269" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
       <c r="F269" s="14" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="G269" s="15"/>
     </row>
@@ -7250,15 +7258,15 @@
         <v>38</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C270" s="14" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D270" s="15"/>
       <c r="E270" s="15"/>
       <c r="F270" s="14" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="G270" s="15"/>
     </row>
@@ -7267,15 +7275,15 @@
         <v>38</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C271" s="14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D271" s="15"/>
       <c r="E271" s="15"/>
       <c r="F271" s="14" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="G271" s="15"/>
     </row>
@@ -7284,15 +7292,15 @@
         <v>38</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>270</v>
+        <v>97</v>
       </c>
       <c r="C272" s="14" t="s">
-        <v>270</v>
+        <v>97</v>
       </c>
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="F272" s="14" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="G272" s="15"/>
     </row>
@@ -7301,15 +7309,15 @@
         <v>38</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C273" s="14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
       <c r="F273" s="14" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G273" s="15"/>
     </row>
@@ -7318,15 +7326,15 @@
         <v>38</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
       <c r="F274" s="14" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="G274" s="15"/>
     </row>
@@ -7335,83 +7343,83 @@
         <v>38</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C275" s="14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D275" s="15"/>
       <c r="E275" s="15"/>
       <c r="F275" s="14" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="G275" s="15"/>
     </row>
-    <row r="276" spans="1:7" ht="31.5">
+    <row r="276" spans="1:7">
       <c r="A276" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C276" s="14" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
       <c r="F276" s="14" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="G276" s="15"/>
     </row>
-    <row r="277" spans="1:7" ht="31.5">
+    <row r="277" spans="1:7">
       <c r="A277" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
       <c r="F277" s="14" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="G277" s="15"/>
     </row>
-    <row r="278" spans="1:7" ht="31.5">
+    <row r="278" spans="1:7">
       <c r="A278" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
       <c r="F278" s="14" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="G278" s="15"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" ht="31.5">
       <c r="A279" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C279" s="14" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
       <c r="F279" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G279" s="15"/>
     </row>
@@ -7420,32 +7428,32 @@
         <v>38</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
       <c r="F280" s="14" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="G280" s="15"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" ht="31.5">
       <c r="A281" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
       <c r="F281" s="14" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="G281" s="15"/>
     </row>
@@ -7454,15 +7462,15 @@
         <v>38</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
       <c r="F282" s="14" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="G282" s="15"/>
     </row>
@@ -7471,32 +7479,32 @@
         <v>38</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C283" s="14" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
       <c r="F283" s="14" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="G283" s="15"/>
     </row>
-    <row r="284" spans="1:7" ht="31.5">
+    <row r="284" spans="1:7">
       <c r="A284" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C284" s="14" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
       <c r="F284" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G284" s="15"/>
     </row>
@@ -7505,49 +7513,49 @@
         <v>38</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C285" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
       <c r="F285" s="14" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="G285" s="15"/>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" ht="31.5">
       <c r="A286" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C286" s="14" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
       <c r="F286" s="14" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="G286" s="15"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" ht="31.5">
       <c r="A287" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C287" s="14" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
       <c r="F287" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G287" s="15"/>
     </row>
@@ -7556,15 +7564,15 @@
         <v>38</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C288" s="14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
       <c r="F288" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G288" s="15"/>
     </row>
@@ -7573,15 +7581,15 @@
         <v>38</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C289" s="14" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
       <c r="F289" s="14" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="G289" s="15"/>
     </row>
@@ -7590,66 +7598,66 @@
         <v>38</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C290" s="14" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
       <c r="F290" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G290" s="15"/>
     </row>
-    <row r="291" spans="1:7" ht="31.5">
+    <row r="291" spans="1:7">
       <c r="A291" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C291" s="14" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D291" s="15"/>
       <c r="E291" s="15"/>
       <c r="F291" s="14" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G291" s="15"/>
     </row>
-    <row r="292" spans="1:7" ht="31.5">
+    <row r="292" spans="1:7">
       <c r="A292" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="C292" s="14" t="s">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="D292" s="15"/>
       <c r="E292" s="15"/>
       <c r="F292" s="14" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="G292" s="15"/>
     </row>
-    <row r="293" spans="1:7" ht="31.5">
+    <row r="293" spans="1:7">
       <c r="A293" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C293" s="14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D293" s="15"/>
       <c r="E293" s="15"/>
       <c r="F293" s="14" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G293" s="15"/>
     </row>
@@ -7658,15 +7666,15 @@
         <v>38</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C294" s="14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D294" s="15"/>
       <c r="E294" s="15"/>
       <c r="F294" s="14" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="G294" s="15"/>
     </row>
@@ -7675,49 +7683,49 @@
         <v>38</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C295" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D295" s="15"/>
       <c r="E295" s="15"/>
       <c r="F295" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G295" s="15"/>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" ht="31.5">
       <c r="A296" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C296" s="14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D296" s="15"/>
       <c r="E296" s="15"/>
       <c r="F296" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G296" s="15"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" ht="31.5">
       <c r="A297" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>110</v>
+        <v>289</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>110</v>
+        <v>289</v>
       </c>
       <c r="D297" s="15"/>
       <c r="E297" s="15"/>
       <c r="F297" s="14" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="G297" s="15"/>
     </row>
@@ -7726,15 +7734,15 @@
         <v>38</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>293</v>
+        <v>105</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>293</v>
+        <v>105</v>
       </c>
       <c r="D298" s="15"/>
       <c r="E298" s="15"/>
       <c r="F298" s="14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G298" s="15"/>
     </row>
@@ -7743,15 +7751,15 @@
         <v>38</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C299" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D299" s="15"/>
       <c r="E299" s="15"/>
       <c r="F299" s="14" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="G299" s="15"/>
     </row>
@@ -7760,32 +7768,32 @@
         <v>38</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>295</v>
+        <v>108</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>295</v>
+        <v>108</v>
       </c>
       <c r="D300" s="15"/>
       <c r="E300" s="15"/>
       <c r="F300" s="14" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G300" s="15"/>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" ht="31.5">
       <c r="A301" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D301" s="15"/>
       <c r="E301" s="15"/>
       <c r="F301" s="14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G301" s="15"/>
     </row>
@@ -7794,15 +7802,15 @@
         <v>38</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D302" s="15"/>
       <c r="E302" s="15"/>
       <c r="F302" s="14" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G302" s="15"/>
     </row>
@@ -7811,15 +7819,15 @@
         <v>38</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D303" s="15"/>
       <c r="E303" s="15"/>
       <c r="F303" s="14" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="G303" s="15"/>
     </row>
@@ -7828,15 +7836,15 @@
         <v>38</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D304" s="15"/>
       <c r="E304" s="15"/>
       <c r="F304" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G304" s="15"/>
     </row>
@@ -7845,15 +7853,15 @@
         <v>38</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D305" s="15"/>
       <c r="E305" s="15"/>
       <c r="F305" s="14" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="G305" s="15"/>
     </row>
@@ -7862,15 +7870,15 @@
         <v>38</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>113</v>
+        <v>296</v>
       </c>
       <c r="C306" s="14" t="s">
-        <v>113</v>
+        <v>296</v>
       </c>
       <c r="D306" s="15"/>
       <c r="E306" s="15"/>
       <c r="F306" s="14" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="G306" s="15"/>
     </row>
@@ -7879,15 +7887,15 @@
         <v>38</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C307" s="14" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D307" s="15"/>
       <c r="E307" s="15"/>
       <c r="F307" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G307" s="15"/>
     </row>
@@ -7896,32 +7904,32 @@
         <v>38</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D308" s="15"/>
       <c r="E308" s="15"/>
       <c r="F308" s="14" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="G308" s="15"/>
     </row>
-    <row r="309" spans="1:7" ht="31.5">
+    <row r="309" spans="1:7">
       <c r="A309" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="D309" s="15"/>
       <c r="E309" s="15"/>
       <c r="F309" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G309" s="15"/>
     </row>
@@ -7930,15 +7938,15 @@
         <v>38</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D310" s="15"/>
       <c r="E310" s="15"/>
       <c r="F310" s="14" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="G310" s="15"/>
     </row>
@@ -7947,32 +7955,32 @@
         <v>38</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D311" s="15"/>
       <c r="E311" s="15"/>
       <c r="F311" s="14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G311" s="15"/>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" ht="31.5">
       <c r="A312" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D312" s="15"/>
       <c r="E312" s="15"/>
       <c r="F312" s="14" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G312" s="15"/>
     </row>
@@ -7981,15 +7989,15 @@
         <v>38</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D313" s="15"/>
       <c r="E313" s="15"/>
       <c r="F313" s="14" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="G313" s="15"/>
     </row>
@@ -7998,32 +8006,32 @@
         <v>38</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D314" s="15"/>
       <c r="E314" s="15"/>
       <c r="F314" s="14" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="G314" s="15"/>
     </row>
-    <row r="315" spans="1:7" ht="31.5">
+    <row r="315" spans="1:7">
       <c r="A315" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D315" s="15"/>
       <c r="E315" s="15"/>
       <c r="F315" s="14" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="G315" s="15"/>
     </row>
@@ -8032,32 +8040,32 @@
         <v>38</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D316" s="15"/>
       <c r="E316" s="15"/>
       <c r="F316" s="14" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="G316" s="15"/>
     </row>
-    <row r="317" spans="1:7" ht="31.5">
+    <row r="317" spans="1:7">
       <c r="A317" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D317" s="15"/>
       <c r="E317" s="15"/>
       <c r="F317" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G317" s="15"/>
     </row>
@@ -8066,15 +8074,15 @@
         <v>38</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D318" s="15"/>
       <c r="E318" s="15"/>
       <c r="F318" s="14" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G318" s="15"/>
     </row>
@@ -8083,49 +8091,49 @@
         <v>38</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D319" s="15"/>
       <c r="E319" s="15"/>
       <c r="F319" s="14" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G319" s="15"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" ht="31.5">
       <c r="A320" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D320" s="15"/>
       <c r="E320" s="15"/>
       <c r="F320" s="14" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G320" s="15"/>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" ht="31.5">
       <c r="A321" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D321" s="15"/>
       <c r="E321" s="15"/>
       <c r="F321" s="14" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="G321" s="15"/>
     </row>
@@ -8134,15 +8142,15 @@
         <v>38</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D322" s="15"/>
       <c r="E322" s="15"/>
       <c r="F322" s="14" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="G322" s="15"/>
     </row>
@@ -8151,32 +8159,32 @@
         <v>38</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D323" s="15"/>
       <c r="E323" s="15"/>
       <c r="F323" s="14" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="G323" s="15"/>
     </row>
-    <row r="324" spans="1:7" ht="31.5">
+    <row r="324" spans="1:7">
       <c r="A324" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D324" s="15"/>
       <c r="E324" s="15"/>
       <c r="F324" s="14" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="G324" s="15"/>
     </row>
@@ -8185,15 +8193,15 @@
         <v>38</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D325" s="15"/>
       <c r="E325" s="15"/>
       <c r="F325" s="14" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="G325" s="15"/>
     </row>
@@ -8202,32 +8210,32 @@
         <v>38</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C326" s="14" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D326" s="15"/>
       <c r="E326" s="15"/>
       <c r="F326" s="14" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G326" s="15"/>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" ht="31.5">
       <c r="A327" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C327" s="14" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D327" s="15"/>
       <c r="E327" s="15"/>
       <c r="F327" s="14" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G327" s="15"/>
     </row>
@@ -8236,32 +8244,32 @@
         <v>38</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C328" s="14" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D328" s="15"/>
       <c r="E328" s="15"/>
       <c r="F328" s="14" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G328" s="15"/>
     </row>
-    <row r="329" spans="1:7" ht="31.5">
+    <row r="329" spans="1:7">
       <c r="A329" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B329" s="14" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C329" s="14" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D329" s="15"/>
       <c r="E329" s="15"/>
       <c r="F329" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G329" s="15"/>
     </row>
@@ -8270,15 +8278,15 @@
         <v>38</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C330" s="14" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D330" s="15"/>
       <c r="E330" s="15"/>
       <c r="F330" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G330" s="15"/>
     </row>
@@ -8287,15 +8295,15 @@
         <v>38</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D331" s="15"/>
       <c r="E331" s="15"/>
       <c r="F331" s="14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G331" s="15"/>
     </row>
@@ -8304,15 +8312,15 @@
         <v>38</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C332" s="14" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D332" s="15"/>
       <c r="E332" s="15"/>
       <c r="F332" s="14" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="G332" s="15"/>
     </row>
@@ -8321,15 +8329,15 @@
         <v>38</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D333" s="15"/>
       <c r="E333" s="15"/>
       <c r="F333" s="14" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="G333" s="15"/>
     </row>
@@ -8338,32 +8346,32 @@
         <v>38</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D334" s="15"/>
       <c r="E334" s="15"/>
       <c r="F334" s="14" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="G334" s="15"/>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" ht="31.5">
       <c r="A335" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D335" s="15"/>
       <c r="E335" s="15"/>
       <c r="F335" s="14" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="G335" s="15"/>
     </row>
@@ -8372,15 +8380,15 @@
         <v>38</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D336" s="15"/>
       <c r="E336" s="15"/>
       <c r="F336" s="14" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G336" s="15"/>
     </row>
@@ -8389,15 +8397,15 @@
         <v>38</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C337" s="14" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D337" s="15"/>
       <c r="E337" s="15"/>
       <c r="F337" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G337" s="15"/>
     </row>
@@ -8406,15 +8414,15 @@
         <v>38</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D338" s="15"/>
       <c r="E338" s="15"/>
       <c r="F338" s="14" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="G338" s="15"/>
     </row>
@@ -8423,15 +8431,15 @@
         <v>38</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C339" s="14" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D339" s="15"/>
       <c r="E339" s="15"/>
       <c r="F339" s="14" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="G339" s="15"/>
     </row>
@@ -8440,15 +8448,15 @@
         <v>38</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D340" s="15"/>
       <c r="E340" s="15"/>
       <c r="F340" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G340" s="15"/>
     </row>
@@ -8457,15 +8465,15 @@
         <v>38</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C341" s="14" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D341" s="15"/>
       <c r="E341" s="15"/>
       <c r="F341" s="14" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G341" s="15"/>
     </row>
@@ -8474,15 +8482,15 @@
         <v>38</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C342" s="14" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D342" s="15"/>
       <c r="E342" s="15"/>
       <c r="F342" s="14" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="G342" s="15"/>
     </row>
@@ -8491,15 +8499,15 @@
         <v>38</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C343" s="14" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D343" s="15"/>
       <c r="E343" s="15"/>
       <c r="F343" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G343" s="15"/>
     </row>
@@ -8508,15 +8516,15 @@
         <v>38</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D344" s="15"/>
       <c r="E344" s="15"/>
       <c r="F344" s="14" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G344" s="15"/>
     </row>
@@ -8525,15 +8533,15 @@
         <v>38</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C345" s="14" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D345" s="15"/>
       <c r="E345" s="15"/>
       <c r="F345" s="14" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="G345" s="15"/>
     </row>
@@ -8542,15 +8550,15 @@
         <v>38</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D346" s="15"/>
       <c r="E346" s="15"/>
       <c r="F346" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G346" s="15"/>
     </row>
@@ -8559,49 +8567,49 @@
         <v>38</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C347" s="14" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D347" s="15"/>
       <c r="E347" s="15"/>
       <c r="F347" s="14" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="G347" s="15"/>
     </row>
-    <row r="348" spans="1:7" ht="31.5">
+    <row r="348" spans="1:7">
       <c r="A348" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C348" s="14" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D348" s="15"/>
       <c r="E348" s="15"/>
       <c r="F348" s="14" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="G348" s="15"/>
     </row>
-    <row r="349" spans="1:7" ht="31.5">
+    <row r="349" spans="1:7">
       <c r="A349" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C349" s="14" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D349" s="15"/>
       <c r="E349" s="15"/>
       <c r="F349" s="14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G349" s="15"/>
     </row>
@@ -8610,49 +8618,49 @@
         <v>38</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C350" s="14" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D350" s="15"/>
       <c r="E350" s="15"/>
       <c r="F350" s="14" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G350" s="15"/>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" ht="31.5">
       <c r="A351" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C351" s="14" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D351" s="15"/>
       <c r="E351" s="15"/>
       <c r="F351" s="14" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="G351" s="15"/>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" ht="31.5">
       <c r="A352" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C352" s="14" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D352" s="15"/>
       <c r="E352" s="15"/>
       <c r="F352" s="14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G352" s="15"/>
     </row>
@@ -8661,15 +8669,15 @@
         <v>38</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C353" s="14" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D353" s="15"/>
       <c r="E353" s="15"/>
       <c r="F353" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G353" s="15"/>
     </row>
@@ -8678,15 +8686,15 @@
         <v>38</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C354" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D354" s="15"/>
       <c r="E354" s="15"/>
       <c r="F354" s="14" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G354" s="15"/>
     </row>
@@ -8695,15 +8703,15 @@
         <v>38</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C355" s="14" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D355" s="15"/>
       <c r="E355" s="15"/>
       <c r="F355" s="14" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="G355" s="15"/>
     </row>
@@ -8712,15 +8720,15 @@
         <v>38</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C356" s="14" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D356" s="15"/>
       <c r="E356" s="15"/>
       <c r="F356" s="14" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="G356" s="15"/>
     </row>
@@ -8729,15 +8737,15 @@
         <v>38</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C357" s="14" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D357" s="15"/>
       <c r="E357" s="15"/>
       <c r="F357" s="14" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G357" s="15"/>
     </row>
@@ -8746,32 +8754,32 @@
         <v>38</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C358" s="14" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D358" s="15"/>
       <c r="E358" s="15"/>
       <c r="F358" s="14" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="G358" s="15"/>
     </row>
-    <row r="359" spans="1:7" ht="31.5">
+    <row r="359" spans="1:7">
       <c r="A359" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C359" s="14" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D359" s="15"/>
       <c r="E359" s="15"/>
       <c r="F359" s="14" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G359" s="15"/>
     </row>
@@ -8780,15 +8788,15 @@
         <v>38</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C360" s="14" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D360" s="15"/>
       <c r="E360" s="15"/>
       <c r="F360" s="14" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="G360" s="15"/>
     </row>
@@ -8797,32 +8805,32 @@
         <v>38</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C361" s="14" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D361" s="15"/>
       <c r="E361" s="15"/>
       <c r="F361" s="14" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="G361" s="15"/>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" ht="31.5">
       <c r="A362" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C362" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D362" s="15"/>
       <c r="E362" s="15"/>
       <c r="F362" s="14" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="G362" s="15"/>
     </row>
@@ -8831,15 +8839,15 @@
         <v>38</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C363" s="14" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D363" s="15"/>
       <c r="E363" s="15"/>
       <c r="F363" s="14" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="G363" s="15"/>
     </row>
@@ -8848,15 +8856,15 @@
         <v>38</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C364" s="14" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D364" s="15"/>
       <c r="E364" s="15"/>
       <c r="F364" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G364" s="15"/>
     </row>
@@ -8865,15 +8873,15 @@
         <v>38</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>131</v>
+        <v>354</v>
       </c>
       <c r="C365" s="14" t="s">
-        <v>131</v>
+        <v>354</v>
       </c>
       <c r="D365" s="15"/>
       <c r="E365" s="15"/>
       <c r="F365" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G365" s="15"/>
     </row>
@@ -8882,15 +8890,15 @@
         <v>38</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C366" s="14" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D366" s="15"/>
       <c r="E366" s="15"/>
       <c r="F366" s="14" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="G366" s="15"/>
     </row>
@@ -8899,32 +8907,32 @@
         <v>38</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>132</v>
+        <v>356</v>
       </c>
       <c r="C367" s="14" t="s">
-        <v>132</v>
+        <v>356</v>
       </c>
       <c r="D367" s="15"/>
       <c r="E367" s="15"/>
       <c r="F367" s="14" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="G367" s="15"/>
     </row>
-    <row r="368" spans="1:7" ht="47.25">
+    <row r="368" spans="1:7">
       <c r="A368" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>360</v>
+        <v>129</v>
       </c>
       <c r="C368" s="14" t="s">
-        <v>360</v>
+        <v>129</v>
       </c>
       <c r="D368" s="15"/>
       <c r="E368" s="15"/>
       <c r="F368" s="14" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="G368" s="15"/>
     </row>
@@ -8933,15 +8941,15 @@
         <v>38</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C369" s="14" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D369" s="15"/>
       <c r="E369" s="15"/>
       <c r="F369" s="14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G369" s="15"/>
     </row>
@@ -8950,49 +8958,49 @@
         <v>38</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C370" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D370" s="15"/>
       <c r="E370" s="15"/>
       <c r="F370" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G370" s="15"/>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" ht="47.25">
       <c r="A371" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C371" s="14" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D371" s="15"/>
       <c r="E371" s="15"/>
       <c r="F371" s="14" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G371" s="15"/>
     </row>
-    <row r="372" spans="1:7" ht="31.5">
+    <row r="372" spans="1:7">
       <c r="A372" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D372" s="15"/>
       <c r="E372" s="15"/>
       <c r="F372" s="14" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="G372" s="15"/>
     </row>
@@ -9001,15 +9009,15 @@
         <v>38</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D373" s="15"/>
       <c r="E373" s="15"/>
       <c r="F373" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G373" s="15"/>
     </row>
@@ -9018,32 +9026,32 @@
         <v>38</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C374" s="14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D374" s="15"/>
       <c r="E374" s="15"/>
       <c r="F374" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G374" s="15"/>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" ht="31.5">
       <c r="A375" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C375" s="14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D375" s="15"/>
       <c r="E375" s="15"/>
       <c r="F375" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G375" s="15"/>
     </row>
@@ -9052,15 +9060,15 @@
         <v>38</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>366</v>
+        <v>132</v>
       </c>
       <c r="C376" s="14" t="s">
-        <v>366</v>
+        <v>132</v>
       </c>
       <c r="D376" s="15"/>
       <c r="E376" s="15"/>
       <c r="F376" s="14" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="G376" s="15"/>
     </row>
@@ -9069,32 +9077,32 @@
         <v>38</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C377" s="14" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D377" s="15"/>
       <c r="E377" s="15"/>
       <c r="F377" s="14" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G377" s="15"/>
     </row>
-    <row r="378" spans="1:7" ht="31.5">
+    <row r="378" spans="1:7">
       <c r="A378" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C378" s="14" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D378" s="15"/>
       <c r="E378" s="15"/>
       <c r="F378" s="14" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="G378" s="15"/>
     </row>
@@ -9103,15 +9111,15 @@
         <v>38</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C379" s="14" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D379" s="15"/>
       <c r="E379" s="15"/>
       <c r="F379" s="14" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G379" s="15"/>
     </row>
@@ -9120,32 +9128,32 @@
         <v>38</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>139</v>
+        <v>365</v>
       </c>
       <c r="C380" s="14" t="s">
-        <v>139</v>
+        <v>365</v>
       </c>
       <c r="D380" s="15"/>
       <c r="E380" s="15"/>
       <c r="F380" s="14" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G380" s="15"/>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" ht="31.5">
       <c r="A381" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C381" s="14" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D381" s="15"/>
       <c r="E381" s="15"/>
       <c r="F381" s="14" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="G381" s="15"/>
     </row>
@@ -9154,49 +9162,49 @@
         <v>38</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C382" s="14" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D382" s="15"/>
       <c r="E382" s="15"/>
       <c r="F382" s="14" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G382" s="15"/>
     </row>
-    <row r="383" spans="1:7" ht="31.5">
+    <row r="383" spans="1:7">
       <c r="A383" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>372</v>
+        <v>137</v>
       </c>
       <c r="C383" s="14" t="s">
-        <v>372</v>
+        <v>137</v>
       </c>
       <c r="D383" s="15"/>
       <c r="E383" s="15"/>
       <c r="F383" s="14" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="G383" s="15"/>
     </row>
-    <row r="384" spans="1:7" ht="31.5">
+    <row r="384" spans="1:7">
       <c r="A384" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C384" s="14" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D384" s="15"/>
       <c r="E384" s="15"/>
       <c r="F384" s="14" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G384" s="15"/>
     </row>
@@ -9205,32 +9213,32 @@
         <v>38</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C385" s="14" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D385" s="15"/>
       <c r="E385" s="15"/>
       <c r="F385" s="14" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="G385" s="15"/>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" ht="31.5">
       <c r="A386" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C386" s="14" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D386" s="15"/>
       <c r="E386" s="15"/>
       <c r="F386" s="14" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="G386" s="15"/>
     </row>
@@ -9239,15 +9247,15 @@
         <v>38</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C387" s="14" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D387" s="15"/>
       <c r="E387" s="15"/>
       <c r="F387" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G387" s="15"/>
     </row>
@@ -9256,15 +9264,15 @@
         <v>38</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C388" s="14" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D388" s="15"/>
       <c r="E388" s="15"/>
       <c r="F388" s="14" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="G388" s="15"/>
     </row>
@@ -9273,32 +9281,32 @@
         <v>38</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C389" s="14" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D389" s="15"/>
       <c r="E389" s="15"/>
       <c r="F389" s="14" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="G389" s="15"/>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" ht="31.5">
       <c r="A390" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C390" s="14" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D390" s="15"/>
       <c r="E390" s="15"/>
       <c r="F390" s="14" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G390" s="15"/>
     </row>
@@ -9307,49 +9315,49 @@
         <v>38</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C391" s="14" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D391" s="15"/>
       <c r="E391" s="15"/>
       <c r="F391" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G391" s="15"/>
     </row>
-    <row r="392" spans="1:7" ht="31.5">
+    <row r="392" spans="1:7">
       <c r="A392" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C392" s="14" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D392" s="15"/>
       <c r="E392" s="15"/>
       <c r="F392" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G392" s="15"/>
     </row>
-    <row r="393" spans="1:7" ht="31.5">
+    <row r="393" spans="1:7">
       <c r="A393" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C393" s="14" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D393" s="15"/>
       <c r="E393" s="15"/>
       <c r="F393" s="14" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="G393" s="15"/>
     </row>
@@ -9358,32 +9366,32 @@
         <v>38</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C394" s="14" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D394" s="15"/>
       <c r="E394" s="15"/>
       <c r="F394" s="14" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="G394" s="15"/>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" ht="31.5">
       <c r="A395" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C395" s="14" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D395" s="15"/>
       <c r="E395" s="15"/>
       <c r="F395" s="14" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="G395" s="15"/>
     </row>
@@ -9392,15 +9400,15 @@
         <v>38</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C396" s="14" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D396" s="15"/>
       <c r="E396" s="15"/>
       <c r="F396" s="14" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="G396" s="15"/>
     </row>
@@ -9409,49 +9417,49 @@
         <v>38</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C397" s="14" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D397" s="15"/>
       <c r="E397" s="15"/>
       <c r="F397" s="14" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="G397" s="15"/>
     </row>
-    <row r="398" spans="1:7" ht="31.5">
+    <row r="398" spans="1:7">
       <c r="A398" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C398" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D398" s="15"/>
       <c r="E398" s="15"/>
       <c r="F398" s="14" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="G398" s="15"/>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" ht="31.5">
       <c r="A399" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C399" s="14" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D399" s="15"/>
       <c r="E399" s="15"/>
       <c r="F399" s="14" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="G399" s="15"/>
     </row>
@@ -9460,66 +9468,66 @@
         <v>38</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D400" s="15"/>
       <c r="E400" s="15"/>
       <c r="F400" s="14" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="G400" s="15"/>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" ht="31.5">
       <c r="A401" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B401" s="14" t="s">
-        <v>145</v>
+        <v>385</v>
       </c>
       <c r="C401" s="14" t="s">
-        <v>145</v>
+        <v>385</v>
       </c>
       <c r="D401" s="15"/>
       <c r="E401" s="15"/>
       <c r="F401" s="14" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G401" s="15"/>
     </row>
-    <row r="402" spans="1:7" ht="31.5">
+    <row r="402" spans="1:7">
       <c r="A402" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C402" s="14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D402" s="15"/>
       <c r="E402" s="15"/>
       <c r="F402" s="14" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G402" s="15"/>
     </row>
-    <row r="403" spans="1:7" ht="31.5">
+    <row r="403" spans="1:7">
       <c r="A403" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C403" s="14" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D403" s="15"/>
       <c r="E403" s="15"/>
       <c r="F403" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G403" s="15"/>
     </row>
@@ -9528,66 +9536,66 @@
         <v>38</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>392</v>
+        <v>143</v>
       </c>
       <c r="C404" s="14" t="s">
-        <v>392</v>
+        <v>143</v>
       </c>
       <c r="D404" s="15"/>
       <c r="E404" s="15"/>
       <c r="F404" s="14" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="G404" s="15"/>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" ht="31.5">
       <c r="A405" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C405" s="14" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D405" s="15"/>
       <c r="E405" s="15"/>
       <c r="F405" s="14" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="G405" s="15"/>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" ht="31.5">
       <c r="A406" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C406" s="14" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D406" s="15"/>
       <c r="E406" s="15"/>
       <c r="F406" s="14" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="G406" s="15"/>
     </row>
-    <row r="407" spans="1:7" ht="31.5">
+    <row r="407" spans="1:7">
       <c r="A407" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C407" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D407" s="15"/>
       <c r="E407" s="15"/>
       <c r="F407" s="14" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G407" s="15"/>
     </row>
@@ -9596,15 +9604,15 @@
         <v>38</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C408" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D408" s="15"/>
       <c r="E408" s="15"/>
       <c r="F408" s="14" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="G408" s="15"/>
     </row>
@@ -9613,32 +9621,32 @@
         <v>38</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C409" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D409" s="15"/>
       <c r="E409" s="15"/>
       <c r="F409" s="14" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="G409" s="15"/>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" ht="31.5">
       <c r="A410" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C410" s="14" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D410" s="15"/>
       <c r="E410" s="15"/>
       <c r="F410" s="14" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="G410" s="15"/>
     </row>
@@ -9647,49 +9655,49 @@
         <v>38</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C411" s="14" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D411" s="15"/>
       <c r="E411" s="15"/>
       <c r="F411" s="14" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="G411" s="15"/>
     </row>
-    <row r="412" spans="1:7" ht="31.5">
+    <row r="412" spans="1:7">
       <c r="A412" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C412" s="14" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D412" s="15"/>
       <c r="E412" s="15"/>
       <c r="F412" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G412" s="15"/>
     </row>
-    <row r="413" spans="1:7" ht="47.25">
+    <row r="413" spans="1:7">
       <c r="A413" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C413" s="14" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D413" s="15"/>
       <c r="E413" s="15"/>
       <c r="F413" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G413" s="15"/>
     </row>
@@ -9698,66 +9706,66 @@
         <v>38</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C414" s="14" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D414" s="15"/>
       <c r="E414" s="15"/>
       <c r="F414" s="14" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="G414" s="15"/>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" ht="31.5">
       <c r="A415" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>148</v>
+        <v>398</v>
       </c>
       <c r="C415" s="14" t="s">
-        <v>148</v>
+        <v>398</v>
       </c>
       <c r="D415" s="15"/>
       <c r="E415" s="15"/>
       <c r="F415" s="14" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="G415" s="15"/>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" ht="47.25">
       <c r="A416" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C416" s="14" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D416" s="15"/>
       <c r="E416" s="15"/>
       <c r="F416" s="14" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="G416" s="15"/>
     </row>
-    <row r="417" spans="1:7" ht="47.25">
+    <row r="417" spans="1:7">
       <c r="A417" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D417" s="15"/>
       <c r="E417" s="15"/>
       <c r="F417" s="14" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="G417" s="15"/>
     </row>
@@ -9766,49 +9774,49 @@
         <v>38</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>405</v>
+        <v>146</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>405</v>
+        <v>146</v>
       </c>
       <c r="D418" s="15"/>
       <c r="E418" s="15"/>
       <c r="F418" s="14" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="G418" s="15"/>
     </row>
-    <row r="419" spans="1:7" ht="31.5">
+    <row r="419" spans="1:7">
       <c r="A419" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D419" s="15"/>
       <c r="E419" s="15"/>
       <c r="F419" s="14" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="G419" s="15"/>
     </row>
-    <row r="420" spans="1:7" ht="31.5">
+    <row r="420" spans="1:7" ht="47.25">
       <c r="A420" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D420" s="15"/>
       <c r="E420" s="15"/>
       <c r="F420" s="14" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="G420" s="15"/>
     </row>
@@ -9817,15 +9825,15 @@
         <v>38</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C421" s="14" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D421" s="15"/>
       <c r="E421" s="15"/>
       <c r="F421" s="14" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G421" s="15"/>
     </row>
@@ -9834,32 +9842,32 @@
         <v>38</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C422" s="14" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D422" s="15"/>
       <c r="E422" s="15"/>
       <c r="F422" s="14" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="G422" s="15"/>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" ht="31.5">
       <c r="A423" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D423" s="15"/>
       <c r="E423" s="15"/>
       <c r="F423" s="14" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="G423" s="15"/>
     </row>
@@ -9868,32 +9876,32 @@
         <v>38</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C424" s="14" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D424" s="15"/>
       <c r="E424" s="15"/>
       <c r="F424" s="14" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G424" s="15"/>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" ht="31.5">
       <c r="A425" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C425" s="14" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D425" s="15"/>
       <c r="E425" s="15"/>
       <c r="F425" s="14" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="G425" s="15"/>
     </row>
@@ -9902,49 +9910,49 @@
         <v>38</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C426" s="14" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D426" s="15"/>
       <c r="E426" s="15"/>
       <c r="F426" s="14" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="G426" s="15"/>
     </row>
-    <row r="427" spans="1:7" ht="31.5">
+    <row r="427" spans="1:7">
       <c r="A427" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C427" s="14" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D427" s="15"/>
       <c r="E427" s="15"/>
       <c r="F427" s="14" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="G427" s="15"/>
     </row>
-    <row r="428" spans="1:7" ht="31.5">
+    <row r="428" spans="1:7">
       <c r="A428" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D428" s="15"/>
       <c r="E428" s="15"/>
       <c r="F428" s="14" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="G428" s="15"/>
     </row>
@@ -9953,49 +9961,49 @@
         <v>38</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D429" s="15"/>
       <c r="E429" s="15"/>
       <c r="F429" s="14" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="G429" s="15"/>
     </row>
-    <row r="430" spans="1:7" ht="47.25">
+    <row r="430" spans="1:7" ht="31.5">
       <c r="A430" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D430" s="15"/>
       <c r="E430" s="15"/>
       <c r="F430" s="14" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="G430" s="15"/>
     </row>
-    <row r="431" spans="1:7" ht="47.25">
+    <row r="431" spans="1:7" ht="31.5">
       <c r="A431" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C431" s="14" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D431" s="15"/>
       <c r="E431" s="15"/>
       <c r="F431" s="14" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="G431" s="15"/>
     </row>
@@ -10004,66 +10012,66 @@
         <v>38</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C432" s="14" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D432" s="15"/>
       <c r="E432" s="15"/>
       <c r="F432" s="14" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="G432" s="15"/>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" ht="47.25">
       <c r="A433" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C433" s="14" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D433" s="15"/>
       <c r="E433" s="15"/>
       <c r="F433" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G433" s="15"/>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" ht="47.25">
       <c r="A434" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C434" s="14" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D434" s="15"/>
       <c r="E434" s="15"/>
       <c r="F434" s="14" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="G434" s="15"/>
     </row>
-    <row r="435" spans="1:7" ht="31.5">
+    <row r="435" spans="1:7">
       <c r="A435" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C435" s="14" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D435" s="15"/>
       <c r="E435" s="15"/>
       <c r="F435" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G435" s="15"/>
     </row>
@@ -10072,15 +10080,15 @@
         <v>38</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C436" s="14" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D436" s="15"/>
       <c r="E436" s="15"/>
       <c r="F436" s="14" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="G436" s="15"/>
     </row>
@@ -10089,32 +10097,32 @@
         <v>38</v>
       </c>
       <c r="B437" s="14" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C437" s="14" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D437" s="15"/>
       <c r="E437" s="15"/>
       <c r="F437" s="14" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="G437" s="15"/>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" ht="31.5">
       <c r="A438" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B438" s="14" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C438" s="14" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D438" s="15"/>
       <c r="E438" s="15"/>
       <c r="F438" s="14" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="G438" s="15"/>
     </row>
@@ -10123,15 +10131,15 @@
         <v>38</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C439" s="14" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D439" s="15"/>
       <c r="E439" s="15"/>
       <c r="F439" s="14" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G439" s="15"/>
     </row>
@@ -10140,15 +10148,15 @@
         <v>38</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C440" s="14" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D440" s="15"/>
       <c r="E440" s="15"/>
       <c r="F440" s="14" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="G440" s="15"/>
     </row>
@@ -10157,32 +10165,32 @@
         <v>38</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C441" s="14" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D441" s="15"/>
       <c r="E441" s="15"/>
       <c r="F441" s="14" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G441" s="15"/>
     </row>
-    <row r="442" spans="1:7" ht="31.5">
+    <row r="442" spans="1:7">
       <c r="A442" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C442" s="14" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D442" s="15"/>
       <c r="E442" s="15"/>
       <c r="F442" s="14" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="G442" s="15"/>
     </row>
@@ -10191,15 +10199,15 @@
         <v>38</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C443" s="14" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D443" s="15"/>
       <c r="E443" s="15"/>
       <c r="F443" s="14" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="G443" s="15"/>
     </row>
@@ -10208,81 +10216,132 @@
         <v>38</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C444" s="14" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D444" s="15"/>
       <c r="E444" s="15"/>
       <c r="F444" s="14" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="G444" s="15"/>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" ht="31.5">
       <c r="A445" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C445" s="14" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D445" s="15"/>
       <c r="E445" s="15"/>
       <c r="F445" s="14" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="G445" s="15"/>
     </row>
-    <row r="446" spans="1:7" ht="31.5">
+    <row r="446" spans="1:7">
       <c r="A446" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C446" s="14" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D446" s="15"/>
       <c r="E446" s="15"/>
       <c r="F446" s="14" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="G446" s="15"/>
     </row>
-    <row r="447" spans="1:7" ht="31.5">
+    <row r="447" spans="1:7">
       <c r="A447" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C447" s="14" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D447" s="15"/>
       <c r="E447" s="15"/>
       <c r="F447" s="14" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="G447" s="15"/>
     </row>
     <row r="448" spans="1:7">
-      <c r="A448" s="15"/>
-      <c r="B448" s="22"/>
-      <c r="C448" s="22"/>
+      <c r="A448" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B448" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C448" s="14" t="s">
+        <v>430</v>
+      </c>
       <c r="D448" s="15"/>
       <c r="E448" s="15"/>
-      <c r="F448" s="15"/>
+      <c r="F448" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="G448" s="15"/>
     </row>
+    <row r="449" spans="1:7" ht="31.5">
+      <c r="A449" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B449" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C449" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="D449" s="15"/>
+      <c r="E449" s="15"/>
+      <c r="F449" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G449" s="15"/>
+    </row>
+    <row r="450" spans="1:7" ht="31.5">
+      <c r="A450" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B450" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="C450" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D450" s="15"/>
+      <c r="E450" s="15"/>
+      <c r="F450" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G450" s="15"/>
+    </row>
+    <row r="451" spans="1:7">
+      <c r="A451" s="15"/>
+      <c r="B451" s="22"/>
+      <c r="C451" s="22"/>
+      <c r="D451" s="15"/>
+      <c r="E451" s="15"/>
+      <c r="F451" s="15"/>
+      <c r="G451" s="15"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:B72">
-    <sortCondition ref="B14:B72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:B75">
+    <sortCondition ref="B14:B75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10294,7 +10353,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -10306,24 +10365,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBF6FEA-1940-4E16-9FB0-5C8F17723147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A233AA2-11C9-4691-AE01-4A0F0FE058DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1514,12 +1514,6 @@
     <t>L'urine de l'enfant n'a pas été consevé. Vous ne pouvez pas enregistré ses résultats.</t>
   </si>
   <si>
-    <t>(2023 Sept) - 4. SCH/STH - Urine Filtration V4</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_4_urine_filtration_v4</t>
-  </si>
-  <si>
     <t>ABAYE Kokou Mawulom</t>
   </si>
   <si>
@@ -1583,9 +1577,6 @@
     <t>YAKPA Kossi</t>
   </si>
   <si>
-    <t>L'urine de l'enfant avait-elle était concervé</t>
-  </si>
-  <si>
     <t>Volume d’urine pour le contrôle</t>
   </si>
   <si>
@@ -1599,6 +1590,15 @@
   </si>
   <si>
     <t>${u_urine_conserve} = 'Non'</t>
+  </si>
+  <si>
+    <t>(2023 Sept) - 4. SCH/STH - Urine Filtration V4.1</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_4_urine_filtration_v4_1</t>
+  </si>
+  <si>
+    <t>L'urine de l'enfant avait-elle était concervée</t>
   </si>
 </sst>
 </file>
@@ -2210,7 +2210,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2415,7 +2415,7 @@
         <v>481</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="31"/>
@@ -2590,7 +2590,7 @@
         <v>474</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="31"/>
@@ -2618,7 +2618,7 @@
         <v>475</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="43"/>
@@ -2642,7 +2642,7 @@
         <v>476</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="43"/>
@@ -2669,7 +2669,7 @@
         <v>477</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="43"/>
@@ -2700,7 +2700,7 @@
       <c r="F19" s="30"/>
       <c r="G19" s="40"/>
       <c r="H19" s="31" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
@@ -2828,10 +2828,10 @@
         <v>39</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
@@ -2858,10 +2858,10 @@
         <v>39</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
@@ -2888,10 +2888,10 @@
         <v>39</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="20"/>
@@ -2933,10 +2933,10 @@
         <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
@@ -2993,10 +2993,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
@@ -3023,10 +3023,10 @@
         <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
@@ -3038,10 +3038,10 @@
         <v>39</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
@@ -3083,10 +3083,10 @@
         <v>39</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
@@ -3098,10 +3098,10 @@
         <v>39</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
@@ -3113,10 +3113,10 @@
         <v>39</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
@@ -3173,10 +3173,10 @@
         <v>39</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
@@ -3188,10 +3188,10 @@
         <v>39</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
@@ -3218,10 +3218,10 @@
         <v>39</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
@@ -3233,10 +3233,10 @@
         <v>39</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -3248,10 +3248,10 @@
         <v>39</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
@@ -3263,10 +3263,10 @@
         <v>39</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
@@ -3293,10 +3293,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
@@ -3308,10 +3308,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3323,10 +3323,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
@@ -3368,10 +3368,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="29"/>
@@ -3398,10 +3398,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="29"/>
@@ -10353,7 +10353,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -10376,10 +10376,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>436</v>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_4_urine_filtration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A233AA2-11C9-4691-AE01-4A0F0FE058DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC90ACC-E7DA-485D-8148-5F9D7C8AFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="520">
   <si>
     <t>type</t>
   </si>
@@ -1592,13 +1592,31 @@
     <t>${u_urine_conserve} = 'Non'</t>
   </si>
   <si>
-    <t>(2023 Sept) - 4. SCH/STH - Urine Filtration V4.1</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_4_urine_filtration_v4_1</t>
-  </si>
-  <si>
     <t>L'urine de l'enfant avait-elle était concervée</t>
+  </si>
+  <si>
+    <t>(2023 Sept) - 4. SCH/STH - Urine Filtration V4.2</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_4_urine_filtration_v4_2</t>
+  </si>
+  <si>
+    <t>u_sch_man_per_10ml</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs (S. Mansoni)</t>
+  </si>
+  <si>
+    <t>round( 10 * ${u_sch_man} div ${u_urine_vol} )</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs (S. Mansoni) pour le contrôle</t>
+  </si>
+  <si>
+    <t>u_sch_man_per_10ml_control</t>
+  </si>
+  <si>
+    <t>round( 10 * ${u_sch_man_control} div ${u_urine_vol} )</t>
   </si>
 </sst>
 </file>
@@ -1795,7 +1813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1850,16 +1868,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2204,23 +2221,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="47.5" style="49" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="47.5" style="48" customWidth="1"/>
     <col min="4" max="4" width="47.375" style="25" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="49" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="48" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="25" customWidth="1"/>
     <col min="8" max="8" width="22" style="25" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="25" customWidth="1"/>
@@ -2267,515 +2284,573 @@
       <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="50" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="24" customFormat="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-    </row>
-    <row r="3" spans="1:13" s="36" customFormat="1">
-      <c r="A3" s="30" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+    </row>
+    <row r="3" spans="1:13" s="35" customFormat="1">
+      <c r="A3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-    </row>
-    <row r="4" spans="1:13" s="36" customFormat="1">
-      <c r="A4" s="30" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="1:13" s="35" customFormat="1">
+      <c r="A4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="37"/>
-    </row>
-    <row r="5" spans="1:13" s="36" customFormat="1">
-      <c r="A5" s="30" t="s">
+      <c r="K4" s="29"/>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="1:13" s="35" customFormat="1">
+      <c r="A5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="37"/>
-    </row>
-    <row r="6" spans="1:13" s="41" customFormat="1">
-      <c r="A6" s="39" t="s">
+      <c r="K5" s="29"/>
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="1:13" s="40" customFormat="1">
+      <c r="A6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" s="41" customFormat="1" ht="31.5">
-      <c r="A7" s="39" t="s">
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" s="40" customFormat="1" ht="31.5">
+      <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>455</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="30" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>460</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" s="42" customFormat="1">
-      <c r="A8" s="31" t="s">
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" s="41" customFormat="1">
+      <c r="A8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="30" t="s">
+      <c r="C8" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-    </row>
-    <row r="9" spans="1:13" s="42" customFormat="1" ht="31.5">
-      <c r="A9" s="31" t="s">
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:13" s="41" customFormat="1" ht="31.5">
+      <c r="A9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="30" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:13" s="24" customFormat="1" ht="31.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>466</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="31" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="31" t="s">
+      <c r="I10" s="42"/>
+      <c r="J10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:13" s="24" customFormat="1" ht="31.5">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>461</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="31" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="42" t="s">
         <v>468</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
       <c r="M11" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="24" customFormat="1" ht="31.5">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+    </row>
+    <row r="13" spans="1:13" s="24" customFormat="1" ht="31.5">
+      <c r="A13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>462</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="31" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="31" t="s">
+      <c r="I13" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="J13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-    </row>
-    <row r="13" spans="1:13" s="24" customFormat="1">
-      <c r="A13" s="31" t="s">
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="24" customFormat="1">
+      <c r="A14" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>479</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="43" t="s">
+      <c r="D14" s="46"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="42" t="s">
         <v>482</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-    </row>
-    <row r="14" spans="1:13" s="41" customFormat="1" ht="47.25">
-      <c r="A14" s="39" t="s">
+      <c r="I14" s="42"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" s="40" customFormat="1" ht="47.25">
+      <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>480</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>455</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="30" t="s">
+      <c r="D15" s="39"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G15" s="39" t="s">
         <v>460</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H15" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30" t="s">
+      <c r="I15" s="29"/>
+      <c r="J15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="1:13" s="42" customFormat="1" ht="47.25">
-      <c r="A15" s="31" t="s">
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" s="41" customFormat="1" ht="47.25">
+      <c r="A16" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C16" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31" t="s">
+      <c r="D16" s="32"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G16" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H16" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="30" t="s">
+      <c r="I16" s="30"/>
+      <c r="J16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-    </row>
-    <row r="16" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A16" s="31" t="s">
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:13" s="24" customFormat="1" ht="47.25">
+      <c r="A17" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>475</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>507</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="31" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="31" t="s">
+      <c r="I17" s="42"/>
+      <c r="J17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-    </row>
-    <row r="17" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A17" s="31" t="s">
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+    </row>
+    <row r="18" spans="1:13" s="24" customFormat="1" ht="47.25">
+      <c r="A18" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C18" s="32" t="s">
         <v>508</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="31" t="s">
+      <c r="D18" s="32"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I18" s="42" t="s">
         <v>478</v>
       </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="24" t="s">
+      <c r="J18" s="30"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A18" s="31" t="s">
+    <row r="19" spans="1:13" s="24" customFormat="1" ht="47.25">
+      <c r="A19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>477</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C19" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="I19" s="42"/>
+      <c r="J19" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+    </row>
+    <row r="20" spans="1:13" s="24" customFormat="1" ht="47.25">
+      <c r="A20" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="31" t="s">
+      <c r="D20" s="32"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="31" t="s">
+      <c r="I20" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="J20" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-    </row>
-    <row r="19" spans="1:13" s="41" customFormat="1" ht="31.5">
-      <c r="A19" s="39" t="s">
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="40" customFormat="1" ht="31.5">
+      <c r="A21" s="38" t="s">
         <v>469</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C21" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="31" t="s">
+      <c r="D21" s="39"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="30" t="s">
         <v>510</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" spans="1:13" s="24" customFormat="1">
-      <c r="A20" s="31" t="s">
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" s="24" customFormat="1">
+      <c r="A22" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C22" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-    </row>
-    <row r="21" spans="1:13" s="24" customFormat="1">
-      <c r="A21" s="31" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+    </row>
+    <row r="23" spans="1:13" s="24" customFormat="1">
+      <c r="A23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-    </row>
-    <row r="22" spans="1:13" s="24" customFormat="1">
-      <c r="A22" s="31" t="s">
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+    </row>
+    <row r="24" spans="1:13" s="24" customFormat="1">
+      <c r="A24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B24" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3179,7 +3254,7 @@
         <v>495</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
     </row>
@@ -3194,7 +3269,7 @@
         <v>496</v>
       </c>
       <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
     </row>
@@ -3209,7 +3284,7 @@
         <v>450</v>
       </c>
       <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
     </row>
@@ -3224,7 +3299,7 @@
         <v>497</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
     </row>
@@ -3239,7 +3314,7 @@
         <v>498</v>
       </c>
       <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
     </row>
@@ -3254,7 +3329,7 @@
         <v>499</v>
       </c>
       <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
     </row>
@@ -3269,7 +3344,7 @@
         <v>500</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
     </row>
@@ -3284,7 +3359,7 @@
         <v>451</v>
       </c>
       <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
     </row>
@@ -3299,7 +3374,7 @@
         <v>501</v>
       </c>
       <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
     </row>
@@ -3314,7 +3389,7 @@
         <v>502</v>
       </c>
       <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
     </row>
@@ -3329,7 +3404,7 @@
         <v>503</v>
       </c>
       <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
     </row>
@@ -3344,7 +3419,7 @@
         <v>452</v>
       </c>
       <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
     </row>
@@ -3359,7 +3434,7 @@
         <v>453</v>
       </c>
       <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
     </row>
@@ -3374,7 +3449,7 @@
         <v>504</v>
       </c>
       <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
     </row>
@@ -3389,7 +3464,7 @@
         <v>454</v>
       </c>
       <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
     </row>
@@ -3404,7 +3479,7 @@
         <v>505</v>
       </c>
       <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
     </row>
@@ -3413,7 +3488,7 @@
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
     </row>
@@ -10376,10 +10451,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>436</v>
